--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -34,17 +34,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,14 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,14 +83,11 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,22 +450,22 @@
       <c r="D1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="2">
       <c r="A2" s="1" t="str">
@@ -497,22 +480,22 @@
       <c r="D2" s="1" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="3">
       <c r="A3" s="1" t="str">
@@ -527,22 +510,22 @@
       <c r="D3" s="1" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="4">
       <c r="A4" s="1"/>
@@ -555,22 +538,22 @@
       <c r="D4" s="1" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="5">
       <c r="A5" s="1">
@@ -585,22 +568,22 @@
       <c r="D5" s="1" t="str">
         <v>道具栏已满</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="6">
       <c r="A6" s="1">
@@ -615,22 +598,22 @@
       <c r="D6" s="1" t="str">
         <v>正在使用此道具</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="7">
       <c r="A7" s="1">
@@ -645,22 +628,22 @@
       <c r="D7" s="1" t="str">
         <v>有人正在使用，请换个试试</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="8">
       <c r="A8" s="1">
@@ -675,22 +658,22 @@
       <c r="D8" s="1" t="str">
         <v>基础设置</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="9">
       <c r="A9" s="1">
@@ -705,22 +688,22 @@
       <c r="D9" s="1" t="str">
         <v>画质</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="10">
       <c r="A10" s="1">
@@ -735,22 +718,22 @@
       <c r="D10" s="1" t="str">
         <v>音效</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="11">
       <c r="A11" s="1">
@@ -765,22 +748,22 @@
       <c r="D11" s="1" t="str">
         <v>背景音乐</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="12">
       <c r="A12" s="1">
@@ -795,22 +778,22 @@
       <c r="D12" s="1" t="str">
         <v>视角缩放</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="13">
       <c r="A13" s="1">
@@ -825,22 +808,22 @@
       <c r="D13" s="1" t="str">
         <v>显示昵称</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="14">
       <c r="A14" s="1">
@@ -855,22 +838,22 @@
       <c r="D14" s="1" t="str">
         <v>重置位置</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="15">
       <c r="A15" s="1">
@@ -885,22 +868,22 @@
       <c r="D15" s="1" t="str">
         <v>还原设置</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="16">
       <c r="A16" s="1">
@@ -915,22 +898,22 @@
       <c r="D16" s="1" t="str">
         <v>开</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="17">
       <c r="A17" s="1">
@@ -945,88 +928,4790 @@
       <c r="D17" s="1" t="str">
         <v>关</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <v>Text_ObtainedTips</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>Obtained, open the knapsack to use</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <v>已获得，打开背包使用</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <v>Text_Advertising</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>Advertising</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <v>广告奖励</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <v>Text_ADGetTips</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>See the AD for free guide you get</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v>看广告免费指引你获得</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="21">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <v>Text_Dont</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>Don't</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v>不要</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="22">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <v>Text_Free</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>free</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <v>免费获得</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="23">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <v>Text_Fail</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <v>指引失败，请重试</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="24">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <v>Text_NoOnTheList</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>Not</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v>未上榜</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <v>Text_Ranking</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <v>Ranking</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <v>排名</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="26">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <v>Text_Nickname</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <v>Nickname</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <v>昵称</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="27">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <v>Text_Score</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <v>Score</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <v>分数</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="28">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <v>Text_Duration</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>Duration</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <v>时长</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="29">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <v>Text_TopInTermsOfDuration</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>Top {0} In Terms Of Duration</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v>时长全服前{0}名</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <v>Text_GuideTips</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <v>Reach near the target point</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v>达到目标点附近</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,46 +27,814 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Value_Ch</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>Key|ReadByName</t>
+  </si>
+  <si>
+    <t>MainLanguage</t>
+  </si>
+  <si>
+    <t>ChildLanguage</t>
+  </si>
+  <si>
+    <t>Text_TheItemBarIsFull</t>
+  </si>
+  <si>
+    <t>The item bar is full</t>
+  </si>
+  <si>
+    <t>道具栏已满</t>
+  </si>
+  <si>
+    <t>Text_ThisItemIsInUse</t>
+  </si>
+  <si>
+    <t>This item is in use</t>
+  </si>
+  <si>
+    <t>正在使用此道具</t>
+  </si>
+  <si>
+    <t>Text_Tips1</t>
+  </si>
+  <si>
+    <t>Someone is using it, please try another one</t>
+  </si>
+  <si>
+    <t>有人正在使用，请换个试试</t>
+  </si>
+  <si>
+    <t>Text_SetUp1</t>
+  </si>
+  <si>
+    <t>Base Setup</t>
+  </si>
+  <si>
+    <t>基础设置</t>
+  </si>
+  <si>
+    <t>Text_PictureQuality</t>
+  </si>
+  <si>
+    <t>Picture Quality</t>
+  </si>
+  <si>
+    <t>画质</t>
+  </si>
+  <si>
+    <t>Text_SoundEffects</t>
+  </si>
+  <si>
+    <t>Sound Effects</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Text_BackgroundMusic</t>
+  </si>
+  <si>
+    <t>Background Music</t>
+  </si>
+  <si>
+    <t>背景音乐</t>
+  </si>
+  <si>
+    <t>Text_ViewAngleScaling</t>
+  </si>
+  <si>
+    <t>View Angle Scaling</t>
+  </si>
+  <si>
+    <t>视角缩放</t>
+  </si>
+  <si>
+    <t>Text_DisplayNicknames</t>
+  </si>
+  <si>
+    <t>Display Nicknames</t>
+  </si>
+  <si>
+    <t>显示昵称</t>
+  </si>
+  <si>
+    <t>Text_ResetLocation</t>
+  </si>
+  <si>
+    <t>Reset Location</t>
+  </si>
+  <si>
+    <t>重置位置</t>
+  </si>
+  <si>
+    <t>Text_RestoringSettings</t>
+  </si>
+  <si>
+    <t>Restoring Settings</t>
+  </si>
+  <si>
+    <t>还原设置</t>
+  </si>
+  <si>
+    <t>Text_On</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>Text_Off</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>Text_ObtainedTips</t>
+  </si>
+  <si>
+    <t>Obtained, open the knapsack to use</t>
+  </si>
+  <si>
+    <t>已获得，打开背包使用</t>
+  </si>
+  <si>
+    <t>Text_Advertising</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>广告奖励</t>
+  </si>
+  <si>
+    <t>Text_ADGetTips</t>
+  </si>
+  <si>
+    <t>See the AD for free guide you get</t>
+  </si>
+  <si>
+    <t>看广告免费指引你获得</t>
+  </si>
+  <si>
+    <t>Text_Dont</t>
+  </si>
+  <si>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>不要</t>
+  </si>
+  <si>
+    <t>Text_Free</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>免费获得</t>
+  </si>
+  <si>
+    <t>Text_Fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>指引失败，请重试</t>
+  </si>
+  <si>
+    <t>Text_NoOnTheList</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>未上榜</t>
+  </si>
+  <si>
+    <t>Text_Ranking</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>Text_Nickname</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>Text_Score</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>Text_Duration</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>时长</t>
+  </si>
+  <si>
+    <t>Text_TopInTermsOfDuration</t>
+  </si>
+  <si>
+    <t>Top {0} In Terms Of Duration</t>
+  </si>
+  <si>
+    <t>时长全服前{0}名</t>
+  </si>
+  <si>
+    <t>Text_StartGame</t>
+  </si>
+  <si>
+    <t>Start the game</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>Text_WelcomeTo</t>
+  </si>
+  <si>
+    <t>Welcome to
+My Cherry blossom town</t>
+  </si>
+  <si>
+    <t>欢迎来到
+我的樱花小镇</t>
+  </si>
+  <si>
+    <t>Text_UpNext</t>
+  </si>
+  <si>
+    <t>Up next</t>
+  </si>
+  <si>
+    <t>下一个</t>
+  </si>
+  <si>
+    <t>Text_GuideEnd</t>
+  </si>
+  <si>
+    <t>With the guide over, start your trip to the cherry blossom town</t>
+  </si>
+  <si>
+    <t>引导结束，开启你的樱花小镇之旅吧</t>
+  </si>
+  <si>
+    <t>Text_Close</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>Text_MyCharacterId</t>
+  </si>
+  <si>
+    <t>My Character ID- Share Friend Try On</t>
+  </si>
+  <si>
+    <t>我的角色ID-分享好友试穿</t>
+  </si>
+  <si>
+    <t>Text_PleaseEnter</t>
+  </si>
+  <si>
+    <t>Please Enter The Friend Role ID</t>
+  </si>
+  <si>
+    <t>请输入好友角色ID</t>
+  </si>
+  <si>
+    <t>Text_Cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Text_FreeTryOn</t>
+  </si>
+  <si>
+    <t>Free Try On</t>
+  </si>
+  <si>
+    <t>免费试穿</t>
+  </si>
+  <si>
+    <t>Text_SaveImagesForFree</t>
+  </si>
+  <si>
+    <t>Save images for free</t>
+  </si>
+  <si>
+    <t>免费保存形象</t>
+  </si>
+  <si>
+    <t>Text_TryOnYourFriendAvatarForFree</t>
+  </si>
+  <si>
+    <t>Try On Your Friend's Avatar For Free</t>
+  </si>
+  <si>
+    <t>免费试穿好友的角色形象</t>
+  </si>
+  <si>
+    <t>Text_CopySuccessfully</t>
+  </si>
+  <si>
+    <t>Copy Successfully</t>
+  </si>
+  <si>
+    <t>复制成功</t>
+  </si>
+  <si>
+    <t>Text_InvalidID</t>
+  </si>
+  <si>
+    <t>Invalid ID!</t>
+  </si>
+  <si>
+    <t>ID无效！</t>
+  </si>
+  <si>
+    <t>Text_Loading</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>加载中</t>
+  </si>
+  <si>
+    <t>Text_TryItOnSuccessfully</t>
+  </si>
+  <si>
+    <t>Try it on successfully</t>
+  </si>
+  <si>
+    <t>试穿成功</t>
+  </si>
+  <si>
+    <t>Text_CopyTheCharacterIDShareFriendsTryOn</t>
+  </si>
+  <si>
+    <t>Copy the character ID share friends try on</t>
+  </si>
+  <si>
+    <t>复制角色ID分享好友试穿</t>
+  </si>
+  <si>
+    <t>Text_TryItOnForFree</t>
+  </si>
+  <si>
+    <t>Try it on for free</t>
+  </si>
+  <si>
+    <t>看广告免费试穿</t>
+  </si>
+  <si>
+    <t>Text_GuideTips</t>
+  </si>
+  <si>
+    <t>Reach near the target point</t>
+  </si>
+  <si>
+    <t>达到目标点附近</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -73,35 +843,332 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -150,7 +1217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -183,26 +1250,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -235,23 +1285,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,62 +1426,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>String</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>String</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>String</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -467,18 +1477,18 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>Value</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>Value_Ch</v>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -497,18 +1507,18 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="1" t="str">
-        <v>唯一ID</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>名字</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>英文</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>中文</v>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -527,16 +1537,16 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row r="4" spans="1:20">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="str">
-        <v>Key|ReadByName</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v>MainLanguage</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v>ChildLanguage</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -555,18 +1565,18 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <v>Text_TheItemBarIsFull</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>The item bar is full</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>道具栏已满</v>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -585,18 +1595,18 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>Text_ThisItemIsInUse</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>This item is in use</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <v>正在使用此道具</v>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -615,18 +1625,18 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>Text_Tips1</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>Someone is using it, please try another one</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v>有人正在使用，请换个试试</v>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -645,18 +1655,18 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <v>Text_SetUp1</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>Base Setup</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>基础设置</v>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -675,18 +1685,18 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <v>Text_PictureQuality</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>Picture Quality</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v>画质</v>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -705,18 +1715,18 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <v>Text_SoundEffects</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>Sound Effects</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <v>音效</v>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -735,18 +1745,18 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <v>Text_BackgroundMusic</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>Background Music</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <v>背景音乐</v>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -765,18 +1775,18 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <v>Text_ViewAngleScaling</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>View Angle Scaling</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <v>视角缩放</v>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -795,18 +1805,18 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <v>Text_DisplayNicknames</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>Display Nicknames</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <v>显示昵称</v>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -825,18 +1835,18 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <v>Text_ResetLocation</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <v>Reset Location</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <v>重置位置</v>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -855,18 +1865,18 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>Text_RestoringSettings</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>Restoring Settings</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <v>还原设置</v>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -885,18 +1895,18 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <v>Text_On</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <v>ON</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <v>开</v>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -915,18 +1925,18 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <v>Text_Off</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <v>OFF</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <v>关</v>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -945,18 +1955,18 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <v>Text_ObtainedTips</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <v>Obtained, open the knapsack to use</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <v>已获得，打开背包使用</v>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -975,18 +1985,18 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="str">
-        <v>Text_Advertising</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <v>Advertising</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <v>广告奖励</v>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1005,18 +2015,18 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="str">
-        <v>Text_ADGetTips</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <v>See the AD for free guide you get</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <v>看广告免费指引你获得</v>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1035,18 +2045,18 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="str">
-        <v>Text_Dont</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <v>Don't</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <v>不要</v>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1065,18 +2075,18 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="str">
-        <v>Text_Free</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>free</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <v>免费获得</v>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1095,18 +2105,18 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="str">
-        <v>Text_Fail</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>Fail</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <v>指引失败，请重试</v>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1125,18 +2135,18 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="str">
-        <v>Text_NoOnTheList</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>Not</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <v>未上榜</v>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1155,18 +2165,18 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="str">
-        <v>Text_Ranking</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>Ranking</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <v>排名</v>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1185,18 +2195,18 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="str">
-        <v>Text_Nickname</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <v>Nickname</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <v>昵称</v>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1215,18 +2225,18 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="str">
-        <v>Text_Score</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <v>Score</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <v>分数</v>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1245,18 +2255,18 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="str">
-        <v>Text_Duration</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <v>Duration</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <v>时长</v>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1275,18 +2285,18 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="str">
-        <v>Text_TopInTermsOfDuration</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <v>Top {0} In Terms Of Duration</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <v>时长全服前{0}名</v>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1305,18 +2315,18 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="str">
-        <v>Text_GuideTips</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>Reach near the target point</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <v>达到目标点附近</v>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1335,11 +2345,19 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1357,11 +2375,19 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1379,11 +2405,19 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1401,11 +2435,19 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1423,11 +2465,19 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1445,11 +2495,19 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1467,11 +2525,19 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1489,11 +2555,19 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1511,11 +2585,19 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1533,11 +2615,19 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1555,11 +2645,19 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1577,11 +2675,19 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1599,11 +2705,19 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+    <row r="43" spans="1:20">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1621,11 +2735,19 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+    <row r="44" spans="1:20">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1643,11 +2765,19 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+    <row r="45" spans="1:20">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1665,11 +2795,19 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+    <row r="46" spans="1:20">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1687,11 +2825,19 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+    <row r="47" spans="1:20">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1709,7 +2855,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1731,7 +2877,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1753,7 +2899,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1775,7 +2921,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1797,7 +2943,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:20">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1819,7 +2965,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:20">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1841,7 +2987,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:20">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1863,7 +3009,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:20">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1885,7 +3031,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1907,7 +3053,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:20">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1929,7 +3075,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:20">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1951,7 +3097,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1973,7 +3119,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:20">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1995,7 +3141,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:20">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2017,7 +3163,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:20">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2039,7 +3185,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:20">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2061,7 +3207,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:20">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2083,7 +3229,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2105,7 +3251,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2127,7 +3273,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2149,7 +3295,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:20">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2171,7 +3317,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:20">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2193,7 +3339,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:20">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2215,7 +3361,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2237,7 +3383,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2259,7 +3405,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:20">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2281,7 +3427,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:20">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2303,7 +3449,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:20">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2325,7 +3471,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:20">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2347,7 +3493,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:20">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2369,7 +3515,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:20">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2391,7 +3537,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:20">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2413,7 +3559,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:20">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2435,7 +3581,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:20">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2457,7 +3603,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:20">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2479,7 +3625,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2501,7 +3647,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:20">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2523,7 +3669,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:20">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2545,7 +3691,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:20">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2567,7 +3713,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:20">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2589,7 +3735,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:20">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2611,7 +3757,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:20">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2633,7 +3779,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:20">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2655,7 +3801,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:20">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2677,7 +3823,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:20">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2699,7 +3845,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:20">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2721,7 +3867,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:20">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2743,7 +3889,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:20">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2765,7 +3911,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:20">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2787,7 +3933,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:20">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2809,7 +3955,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:20">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2831,7 +3977,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:20">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2853,7 +3999,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:20">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2875,7 +4021,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:20">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2897,7 +4043,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:20">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2919,7 +4065,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:20">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2941,7 +4087,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:20">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2963,7 +4109,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:20">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2985,7 +4131,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:20">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3007,7 +4153,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:20">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3029,7 +4175,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:20">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3051,7 +4197,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:20">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3073,7 +4219,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:20">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3095,7 +4241,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:20">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3117,7 +4263,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:20">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3139,7 +4285,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:20">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3161,7 +4307,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:20">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3183,7 +4329,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:20">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3205,7 +4351,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:20">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3227,7 +4373,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:20">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3249,7 +4395,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:20">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3271,7 +4417,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:20">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3293,7 +4439,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:20">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3315,7 +4461,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:20">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3337,7 +4483,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:20">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3359,7 +4505,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:20">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3381,7 +4527,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:20">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3403,7 +4549,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:20">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3425,7 +4571,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3447,7 +4593,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3469,7 +4615,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3491,7 +4637,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3513,7 +4659,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3535,7 +4681,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3557,7 +4703,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3579,7 +4725,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3601,7 +4747,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3623,7 +4769,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3645,7 +4791,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3667,7 +4813,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3689,7 +4835,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3711,7 +4857,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3733,7 +4879,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3755,7 +4901,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3777,7 +4923,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3799,7 +4945,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3821,7 +4967,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3843,7 +4989,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3865,7 +5011,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3887,7 +5033,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3909,7 +5055,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3931,7 +5077,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3953,7 +5099,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3975,7 +5121,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3997,7 +5143,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4019,7 +5165,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4041,7 +5187,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4063,7 +5209,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4085,7 +5231,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4107,7 +5253,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4129,7 +5275,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4151,7 +5297,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4173,7 +5319,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4195,7 +5341,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4217,7 +5363,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4239,7 +5385,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4261,7 +5407,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4283,7 +5429,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4305,7 +5451,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4327,7 +5473,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4349,7 +5495,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4371,7 +5517,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4393,7 +5539,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4415,7 +5561,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4437,7 +5583,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4459,7 +5605,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4481,7 +5627,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4503,7 +5649,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4525,7 +5671,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4547,7 +5693,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4569,7 +5715,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4591,7 +5737,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4613,7 +5759,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4635,7 +5781,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4657,7 +5803,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4679,7 +5825,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4701,7 +5847,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4723,7 +5869,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4745,7 +5891,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4767,7 +5913,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4789,7 +5935,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4811,7 +5957,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4833,7 +5979,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4855,7 +6001,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4877,7 +6023,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4899,7 +6045,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4921,7 +6067,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4943,7 +6089,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4965,7 +6111,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4987,7 +6133,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5009,7 +6155,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5031,7 +6177,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5053,7 +6199,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5075,645 +6221,9 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
-    <row r="201">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-      <c r="S201" s="1"/>
-      <c r="T201" s="1"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
-      <c r="S202" s="1"/>
-      <c r="T202" s="1"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-      <c r="S204" s="1"/>
-      <c r="T204" s="1"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
-      <c r="S205" s="1"/>
-      <c r="T205" s="1"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-      <c r="S206" s="1"/>
-      <c r="T206" s="1"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
-      <c r="S207" s="1"/>
-      <c r="T207" s="1"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-      <c r="S208" s="1"/>
-      <c r="T208" s="1"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-      <c r="S209" s="1"/>
-      <c r="T209" s="1"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-      <c r="S210" s="1"/>
-      <c r="T210" s="1"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
-      <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
-      <c r="S212" s="1"/>
-      <c r="T212" s="1"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-      <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-      <c r="S214" s="1"/>
-      <c r="T214" s="1"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-      <c r="S219" s="1"/>
-      <c r="T219" s="1"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-      <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
-      <c r="L222" s="1"/>
-      <c r="M222" s="1"/>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
-      <c r="S222" s="1"/>
-      <c r="T222" s="1"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
-      <c r="M223" s="1"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-      <c r="S223" s="1"/>
-      <c r="T223" s="1"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
-      <c r="S224" s="1"/>
-      <c r="T224" s="1"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-      <c r="S225" s="1"/>
-      <c r="T225" s="1"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-      <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-      <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcMode="auto"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,814 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Value_Ch</t>
-  </si>
-  <si>
-    <t>唯一ID</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>Key|ReadByName</t>
-  </si>
-  <si>
-    <t>MainLanguage</t>
-  </si>
-  <si>
-    <t>ChildLanguage</t>
-  </si>
-  <si>
-    <t>Text_TheItemBarIsFull</t>
-  </si>
-  <si>
-    <t>The item bar is full</t>
-  </si>
-  <si>
-    <t>道具栏已满</t>
-  </si>
-  <si>
-    <t>Text_ThisItemIsInUse</t>
-  </si>
-  <si>
-    <t>This item is in use</t>
-  </si>
-  <si>
-    <t>正在使用此道具</t>
-  </si>
-  <si>
-    <t>Text_Tips1</t>
-  </si>
-  <si>
-    <t>Someone is using it, please try another one</t>
-  </si>
-  <si>
-    <t>有人正在使用，请换个试试</t>
-  </si>
-  <si>
-    <t>Text_SetUp1</t>
-  </si>
-  <si>
-    <t>Base Setup</t>
-  </si>
-  <si>
-    <t>基础设置</t>
-  </si>
-  <si>
-    <t>Text_PictureQuality</t>
-  </si>
-  <si>
-    <t>Picture Quality</t>
-  </si>
-  <si>
-    <t>画质</t>
-  </si>
-  <si>
-    <t>Text_SoundEffects</t>
-  </si>
-  <si>
-    <t>Sound Effects</t>
-  </si>
-  <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t>Text_BackgroundMusic</t>
-  </si>
-  <si>
-    <t>Background Music</t>
-  </si>
-  <si>
-    <t>背景音乐</t>
-  </si>
-  <si>
-    <t>Text_ViewAngleScaling</t>
-  </si>
-  <si>
-    <t>View Angle Scaling</t>
-  </si>
-  <si>
-    <t>视角缩放</t>
-  </si>
-  <si>
-    <t>Text_DisplayNicknames</t>
-  </si>
-  <si>
-    <t>Display Nicknames</t>
-  </si>
-  <si>
-    <t>显示昵称</t>
-  </si>
-  <si>
-    <t>Text_ResetLocation</t>
-  </si>
-  <si>
-    <t>Reset Location</t>
-  </si>
-  <si>
-    <t>重置位置</t>
-  </si>
-  <si>
-    <t>Text_RestoringSettings</t>
-  </si>
-  <si>
-    <t>Restoring Settings</t>
-  </si>
-  <si>
-    <t>还原设置</t>
-  </si>
-  <si>
-    <t>Text_On</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>开</t>
-  </si>
-  <si>
-    <t>Text_Off</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>关</t>
-  </si>
-  <si>
-    <t>Text_ObtainedTips</t>
-  </si>
-  <si>
-    <t>Obtained, open the knapsack to use</t>
-  </si>
-  <si>
-    <t>已获得，打开背包使用</t>
-  </si>
-  <si>
-    <t>Text_Advertising</t>
-  </si>
-  <si>
-    <t>Advertising</t>
-  </si>
-  <si>
-    <t>广告奖励</t>
-  </si>
-  <si>
-    <t>Text_ADGetTips</t>
-  </si>
-  <si>
-    <t>See the AD for free guide you get</t>
-  </si>
-  <si>
-    <t>看广告免费指引你获得</t>
-  </si>
-  <si>
-    <t>Text_Dont</t>
-  </si>
-  <si>
-    <t>Don't</t>
-  </si>
-  <si>
-    <t>不要</t>
-  </si>
-  <si>
-    <t>Text_Free</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>免费获得</t>
-  </si>
-  <si>
-    <t>Text_Fail</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>指引失败，请重试</t>
-  </si>
-  <si>
-    <t>Text_NoOnTheList</t>
-  </si>
-  <si>
-    <t>Not</t>
-  </si>
-  <si>
-    <t>未上榜</t>
-  </si>
-  <si>
-    <t>Text_Ranking</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>Text_Nickname</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t>Text_Score</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>分数</t>
-  </si>
-  <si>
-    <t>Text_Duration</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>时长</t>
-  </si>
-  <si>
-    <t>Text_TopInTermsOfDuration</t>
-  </si>
-  <si>
-    <t>Top {0} In Terms Of Duration</t>
-  </si>
-  <si>
-    <t>时长全服前{0}名</t>
-  </si>
-  <si>
-    <t>Text_StartGame</t>
-  </si>
-  <si>
-    <t>Start the game</t>
-  </si>
-  <si>
-    <t>开始游戏</t>
-  </si>
-  <si>
-    <t>Text_WelcomeTo</t>
-  </si>
-  <si>
-    <t>Welcome to
-My Cherry blossom town</t>
-  </si>
-  <si>
-    <t>欢迎来到
-我的樱花小镇</t>
-  </si>
-  <si>
-    <t>Text_UpNext</t>
-  </si>
-  <si>
-    <t>Up next</t>
-  </si>
-  <si>
-    <t>下一个</t>
-  </si>
-  <si>
-    <t>Text_GuideEnd</t>
-  </si>
-  <si>
-    <t>With the guide over, start your trip to the cherry blossom town</t>
-  </si>
-  <si>
-    <t>引导结束，开启你的樱花小镇之旅吧</t>
-  </si>
-  <si>
-    <t>Text_Close</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>Text_MyCharacterId</t>
-  </si>
-  <si>
-    <t>My Character ID- Share Friend Try On</t>
-  </si>
-  <si>
-    <t>我的角色ID-分享好友试穿</t>
-  </si>
-  <si>
-    <t>Text_PleaseEnter</t>
-  </si>
-  <si>
-    <t>Please Enter The Friend Role ID</t>
-  </si>
-  <si>
-    <t>请输入好友角色ID</t>
-  </si>
-  <si>
-    <t>Text_Cancel</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>Text_FreeTryOn</t>
-  </si>
-  <si>
-    <t>Free Try On</t>
-  </si>
-  <si>
-    <t>免费试穿</t>
-  </si>
-  <si>
-    <t>Text_SaveImagesForFree</t>
-  </si>
-  <si>
-    <t>Save images for free</t>
-  </si>
-  <si>
-    <t>免费保存形象</t>
-  </si>
-  <si>
-    <t>Text_TryOnYourFriendAvatarForFree</t>
-  </si>
-  <si>
-    <t>Try On Your Friend's Avatar For Free</t>
-  </si>
-  <si>
-    <t>免费试穿好友的角色形象</t>
-  </si>
-  <si>
-    <t>Text_CopySuccessfully</t>
-  </si>
-  <si>
-    <t>Copy Successfully</t>
-  </si>
-  <si>
-    <t>复制成功</t>
-  </si>
-  <si>
-    <t>Text_InvalidID</t>
-  </si>
-  <si>
-    <t>Invalid ID!</t>
-  </si>
-  <si>
-    <t>ID无效！</t>
-  </si>
-  <si>
-    <t>Text_Loading</t>
-  </si>
-  <si>
-    <t>Loading</t>
-  </si>
-  <si>
-    <t>加载中</t>
-  </si>
-  <si>
-    <t>Text_TryItOnSuccessfully</t>
-  </si>
-  <si>
-    <t>Try it on successfully</t>
-  </si>
-  <si>
-    <t>试穿成功</t>
-  </si>
-  <si>
-    <t>Text_CopyTheCharacterIDShareFriendsTryOn</t>
-  </si>
-  <si>
-    <t>Copy the character ID share friends try on</t>
-  </si>
-  <si>
-    <t>复制角色ID分享好友试穿</t>
-  </si>
-  <si>
-    <t>Text_TryItOnForFree</t>
-  </si>
-  <si>
-    <t>Try it on for free</t>
-  </si>
-  <si>
-    <t>看广告免费试穿</t>
-  </si>
-  <si>
-    <t>Text_GuideTips</t>
-  </si>
-  <si>
-    <t>Reach near the target point</t>
-  </si>
-  <si>
-    <t>达到目标点附近</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -857,318 +94,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1217,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1250,9 +201,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1285,6 +253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1426,39 +411,62 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+    <row customHeight="true" ht="15" r="1">
+      <c r="A1" s="1" t="str">
+        <v>int</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>String</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>String</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>String</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1477,18 +485,18 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+    <row customHeight="true" ht="15" r="2">
+      <c r="A2" s="1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>Value</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>Value_Ch</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1507,18 +515,18 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+    <row customHeight="true" ht="15" r="3">
+      <c r="A3" s="1" t="str">
+        <v>唯一ID</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>名字</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>英文</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <v>中文</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1537,16 +545,16 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20">
+    <row customHeight="true" ht="15" r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="str">
+        <v>Key|ReadByName</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>MainLanguage</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>ChildLanguage</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1565,18 +573,18 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20">
+    <row customHeight="true" ht="15" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+      <c r="B5" s="1" t="str">
+        <v>Text_TheItemBarIsFull</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>The item bar is full</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>道具栏已满</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1595,18 +603,18 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20">
+    <row customHeight="true" ht="15" r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
+      <c r="B6" s="1" t="str">
+        <v>Text_ThisItemIsInUse</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>This item is in use</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v>正在使用此道具</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1625,18 +633,18 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row customHeight="true" ht="15" r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
+      <c r="B7" s="1" t="str">
+        <v>Text_Tips1</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>Someone is using it, please try another one</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>有人正在使用，请换个试试</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1655,18 +663,18 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20">
+    <row customHeight="true" ht="15" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
+      <c r="B8" s="1" t="str">
+        <v>Text_SetUp1</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>Base Setup</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>基础设置</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1685,18 +693,18 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20">
+    <row customHeight="true" ht="15" r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
+      <c r="B9" s="1" t="str">
+        <v>Text_PictureQuality</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>Picture Quality</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <v>画质</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1715,18 +723,18 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20">
+    <row customHeight="true" ht="15" r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
+      <c r="B10" s="1" t="str">
+        <v>Text_SoundEffects</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <v>Sound Effects</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <v>音效</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1745,18 +753,18 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20">
+    <row customHeight="true" ht="15" r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
+      <c r="B11" s="1" t="str">
+        <v>Text_BackgroundMusic</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>Background Music</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>背景音乐</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1775,18 +783,18 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20">
+    <row customHeight="true" ht="15" r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
+      <c r="B12" s="1" t="str">
+        <v>Text_ViewAngleScaling</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>View Angle Scaling</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <v>视角缩放</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1805,18 +813,18 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20">
+    <row customHeight="true" ht="15" r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
+      <c r="B13" s="1" t="str">
+        <v>Text_DisplayNicknames</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <v>Display Nicknames</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v>显示昵称</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1835,18 +843,18 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20">
+    <row customHeight="true" ht="15" r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
+      <c r="B14" s="1" t="str">
+        <v>Text_ResetLocation</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>Reset Location</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v>重置位置</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1865,18 +873,18 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20">
+    <row customHeight="true" ht="15" r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
+      <c r="B15" s="1" t="str">
+        <v>Text_RestoringSettings</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <v>Restoring Settings</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v>还原设置</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1895,18 +903,18 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20">
+    <row customHeight="true" ht="15" r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
+      <c r="B16" s="1" t="str">
+        <v>Text_On</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <v>ON</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <v>开</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1925,18 +933,18 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20">
+    <row customHeight="true" ht="15" r="17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
+      <c r="B17" s="1" t="str">
+        <v>Text_Off</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <v>OFF</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <v>关</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1955,18 +963,18 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20">
+    <row customHeight="true" ht="15" r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
+      <c r="B18" s="1" t="str">
+        <v>Text_ObtainedTips</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <v>Obtained, open the knapsack to use</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <v>已获得，打开背包使用</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1985,18 +993,18 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20">
+    <row customHeight="true" ht="15" r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
+      <c r="B19" s="1" t="str">
+        <v>Text_Advertising</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>Advertising</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <v>广告奖励</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2015,18 +1023,18 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20">
+    <row customHeight="true" ht="15" r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
+      <c r="B20" s="1" t="str">
+        <v>Text_ADGetTips</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <v>See the AD for free guide you get</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v>看广告免费指引你获得</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2045,18 +1053,18 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20">
+    <row customHeight="true" ht="15" r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
+      <c r="B21" s="1" t="str">
+        <v>Text_Dont</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>Don't</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v>不要</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2075,18 +1083,18 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20">
+    <row customHeight="true" ht="15" r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
+      <c r="B22" s="1" t="str">
+        <v>Text_Free</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>free</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <v>免费获得</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2105,18 +1113,18 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20">
+    <row customHeight="true" ht="15" r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
+      <c r="B23" s="1" t="str">
+        <v>Text_Fail</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <v>指引失败，请重试</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2135,18 +1143,18 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20">
+    <row customHeight="true" ht="15" r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
+      <c r="B24" s="1" t="str">
+        <v>Text_NoOnTheList</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>Not</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v>未上榜</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2165,18 +1173,18 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20">
+    <row customHeight="true" ht="15" r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
+      <c r="B25" s="1" t="str">
+        <v>Text_Ranking</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <v>Ranking</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <v>排名</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2195,18 +1203,18 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20">
+    <row customHeight="true" ht="15" r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>78</v>
+      <c r="B26" s="1" t="str">
+        <v>Text_Nickname</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <v>Nickname</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <v>昵称</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2225,18 +1233,18 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row customHeight="true" ht="15" r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
+      <c r="B27" s="1" t="str">
+        <v>Text_Score</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <v>Score</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <v>分数</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2255,18 +1263,18 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20">
+    <row customHeight="true" ht="15" r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
+      <c r="B28" s="1" t="str">
+        <v>Text_Duration</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <v>Duration</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <v>时长</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2285,18 +1293,18 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20">
+    <row customHeight="true" ht="15" r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>87</v>
+      <c r="B29" s="1" t="str">
+        <v>Text_TopInTermsOfDuration</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>Top {0} In Terms Of Duration</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v>时长全服前{0}名</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2315,18 +1323,18 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20">
+    <row customHeight="true" ht="15" r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>90</v>
+      <c r="B30" s="1" t="str">
+        <v>Text_StartGame</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <v>Start the game</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v>开始游戏</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2345,18 +1353,20 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20">
+    <row customHeight="true" ht="15" r="31">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
+      <c r="B31" s="1" t="str">
+        <v>Text_WelcomeTo</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <v>Welcome to
+My Cherry blossom town</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <v>欢迎来到
+我的樱花小镇</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2375,18 +1385,18 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20">
+    <row customHeight="true" ht="15" r="32">
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>96</v>
+      <c r="B32" s="1" t="str">
+        <v>Text_UpNext</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <v>Up next</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <v>下一个</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2405,18 +1415,18 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20">
+    <row customHeight="true" ht="15" r="33">
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>99</v>
+      <c r="B33" s="1" t="str">
+        <v>Text_GuideEnd</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <v>With the guide over, start your trip to the cherry blossom town</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <v>引导结束，开启你的樱花小镇之旅吧</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2435,18 +1445,18 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20">
+    <row customHeight="true" ht="15" r="34">
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>102</v>
+      <c r="B34" s="1" t="str">
+        <v>Text_Close</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <v>Close</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <v>关闭</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2465,18 +1475,18 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row customHeight="true" ht="15" r="35">
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>105</v>
+      <c r="B35" s="1" t="str">
+        <v>Text_MyCharacterId</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <v>My Character ID- Share Friend Try On</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <v>我的角色ID-分享好友试穿</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2495,18 +1505,18 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20">
+    <row customHeight="true" ht="15" r="36">
       <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>108</v>
+      <c r="B36" s="1" t="str">
+        <v>Text_PleaseEnter</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <v>Please Enter The Friend Role ID</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <v>请输入好友角色ID</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2525,18 +1535,18 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20">
+    <row customHeight="true" ht="15" r="37">
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>111</v>
+      <c r="B37" s="1" t="str">
+        <v>Text_Cancel</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <v>取消</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2555,18 +1565,18 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row customHeight="true" ht="15" r="38">
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>114</v>
+      <c r="B38" s="1" t="str">
+        <v>Text_FreeTryOn</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <v>Free Try On</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <v>免费试穿</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2585,18 +1595,18 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20">
+    <row customHeight="true" ht="15" r="39">
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>117</v>
+      <c r="B39" s="1" t="str">
+        <v>Text_SaveImagesForFree</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <v>Save images for free</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <v>免费保存形象</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2615,18 +1625,18 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20">
+    <row customHeight="true" ht="15" r="40">
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>120</v>
+      <c r="B40" s="1" t="str">
+        <v>Text_TryOnYourFriendAvatarForFree</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <v>Try On Your Friend's Avatar For Free</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <v>免费试穿好友的角色形象</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2645,18 +1655,18 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20">
+    <row customHeight="true" ht="15" r="41">
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>123</v>
+      <c r="B41" s="1" t="str">
+        <v>Text_CopySuccessfully</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <v>Copy Successfully</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <v>复制成功</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2675,18 +1685,18 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20">
+    <row customHeight="true" ht="15" r="42">
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>126</v>
+      <c r="B42" s="1" t="str">
+        <v>Text_InvalidID</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <v>Invalid ID!</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <v>ID无效！</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2705,18 +1715,18 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20">
+    <row customHeight="true" ht="15" r="43">
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>129</v>
+      <c r="B43" s="1" t="str">
+        <v>Text_Loading</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <v>Loading</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <v>加载中</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2735,18 +1745,18 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20">
+    <row customHeight="true" ht="15" r="44">
       <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>132</v>
+      <c r="B44" s="1" t="str">
+        <v>Text_TryItOnSuccessfully</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <v>Try it on successfully</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <v>试穿成功</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2765,18 +1775,18 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20">
+    <row customHeight="true" ht="15" r="45">
       <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>135</v>
+      <c r="B45" s="1" t="str">
+        <v>Text_CopyTheCharacterIDShareFriendsTryOn</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <v>Copy the character ID share friends try on</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <v>复制角色ID分享好友试穿</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2795,18 +1805,18 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20">
+    <row customHeight="true" ht="15" r="46">
       <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>138</v>
+      <c r="B46" s="1" t="str">
+        <v>Text_TryItOnForFree</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <v>Try it on for free</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <v>看广告免费试穿</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2825,18 +1835,18 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20">
+    <row customHeight="true" ht="15" r="47">
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>141</v>
+      <c r="B47" s="2" t="str">
+        <v>Text_GuideTips</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <v>Reach near the target point</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <v>达到目标点附近</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2855,11 +1865,19 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <v>Text_BootPrompt</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <v>Boot prompt</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <v>引导提示</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2877,11 +1895,19 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <v>Text_FreeGuideYouGet</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <v>Free guide you get</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <v>免费指引你获得</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2899,11 +1925,11 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2921,11 +1947,11 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2943,11 +1969,11 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2965,11 +1991,11 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2987,11 +2013,11 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3009,11 +2035,11 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3031,11 +2057,11 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3053,11 +2079,11 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3075,11 +2101,11 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3097,11 +2123,11 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3119,11 +2145,11 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3141,11 +2167,11 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3163,11 +2189,11 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3185,11 +2211,11 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3207,11 +2233,11 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3229,11 +2255,11 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3251,11 +2277,11 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3273,11 +2299,11 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3295,11 +2321,11 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3317,11 +2343,11 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3339,11 +2365,11 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3361,11 +2387,11 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3383,11 +2409,11 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -3405,11 +2431,11 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -3427,11 +2453,11 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3449,11 +2475,11 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3471,11 +2497,11 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3493,11 +2519,11 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3515,11 +2541,11 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3537,11 +2563,11 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -3559,11 +2585,11 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -3581,11 +2607,11 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -3603,11 +2629,11 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -3625,11 +2651,11 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -3647,11 +2673,11 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -3669,11 +2695,11 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -3691,11 +2717,11 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -3713,11 +2739,11 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -3735,11 +2761,11 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -3757,11 +2783,11 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -3779,11 +2805,11 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -3801,11 +2827,11 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -3823,11 +2849,11 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -3845,11 +2871,11 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -3867,11 +2893,11 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -3889,11 +2915,11 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -3911,11 +2937,11 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -3933,11 +2959,11 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -3955,11 +2981,11 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -3977,11 +3003,11 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -3999,11 +3025,11 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4021,11 +3047,11 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -4043,11 +3069,11 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -4065,11 +3091,11 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -4087,11 +3113,11 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -4109,11 +3135,11 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -4131,11 +3157,11 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -4153,11 +3179,11 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -4175,11 +3201,11 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -4197,11 +3223,11 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -4219,11 +3245,11 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -4241,11 +3267,11 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -4263,11 +3289,11 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -4285,11 +3311,11 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -4307,11 +3333,11 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -4329,11 +3355,11 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -4351,11 +3377,11 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -4373,11 +3399,11 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -4395,11 +3421,11 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -4417,11 +3443,11 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -4439,11 +3465,11 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -4461,11 +3487,11 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -4483,11 +3509,11 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -4505,11 +3531,11 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -4527,11 +3553,11 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -4549,11 +3575,11 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -4571,11 +3597,11 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -4593,11 +3619,11 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -4615,11 +3641,11 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -4637,11 +3663,11 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -4659,11 +3685,11 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -4681,11 +3707,11 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -4703,11 +3729,11 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -4725,11 +3751,11 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -4747,11 +3773,11 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -4769,11 +3795,11 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -4791,11 +3817,11 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -4813,11 +3839,11 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -4835,11 +3861,11 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -4857,11 +3883,11 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -4879,11 +3905,11 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -4901,11 +3927,11 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -4923,11 +3949,11 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -4945,11 +3971,11 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -4967,11 +3993,11 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -4989,11 +4015,11 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -5011,11 +4037,11 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -5033,11 +4059,11 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -5055,11 +4081,11 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -5077,11 +4103,11 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -5099,11 +4125,11 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -5121,11 +4147,11 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -5143,11 +4169,11 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -5165,11 +4191,11 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -5187,11 +4213,11 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -5209,11 +4235,11 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -5231,11 +4257,11 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -5253,11 +4279,11 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -5275,11 +4301,11 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -5297,11 +4323,11 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -5319,11 +4345,11 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -5341,11 +4367,11 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -5363,11 +4389,11 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -5385,11 +4411,11 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -5407,11 +4433,11 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -5429,11 +4455,11 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -5451,11 +4477,11 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -5473,11 +4499,11 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -5495,11 +4521,11 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -5517,11 +4543,11 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -5539,11 +4565,11 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -5561,11 +4587,11 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -5583,11 +4609,11 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -5605,11 +4631,11 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -5627,11 +4653,11 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -5649,11 +4675,11 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -5671,11 +4697,11 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -5693,11 +4719,11 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -5715,11 +4741,11 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -5737,11 +4763,11 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -5759,11 +4785,11 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -5781,11 +4807,11 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -5803,11 +4829,11 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -5825,11 +4851,11 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -5847,11 +4873,11 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -5869,11 +4895,11 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -5891,11 +4917,11 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -5913,11 +4939,11 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -5935,11 +4961,11 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -5957,11 +4983,11 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -5979,11 +5005,11 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -6001,11 +5027,11 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -6023,11 +5049,11 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -6045,11 +5071,11 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -6067,11 +5093,11 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -6089,11 +5115,11 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -6111,11 +5137,11 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -6133,11 +5159,11 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -6155,11 +5181,11 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -6177,11 +5203,11 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -6199,11 +5225,11 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -6221,9 +5247,1041 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
+    <row r="201">
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <picture r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D31" s="1" t="str">
         <v>欢迎来到
-我的樱花小镇</v>
+春节免费换装</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -44,6 +44,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,7 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -94,11 +101,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,6 +128,12 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1926,10 +1953,18 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3" t="str">
+        <v>Text_SignIn_1</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <v>Activity is not enabled</v>
+      </c>
+      <c r="D50" s="3" t="str">
+        <v>活动未开启</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1948,10 +1983,18 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3" t="str">
+        <v>Text_SignIn_2</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <v>Successful costume change</v>
+      </c>
+      <c r="D51" s="3" t="str">
+        <v>换装成功</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1970,10 +2013,18 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3" t="str">
+        <v>Text_SignIn_3</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <v>Insufficient check-in time</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <v>签到时间不足</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1992,10 +2043,18 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3" t="str">
+        <v>Text_SignIn_4</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <v>Check-in bonus</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <v>签到奖励</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2014,10 +2073,18 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3" t="str">
+        <v>Text_SignIn_5</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <v>Cumulative Check-In For {0} Days</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <v>已经累积签到{0}天</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2036,10 +2103,19 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <v>Text_SignIn_6</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <v>Has been 
+Obtained</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <v>已获得</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2058,10 +2134,18 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3" t="str">
+        <v>Text_SignIn_7</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <v>Change of dress</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <v>换装</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2080,10 +2164,18 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="3" t="str">
+        <v>Text_SignIn_8</v>
+      </c>
+      <c r="C57" s="3" t="str">
+        <v>Insufficient check-in</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <v>签到不足</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2102,10 +2194,18 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="3" t="str">
+        <v>Text_SignIn_9</v>
+      </c>
+      <c r="C58" s="3" t="str">
+        <v>Day {0}</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <v>第{0}天</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2124,10 +2224,18 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="3" t="str">
+        <v>Text_SignIn_10</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <v>Sign In</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <v>签到</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2146,10 +2254,18 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="3" t="str">
+        <v>Text_FreeChangeOfClothes</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <v>Free change of clothes</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <v>免费换装</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -56,6 +56,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -115,11 +122,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -132,7 +146,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2109,7 +2126,7 @@
       <c r="B55" s="3" t="str">
         <v>Text_SignIn_6</v>
       </c>
-      <c r="C55" s="4" t="str">
+      <c r="C55" s="5" t="str">
         <v>Has been 
 Obtained</v>
       </c>
@@ -2284,10 +2301,18 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <v>Text_FreeChangeOfClothes1</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <v>Try on, please wait patiently.</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <v>试穿中，请耐心等待。</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -2306,10 +2331,18 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <v>Text_FreeChangeOfClothes2</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <v>Free fitting {0} minutes</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <v>免费试穿{0}分钟</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -2328,10 +2361,18 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <v>Text_FreeChangeOfClothes3</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <v>Try it on, please go back to try it on</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <v>试穿结束，请打开商店重新试穿</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -146,10 +146,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2126,7 +2126,7 @@
       <c r="B55" s="3" t="str">
         <v>Text_SignIn_6</v>
       </c>
-      <c r="C55" s="5" t="str">
+      <c r="C55" s="4" t="str">
         <v>Has been 
 Obtained</v>
       </c>
@@ -2307,10 +2307,10 @@
       <c r="B61" s="2" t="str">
         <v>Text_FreeChangeOfClothes1</v>
       </c>
-      <c r="C61" s="4" t="str">
+      <c r="C61" s="5" t="str">
         <v>Try on, please wait patiently.</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="5" t="str">
         <v>试穿中，请耐心等待。</v>
       </c>
       <c r="E61" s="1"/>
@@ -2391,10 +2391,18 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <v>Text_Rank1</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <v>The leaderboard is wrong.</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <v>排行榜出错啦</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -78,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -129,11 +129,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,10 +153,13 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2126,7 +2136,7 @@
       <c r="B55" s="3" t="str">
         <v>Text_SignIn_6</v>
       </c>
-      <c r="C55" s="4" t="str">
+      <c r="C55" s="5" t="str">
         <v>Has been 
 Obtained</v>
       </c>
@@ -2275,7 +2285,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="3" t="str">
-        <v>Text_FreeChangeOfClothes</v>
+        <v>Text_OpenMallTextBlock</v>
       </c>
       <c r="C60" s="3" t="str">
         <v>Free change of clothes</v>
@@ -2307,10 +2317,10 @@
       <c r="B61" s="2" t="str">
         <v>Text_FreeChangeOfClothes1</v>
       </c>
-      <c r="C61" s="5" t="str">
+      <c r="C61" s="6" t="str">
         <v>Try on, please wait patiently.</v>
       </c>
-      <c r="D61" s="5" t="str">
+      <c r="D61" s="6" t="str">
         <v>试穿中，请耐心等待。</v>
       </c>
       <c r="E61" s="1"/>
@@ -2421,11 +2431,19 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="1"/>
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="3" t="str">
+        <v>Text_Tab1_1</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <v>Appearance</v>
+      </c>
+      <c r="D65" s="3" t="str">
+        <v>捏脸</v>
+      </c>
+      <c r="E65" s="3"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2443,11 +2461,19 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="1"/>
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3" t="str">
+        <v>Text_Tab1_2</v>
+      </c>
+      <c r="C66" s="3" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="D66" s="3" t="str">
+        <v>换装</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2465,11 +2491,19 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="1"/>
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67" s="3" t="str">
+        <v>Text_Tab1_3</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <v>Collection</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <v>收藏</v>
+      </c>
+      <c r="E67" s="3"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2487,11 +2521,19 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="1"/>
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68" s="3" t="str">
+        <v>Text_Tab1_4</v>
+      </c>
+      <c r="C68" s="3" t="str">
+        <v>Test</v>
+      </c>
+      <c r="D68" s="3" t="str">
+        <v>测试</v>
+      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -2509,11 +2551,19 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="1"/>
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69" s="3" t="str">
+        <v>Text_Tab2_101</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <v>Body Type</v>
+      </c>
+      <c r="D69" s="3" t="str">
+        <v>体型</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -2531,11 +2581,19 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="1"/>
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70" s="3" t="str">
+        <v>Text_Tab2_102</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v>Skin Tone</v>
+      </c>
+      <c r="D70" s="3" t="str">
+        <v>肤色</v>
+      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -2553,11 +2611,19 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="1"/>
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71" s="3" t="str">
+        <v>Text_Tab2_103</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <v>Face</v>
+      </c>
+      <c r="D71" s="3" t="str">
+        <v>脸型</v>
+      </c>
+      <c r="E71" s="3"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -2575,11 +2641,19 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="1"/>
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="B72" s="3" t="str">
+        <v>Text_Tab2_104</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>Eyes</v>
+      </c>
+      <c r="D72" s="3" t="str">
+        <v>眼睛</v>
+      </c>
+      <c r="E72" s="3"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -2597,11 +2671,19 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="1"/>
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
+      <c r="B73" s="3" t="str">
+        <v>Text_Tab2_105</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <v>Eyebrows</v>
+      </c>
+      <c r="D73" s="3" t="str">
+        <v>眉毛</v>
+      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -2619,11 +2701,19 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="1"/>
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3" t="str">
+        <v>Text_Tab2_106</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <v>Makeup</v>
+      </c>
+      <c r="D74" s="3" t="str">
+        <v>妆容</v>
+      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -2641,11 +2731,19 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="1"/>
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
+      <c r="B75" s="3" t="str">
+        <v>Text_Tab2_107</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <v>Expression</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <v>表情</v>
+      </c>
+      <c r="E75" s="3"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -2663,11 +2761,19 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="1"/>
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
+      <c r="B76" s="3" t="str">
+        <v>Text_Tab2_108</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <v>Outfit</v>
+      </c>
+      <c r="D76" s="3" t="str">
+        <v>套装</v>
+      </c>
+      <c r="E76" s="3"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -2685,11 +2791,19 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="1"/>
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
+      <c r="B77" s="3" t="str">
+        <v>Text_Tab2_109</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <v>Hair</v>
+      </c>
+      <c r="D77" s="3" t="str">
+        <v>头发</v>
+      </c>
+      <c r="E77" s="3"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -2707,11 +2821,19 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="1"/>
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
+      <c r="B78" s="3" t="str">
+        <v>Text_Tab2_110</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v>Top</v>
+      </c>
+      <c r="D78" s="3" t="str">
+        <v>上衣</v>
+      </c>
+      <c r="E78" s="3"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -2729,11 +2851,19 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="1"/>
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
+      <c r="B79" s="3" t="str">
+        <v>Text_Tab2_111</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <v>Bottom</v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <v>下衣</v>
+      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -2751,11 +2881,19 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="1"/>
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
+      <c r="B80" s="3" t="str">
+        <v>Text_Tab2_112</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v>Gloves</v>
+      </c>
+      <c r="D80" s="3" t="str">
+        <v>鞋子</v>
+      </c>
+      <c r="E80" s="3"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -2773,11 +2911,19 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="1"/>
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
+      <c r="B81" s="3" t="str">
+        <v>Text_Tab2_113</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <v>Shoes</v>
+      </c>
+      <c r="D81" s="3" t="str">
+        <v>手套</v>
+      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -2795,11 +2941,19 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="1"/>
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
+      <c r="B82" s="3" t="str">
+        <v>Text_Tab2_114</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v>Pet</v>
+      </c>
+      <c r="D82" s="3" t="str">
+        <v>宠物</v>
+      </c>
+      <c r="E82" s="3"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2817,11 +2971,19 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="1"/>
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
+      <c r="B83" s="3" t="str">
+        <v>Text_Tab2_115</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <v>Accessory</v>
+      </c>
+      <c r="D83" s="3" t="str">
+        <v>饰品</v>
+      </c>
+      <c r="E83" s="3"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -2839,11 +3001,21 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="1"/>
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
+      <c r="B84" s="3" t="str">
+        <v>Text_Tab2_501</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v>Body Type</v>
+      </c>
+      <c r="D84" s="3" t="str">
+        <v>体型</v>
+      </c>
+      <c r="E84" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -2861,11 +3033,21 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="1"/>
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
+      <c r="B85" s="3" t="str">
+        <v>Text_Tab2_502</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <v>Skin Tone</v>
+      </c>
+      <c r="D85" s="3" t="str">
+        <v>肤色</v>
+      </c>
+      <c r="E85" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -2883,11 +3065,21 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="1"/>
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
+      <c r="B86" s="3" t="str">
+        <v>Text_Tab2_503</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v>Face</v>
+      </c>
+      <c r="D86" s="3" t="str">
+        <v>脸型</v>
+      </c>
+      <c r="E86" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -2905,11 +3097,21 @@
       <c r="T86" s="1"/>
     </row>
     <row r="87">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="1"/>
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
+      <c r="B87" s="3" t="str">
+        <v>Text_Tab2_504</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <v>Eyes</v>
+      </c>
+      <c r="D87" s="3" t="str">
+        <v>眼睛</v>
+      </c>
+      <c r="E87" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -2927,11 +3129,21 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="1"/>
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
+      <c r="B88" s="3" t="str">
+        <v>Text_Tab2_505</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <v>Eyebrows</v>
+      </c>
+      <c r="D88" s="3" t="str">
+        <v>眉毛</v>
+      </c>
+      <c r="E88" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -2949,11 +3161,21 @@
       <c r="T88" s="1"/>
     </row>
     <row r="89">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="1"/>
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
+      <c r="B89" s="3" t="str">
+        <v>Text_Tab2_506</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <v>Makeup</v>
+      </c>
+      <c r="D89" s="3" t="str">
+        <v>妆容</v>
+      </c>
+      <c r="E89" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -2971,11 +3193,21 @@
       <c r="T89" s="1"/>
     </row>
     <row r="90">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="1"/>
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
+      <c r="B90" s="3" t="str">
+        <v>Text_Tab2_507</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <v>Expression</v>
+      </c>
+      <c r="D90" s="3" t="str">
+        <v>表情</v>
+      </c>
+      <c r="E90" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -2993,11 +3225,21 @@
       <c r="T90" s="1"/>
     </row>
     <row r="91">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="1"/>
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
+      <c r="B91" s="3" t="str">
+        <v>Text_Tab2_508</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <v>Outfit</v>
+      </c>
+      <c r="D91" s="3" t="str">
+        <v>套装</v>
+      </c>
+      <c r="E91" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -3015,11 +3257,21 @@
       <c r="T91" s="1"/>
     </row>
     <row r="92">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="1"/>
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
+      <c r="B92" s="3" t="str">
+        <v>Text_Tab2_509</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v>Hair</v>
+      </c>
+      <c r="D92" s="3" t="str">
+        <v>头发</v>
+      </c>
+      <c r="E92" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -3037,11 +3289,21 @@
       <c r="T92" s="1"/>
     </row>
     <row r="93">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="1"/>
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
+      <c r="B93" s="3" t="str">
+        <v>Text_Tab2_510</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <v>Top</v>
+      </c>
+      <c r="D93" s="3" t="str">
+        <v>上衣</v>
+      </c>
+      <c r="E93" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -3059,11 +3321,21 @@
       <c r="T93" s="1"/>
     </row>
     <row r="94">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="1"/>
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
+      <c r="B94" s="3" t="str">
+        <v>Text_Tab2_511</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <v>Bottom</v>
+      </c>
+      <c r="D94" s="3" t="str">
+        <v>下衣</v>
+      </c>
+      <c r="E94" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -3081,11 +3353,21 @@
       <c r="T94" s="1"/>
     </row>
     <row r="95">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="1"/>
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
+      <c r="B95" s="3" t="str">
+        <v>Text_Tab2_512</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <v>Gloves</v>
+      </c>
+      <c r="D95" s="3" t="str">
+        <v>鞋子</v>
+      </c>
+      <c r="E95" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -3103,11 +3385,21 @@
       <c r="T95" s="1"/>
     </row>
     <row r="96">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="1"/>
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
+      <c r="B96" s="3" t="str">
+        <v>Text_Tab2_513</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <v>Shoes</v>
+      </c>
+      <c r="D96" s="3" t="str">
+        <v>手套</v>
+      </c>
+      <c r="E96" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -3125,11 +3417,21 @@
       <c r="T96" s="1"/>
     </row>
     <row r="97">
-      <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="1"/>
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
+      <c r="B97" s="3" t="str">
+        <v>Text_Tab2_514</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <v>Pet</v>
+      </c>
+      <c r="D97" s="3" t="str">
+        <v>宠物</v>
+      </c>
+      <c r="E97" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -3147,11 +3449,21 @@
       <c r="T97" s="1"/>
     </row>
     <row r="98">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="1"/>
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
+      <c r="B98" s="3" t="str">
+        <v>Text_Tab2_515</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <v>Accessory</v>
+      </c>
+      <c r="D98" s="3" t="str">
+        <v>饰品</v>
+      </c>
+      <c r="E98" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -3169,11 +3481,19 @@
       <c r="T98" s="1"/>
     </row>
     <row r="99">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="1"/>
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
+      <c r="B99" s="3" t="str">
+        <v>Text_Tab3_1001</v>
+      </c>
+      <c r="C99" s="3" t="str">
+        <v>Pupil Style</v>
+      </c>
+      <c r="D99" s="3" t="str">
+        <v>瞳孔样式</v>
+      </c>
+      <c r="E99" s="3"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -3191,11 +3511,19 @@
       <c r="T99" s="1"/>
     </row>
     <row r="100">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="1"/>
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
+      <c r="B100" s="3" t="str">
+        <v>Text_Tab3_1002</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v>Lens</v>
+      </c>
+      <c r="D100" s="3" t="str">
+        <v>瞳孔贴花</v>
+      </c>
+      <c r="E100" s="3"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -3213,11 +3541,19 @@
       <c r="T100" s="1"/>
     </row>
     <row r="101">
-      <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="1"/>
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
+      <c r="B101" s="3" t="str">
+        <v>Text_Tab3_1003</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <v>Upper Highlight</v>
+      </c>
+      <c r="D101" s="3" t="str">
+        <v>上高光</v>
+      </c>
+      <c r="E101" s="3"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -3235,11 +3571,19 @@
       <c r="T101" s="1"/>
     </row>
     <row r="102">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="1"/>
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
+      <c r="B102" s="3" t="str">
+        <v>Text_Tab3_1004</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <v>Lower Highlight</v>
+      </c>
+      <c r="D102" s="3" t="str">
+        <v>下高光</v>
+      </c>
+      <c r="E102" s="3"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -3257,11 +3601,19 @@
       <c r="T102" s="1"/>
     </row>
     <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="1"/>
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
+      <c r="B103" s="3" t="str">
+        <v>Text_Tab3_1005</v>
+      </c>
+      <c r="C103" s="4" t="str">
+        <v>Eyelashes</v>
+      </c>
+      <c r="D103" s="3" t="str">
+        <v>睫毛</v>
+      </c>
+      <c r="E103" s="3"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -3279,11 +3631,19 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="1"/>
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
+      <c r="B104" s="3" t="str">
+        <v>Text_Tab3_1006</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <v>Eyeshadow</v>
+      </c>
+      <c r="D104" s="3" t="str">
+        <v>眼影</v>
+      </c>
+      <c r="E104" s="3"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -3301,11 +3661,19 @@
       <c r="T104" s="1"/>
     </row>
     <row r="105">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="1"/>
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
+      <c r="B105" s="3" t="str">
+        <v>Text_Tab3_1007</v>
+      </c>
+      <c r="C105" s="4" t="str">
+        <v>Blush</v>
+      </c>
+      <c r="D105" s="3" t="str">
+        <v>腮红</v>
+      </c>
+      <c r="E105" s="3"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -3323,11 +3691,19 @@
       <c r="T105" s="1"/>
     </row>
     <row r="106">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="1"/>
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
+      <c r="B106" s="3" t="str">
+        <v>Text_Tab3_1008</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <v>Lip Makeup</v>
+      </c>
+      <c r="D106" s="3" t="str">
+        <v>口红</v>
+      </c>
+      <c r="E106" s="3"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -3345,11 +3721,19 @@
       <c r="T106" s="1"/>
     </row>
     <row r="107">
-      <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="1"/>
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
+      <c r="B107" s="3" t="str">
+        <v>Text_Tab3_1009</v>
+      </c>
+      <c r="C107" s="4" t="str">
+        <v>Face Tattoo</v>
+      </c>
+      <c r="D107" s="3" t="str">
+        <v>面部彩绘</v>
+      </c>
+      <c r="E107" s="3"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -3367,11 +3751,19 @@
       <c r="T107" s="1"/>
     </row>
     <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="1"/>
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
+      <c r="B108" s="3" t="str">
+        <v>Text_Tab3_1010</v>
+      </c>
+      <c r="C108" s="4" t="str">
+        <v>Full Hair</v>
+      </c>
+      <c r="D108" s="3" t="str">
+        <v>整体发型</v>
+      </c>
+      <c r="E108" s="3"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -3389,11 +3781,19 @@
       <c r="T108" s="1"/>
     </row>
     <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="1"/>
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
+      <c r="B109" s="3" t="str">
+        <v>Text_Tab3_1011</v>
+      </c>
+      <c r="C109" s="4" t="str">
+        <v>Front Hair</v>
+      </c>
+      <c r="D109" s="3" t="str">
+        <v>前发</v>
+      </c>
+      <c r="E109" s="3"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -3411,11 +3811,19 @@
       <c r="T109" s="1"/>
     </row>
     <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="1"/>
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
+      <c r="B110" s="3" t="str">
+        <v>Text_Tab3_1012</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <v>Back Hair</v>
+      </c>
+      <c r="D110" s="3" t="str">
+        <v>后发</v>
+      </c>
+      <c r="E110" s="3"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -3433,11 +3841,19 @@
       <c r="T110" s="1"/>
     </row>
     <row r="111">
-      <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="1"/>
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
+      <c r="B111" s="3" t="str">
+        <v>Text_Tab3_1013</v>
+      </c>
+      <c r="C111" s="3" t="str">
+        <v>Left Hand</v>
+      </c>
+      <c r="D111" s="3" t="str">
+        <v>左手</v>
+      </c>
+      <c r="E111" s="3"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -3455,11 +3871,19 @@
       <c r="T111" s="1"/>
     </row>
     <row r="112">
-      <c r="A112" s="1"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="1"/>
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
+      <c r="B112" s="3" t="str">
+        <v>Text_Tab3_1014</v>
+      </c>
+      <c r="C112" s="3" t="str">
+        <v>Right Hand</v>
+      </c>
+      <c r="D112" s="3" t="str">
+        <v>右手</v>
+      </c>
+      <c r="E112" s="3"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -3477,11 +3901,19 @@
       <c r="T112" s="1"/>
     </row>
     <row r="113">
-      <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="1"/>
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
+      <c r="B113" s="3" t="str">
+        <v>Text_Tab3_1015</v>
+      </c>
+      <c r="C113" s="4" t="str">
+        <v>Back</v>
+      </c>
+      <c r="D113" s="3" t="str">
+        <v>背饰</v>
+      </c>
+      <c r="E113" s="3"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -3499,11 +3931,19 @@
       <c r="T113" s="1"/>
     </row>
     <row r="114">
-      <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="1"/>
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
+      <c r="B114" s="3" t="str">
+        <v>Text_Tab3_1016</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <v>Ear</v>
+      </c>
+      <c r="D114" s="3" t="str">
+        <v>耳饰</v>
+      </c>
+      <c r="E114" s="3"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -3521,11 +3961,19 @@
       <c r="T114" s="1"/>
     </row>
     <row r="115">
-      <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="1"/>
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
+      <c r="B115" s="3" t="str">
+        <v>Text_Tab3_1017</v>
+      </c>
+      <c r="C115" s="4" t="str">
+        <v>Face</v>
+      </c>
+      <c r="D115" s="3" t="str">
+        <v>面饰</v>
+      </c>
+      <c r="E115" s="3"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3543,11 +3991,19 @@
       <c r="T115" s="1"/>
     </row>
     <row r="116">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="1"/>
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
+      <c r="B116" s="3" t="str">
+        <v>Text_Tab3_1018</v>
+      </c>
+      <c r="C116" s="3" t="str">
+        <v>Hip</v>
+      </c>
+      <c r="D116" s="3" t="str">
+        <v>臀部</v>
+      </c>
+      <c r="E116" s="3"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -3565,11 +4021,19 @@
       <c r="T116" s="1"/>
     </row>
     <row r="117">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="1"/>
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
+      <c r="B117" s="3" t="str">
+        <v>Text_Tab3_1019</v>
+      </c>
+      <c r="C117" s="3" t="str">
+        <v>Shoulder</v>
+      </c>
+      <c r="D117" s="3" t="str">
+        <v>肩部</v>
+      </c>
+      <c r="E117" s="3"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -3587,11 +4051,19 @@
       <c r="T117" s="1"/>
     </row>
     <row r="118">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="1"/>
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
+      <c r="B118" s="3" t="str">
+        <v>Text_Tab3_1020</v>
+      </c>
+      <c r="C118" s="4" t="str">
+        <v>Effects</v>
+      </c>
+      <c r="D118" s="3" t="str">
+        <v>特效</v>
+      </c>
+      <c r="E118" s="3"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -3609,11 +4081,21 @@
       <c r="T118" s="1"/>
     </row>
     <row r="119">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="1"/>
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
+      <c r="B119" s="3" t="str">
+        <v>Text_Tab3_2001</v>
+      </c>
+      <c r="C119" s="3" t="str">
+        <v>Pupil Style</v>
+      </c>
+      <c r="D119" s="3" t="str">
+        <v>瞳孔样式</v>
+      </c>
+      <c r="E119" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -3631,11 +4113,21 @@
       <c r="T119" s="1"/>
     </row>
     <row r="120">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="1"/>
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
+      <c r="B120" s="3" t="str">
+        <v>Text_Tab3_2002</v>
+      </c>
+      <c r="C120" s="4" t="str">
+        <v>Lens</v>
+      </c>
+      <c r="D120" s="3" t="str">
+        <v>瞳孔贴花</v>
+      </c>
+      <c r="E120" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -3653,11 +4145,21 @@
       <c r="T120" s="1"/>
     </row>
     <row r="121">
-      <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="1"/>
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
+      <c r="B121" s="3" t="str">
+        <v>Text_Tab3_2003</v>
+      </c>
+      <c r="C121" s="4" t="str">
+        <v>Upper Highlight</v>
+      </c>
+      <c r="D121" s="3" t="str">
+        <v>上高光</v>
+      </c>
+      <c r="E121" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -3675,11 +4177,21 @@
       <c r="T121" s="1"/>
     </row>
     <row r="122">
-      <c r="A122" s="1"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="1"/>
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
+      <c r="B122" s="3" t="str">
+        <v>Text_Tab3_2004</v>
+      </c>
+      <c r="C122" s="4" t="str">
+        <v>Lower Highlight</v>
+      </c>
+      <c r="D122" s="3" t="str">
+        <v>下高光</v>
+      </c>
+      <c r="E122" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -3697,11 +4209,21 @@
       <c r="T122" s="1"/>
     </row>
     <row r="123">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="1"/>
+      <c r="A123" s="1">
+        <v>119</v>
+      </c>
+      <c r="B123" s="3" t="str">
+        <v>Text_Tab3_2005</v>
+      </c>
+      <c r="C123" s="4" t="str">
+        <v>Eyelashes</v>
+      </c>
+      <c r="D123" s="3" t="str">
+        <v>睫毛</v>
+      </c>
+      <c r="E123" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -3719,11 +4241,21 @@
       <c r="T123" s="1"/>
     </row>
     <row r="124">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="1"/>
+      <c r="A124" s="1">
+        <v>120</v>
+      </c>
+      <c r="B124" s="3" t="str">
+        <v>Text_Tab3_2006</v>
+      </c>
+      <c r="C124" s="4" t="str">
+        <v>Eyeshadow</v>
+      </c>
+      <c r="D124" s="3" t="str">
+        <v>眼影</v>
+      </c>
+      <c r="E124" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -3741,11 +4273,21 @@
       <c r="T124" s="1"/>
     </row>
     <row r="125">
-      <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="1"/>
+      <c r="A125" s="1">
+        <v>121</v>
+      </c>
+      <c r="B125" s="3" t="str">
+        <v>Text_Tab3_2007</v>
+      </c>
+      <c r="C125" s="4" t="str">
+        <v>Blush</v>
+      </c>
+      <c r="D125" s="3" t="str">
+        <v>腮红</v>
+      </c>
+      <c r="E125" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -3763,11 +4305,21 @@
       <c r="T125" s="1"/>
     </row>
     <row r="126">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="1"/>
+      <c r="A126" s="1">
+        <v>122</v>
+      </c>
+      <c r="B126" s="3" t="str">
+        <v>Text_Tab3_2008</v>
+      </c>
+      <c r="C126" s="4" t="str">
+        <v>Lip Makeup</v>
+      </c>
+      <c r="D126" s="3" t="str">
+        <v>口红</v>
+      </c>
+      <c r="E126" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -3785,11 +4337,21 @@
       <c r="T126" s="1"/>
     </row>
     <row r="127">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="1"/>
+      <c r="A127" s="1">
+        <v>123</v>
+      </c>
+      <c r="B127" s="3" t="str">
+        <v>Text_Tab3_2009</v>
+      </c>
+      <c r="C127" s="4" t="str">
+        <v>Face Tattoo</v>
+      </c>
+      <c r="D127" s="3" t="str">
+        <v>面部彩绘</v>
+      </c>
+      <c r="E127" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -3807,11 +4369,21 @@
       <c r="T127" s="1"/>
     </row>
     <row r="128">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="1"/>
+      <c r="A128" s="1">
+        <v>124</v>
+      </c>
+      <c r="B128" s="3" t="str">
+        <v>Text_Tab3_2010</v>
+      </c>
+      <c r="C128" s="4" t="str">
+        <v>Full Hair</v>
+      </c>
+      <c r="D128" s="3" t="str">
+        <v>整体发型</v>
+      </c>
+      <c r="E128" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -3829,11 +4401,21 @@
       <c r="T128" s="1"/>
     </row>
     <row r="129">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="1"/>
+      <c r="A129" s="1">
+        <v>125</v>
+      </c>
+      <c r="B129" s="3" t="str">
+        <v>Text_Tab3_2011</v>
+      </c>
+      <c r="C129" s="4" t="str">
+        <v>Front Hair</v>
+      </c>
+      <c r="D129" s="3" t="str">
+        <v>前发</v>
+      </c>
+      <c r="E129" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -3851,11 +4433,21 @@
       <c r="T129" s="1"/>
     </row>
     <row r="130">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="1"/>
+      <c r="A130" s="1">
+        <v>126</v>
+      </c>
+      <c r="B130" s="3" t="str">
+        <v>Text_Tab3_2012</v>
+      </c>
+      <c r="C130" s="4" t="str">
+        <v>Back Hair</v>
+      </c>
+      <c r="D130" s="3" t="str">
+        <v>后发</v>
+      </c>
+      <c r="E130" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -3873,11 +4465,21 @@
       <c r="T130" s="1"/>
     </row>
     <row r="131">
-      <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="1"/>
+      <c r="A131" s="1">
+        <v>127</v>
+      </c>
+      <c r="B131" s="3" t="str">
+        <v>Text_Tab3_2013</v>
+      </c>
+      <c r="C131" s="3" t="str">
+        <v>Left Hand</v>
+      </c>
+      <c r="D131" s="3" t="str">
+        <v>左手</v>
+      </c>
+      <c r="E131" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -3895,11 +4497,21 @@
       <c r="T131" s="1"/>
     </row>
     <row r="132">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="1"/>
+      <c r="A132" s="1">
+        <v>128</v>
+      </c>
+      <c r="B132" s="3" t="str">
+        <v>Text_Tab3_2014</v>
+      </c>
+      <c r="C132" s="3" t="str">
+        <v>Right Hand</v>
+      </c>
+      <c r="D132" s="3" t="str">
+        <v>右手</v>
+      </c>
+      <c r="E132" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -3917,11 +4529,21 @@
       <c r="T132" s="1"/>
     </row>
     <row r="133">
-      <c r="A133" s="1"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="1"/>
+      <c r="A133" s="1">
+        <v>129</v>
+      </c>
+      <c r="B133" s="3" t="str">
+        <v>Text_Tab3_2015</v>
+      </c>
+      <c r="C133" s="4" t="str">
+        <v>Back</v>
+      </c>
+      <c r="D133" s="3" t="str">
+        <v>背饰</v>
+      </c>
+      <c r="E133" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -3939,11 +4561,21 @@
       <c r="T133" s="1"/>
     </row>
     <row r="134">
-      <c r="A134" s="1"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="1"/>
+      <c r="A134" s="1">
+        <v>130</v>
+      </c>
+      <c r="B134" s="3" t="str">
+        <v>Text_Tab3_2016</v>
+      </c>
+      <c r="C134" s="4" t="str">
+        <v>Ear</v>
+      </c>
+      <c r="D134" s="3" t="str">
+        <v>耳饰</v>
+      </c>
+      <c r="E134" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -3961,11 +4593,21 @@
       <c r="T134" s="1"/>
     </row>
     <row r="135">
-      <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="1"/>
+      <c r="A135" s="1">
+        <v>131</v>
+      </c>
+      <c r="B135" s="3" t="str">
+        <v>Text_Tab3_2017</v>
+      </c>
+      <c r="C135" s="4" t="str">
+        <v>Face</v>
+      </c>
+      <c r="D135" s="3" t="str">
+        <v>面饰</v>
+      </c>
+      <c r="E135" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -3983,11 +4625,21 @@
       <c r="T135" s="1"/>
     </row>
     <row r="136">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="1"/>
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
+      <c r="B136" s="3" t="str">
+        <v>Text_Tab3_2018</v>
+      </c>
+      <c r="C136" s="3" t="str">
+        <v>Hip</v>
+      </c>
+      <c r="D136" s="3" t="str">
+        <v>臀部</v>
+      </c>
+      <c r="E136" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -4005,11 +4657,21 @@
       <c r="T136" s="1"/>
     </row>
     <row r="137">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="1"/>
+      <c r="A137" s="1">
+        <v>133</v>
+      </c>
+      <c r="B137" s="3" t="str">
+        <v>Text_Tab3_2019</v>
+      </c>
+      <c r="C137" s="3" t="str">
+        <v>Shoulder</v>
+      </c>
+      <c r="D137" s="3" t="str">
+        <v>肩部</v>
+      </c>
+      <c r="E137" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -4027,11 +4689,21 @@
       <c r="T137" s="1"/>
     </row>
     <row r="138">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="1"/>
+      <c r="A138" s="1">
+        <v>134</v>
+      </c>
+      <c r="B138" s="3" t="str">
+        <v>Text_Tab3_2020</v>
+      </c>
+      <c r="C138" s="4" t="str">
+        <v>Effects</v>
+      </c>
+      <c r="D138" s="3" t="str">
+        <v>特效</v>
+      </c>
+      <c r="E138" s="3" t="str">
+        <v>收藏</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -4049,10 +4721,18 @@
       <c r="T138" s="1"/>
     </row>
     <row r="139">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="A139" s="1">
+        <v>135</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <v>Text_OpenClothTextBlock</v>
+      </c>
+      <c r="C139" s="2" t="str">
+        <v>Shop</v>
+      </c>
+      <c r="D139" s="2" t="str">
+        <v>换装商店</v>
+      </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="389">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1618,6 +1618,18 @@
   </si>
   <si>
     <t xml:space="preserve">疑惑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拖尾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2021</t>
   </si>
 </sst>
 </file>
@@ -1884,11 +1896,11 @@
   </sheetPr>
   <dimension ref="A1:T247"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C149" activeCellId="0" sqref="C149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.02734375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
@@ -6525,11 +6537,19 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -6547,12 +6567,22 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="2"/>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>200</v>
+      </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="395">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -1630,6 +1630,43 @@
   </si>
   <si>
     <t xml:space="preserve">Text_Tab3_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ColorPick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Pick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">调色板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ColorPart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part {0}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">部位 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{0}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1897,10 +1934,10 @@
   <dimension ref="A1:T247"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
+      <selection pane="topLeft" activeCell="A157" activeCellId="0" sqref="A157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.02734375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
@@ -6600,10 +6637,18 @@
       <c r="T154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
+      <c r="A155" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -6622,10 +6667,18 @@
       <c r="T155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
+      <c r="A156" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>394</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -1,43 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="395">
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value_Ch</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="437">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Value_Ch</t>
   </si>
   <si>
     <r>
@@ -45,261 +52,259 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">唯一</t>
+      <t>唯一</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t>ID</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">英文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key|ReadByName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MainLanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChildLanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_TheItemBarIsFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The item bar is full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">道具栏已满</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_ThisItemIsInUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This item is in use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正在使用此道具</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tips1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone is using it, please try another one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有人正在使用，请换个试试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SetUp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基础设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_PictureQuality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picture Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画质</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SoundEffects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sound Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">音效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_BackgroundMusic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背景音乐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_ViewAngleScaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Angle Scaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">视角缩放</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_DisplayNicknames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Nicknames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">显示昵称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_ResetLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reset Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重置位置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_RestoringSettings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restoring Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">还原设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_ObtainedTips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtained, open the knapsack to use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已获得，打开背包使用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Advertising</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advertising</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广告奖励</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_ADGetTips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See the AD for free guide you get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">看广告免费指引你获得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Dont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不要</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">免费获得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指引失败，请重试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_NoOnTheList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未上榜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Ranking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Nickname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nickname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">昵称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">时长</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_TopInTermsOfDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top {0} In Terms Of Duration</t>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>Key|ReadByName</t>
+  </si>
+  <si>
+    <t>MainLanguage</t>
+  </si>
+  <si>
+    <t>ChildLanguage</t>
+  </si>
+  <si>
+    <t>Text_TheItemBarIsFull</t>
+  </si>
+  <si>
+    <t>The item bar is full</t>
+  </si>
+  <si>
+    <t>道具栏已满</t>
+  </si>
+  <si>
+    <t>Text_ThisItemIsInUse</t>
+  </si>
+  <si>
+    <t>This item is in use</t>
+  </si>
+  <si>
+    <t>正在使用此道具</t>
+  </si>
+  <si>
+    <t>Text_Tips1</t>
+  </si>
+  <si>
+    <t>Someone is using it, please try another one</t>
+  </si>
+  <si>
+    <t>有人正在使用，请换个试试</t>
+  </si>
+  <si>
+    <t>Text_SetUp1</t>
+  </si>
+  <si>
+    <t>Base Setup</t>
+  </si>
+  <si>
+    <t>基础设置</t>
+  </si>
+  <si>
+    <t>Text_PictureQuality</t>
+  </si>
+  <si>
+    <t>Picture Quality</t>
+  </si>
+  <si>
+    <t>画质</t>
+  </si>
+  <si>
+    <t>Text_SoundEffects</t>
+  </si>
+  <si>
+    <t>Sound Effects</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Text_BackgroundMusic</t>
+  </si>
+  <si>
+    <t>Background Music</t>
+  </si>
+  <si>
+    <t>背景音乐</t>
+  </si>
+  <si>
+    <t>Text_ViewAngleScaling</t>
+  </si>
+  <si>
+    <t>View Angle Scaling</t>
+  </si>
+  <si>
+    <t>视角缩放</t>
+  </si>
+  <si>
+    <t>Text_DisplayNicknames</t>
+  </si>
+  <si>
+    <t>Display Nicknames</t>
+  </si>
+  <si>
+    <t>显示昵称</t>
+  </si>
+  <si>
+    <t>Text_ResetLocation</t>
+  </si>
+  <si>
+    <t>Reset Location</t>
+  </si>
+  <si>
+    <t>重置位置</t>
+  </si>
+  <si>
+    <t>Text_RestoringSettings</t>
+  </si>
+  <si>
+    <t>Restoring Settings</t>
+  </si>
+  <si>
+    <t>还原设置</t>
+  </si>
+  <si>
+    <t>Text_On</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>Text_Off</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>Text_ObtainedTips</t>
+  </si>
+  <si>
+    <t>Obtained, open the knapsack to use</t>
+  </si>
+  <si>
+    <t>已获得，打开背包使用</t>
+  </si>
+  <si>
+    <t>Text_Advertising</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>广告奖励</t>
+  </si>
+  <si>
+    <t>Text_ADGetTips</t>
+  </si>
+  <si>
+    <t>See the AD for free guide you get</t>
+  </si>
+  <si>
+    <t>看广告免费指引你获得</t>
+  </si>
+  <si>
+    <t>Text_Dont</t>
+  </si>
+  <si>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>不要</t>
+  </si>
+  <si>
+    <t>Text_Free</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>免费获得</t>
+  </si>
+  <si>
+    <t>Text_Fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>指引失败，请重试</t>
+  </si>
+  <si>
+    <t>Text_NoOnTheList</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>未上榜</t>
+  </si>
+  <si>
+    <t>Text_Ranking</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>Text_Nickname</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>Text_Score</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>Text_Duration</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>时长</t>
+  </si>
+  <si>
+    <t>Text_TopInTermsOfDuration</t>
+  </si>
+  <si>
+    <t>Top {0} In Terms Of Duration</t>
   </si>
   <si>
     <r>
@@ -307,84 +312,81 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">时长全服前</t>
+      <t>时长全服前</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{0}</t>
+      <t>{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">名</t>
+      <t>名</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Text_StartGame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开始游戏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_WelcomeTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to
+    <t>Text_StartGame</t>
+  </si>
+  <si>
+    <t>Start the game</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>Text_WelcomeTo</t>
+  </si>
+  <si>
+    <t>Welcome to
 My Cherry blossom town</t>
   </si>
   <si>
-    <t xml:space="preserve">欢迎来到
+    <t>欢迎来到
 春节免费换装</t>
   </si>
   <si>
-    <t xml:space="preserve">Text_UpNext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Up next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下一个</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_GuideEnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With the guide over, start your trip to the cherry blossom town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引导结束，开启你的樱花小镇之旅吧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关闭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_MyCharacterId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Character ID- Share Friend Try On</t>
+    <t>Text_UpNext</t>
+  </si>
+  <si>
+    <t>Up next</t>
+  </si>
+  <si>
+    <t>下一个</t>
+  </si>
+  <si>
+    <t>Text_GuideEnd</t>
+  </si>
+  <si>
+    <t>With the guide over, start your trip to the cherry blossom town</t>
+  </si>
+  <si>
+    <t>引导结束，开启你的樱花小镇之旅吧</t>
+  </si>
+  <si>
+    <t>Text_Close</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>Text_MyCharacterId</t>
+  </si>
+  <si>
+    <t>My Character ID- Share Friend Try On</t>
   </si>
   <si>
     <r>
@@ -392,37 +394,34 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">我的角色</t>
+      <t>我的角色</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID-</t>
+      <t>ID-</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">分享好友试穿</t>
+      <t>分享好友试穿</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Text_PleaseEnter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please Enter The Friend Role ID</t>
+    <t>Text_PleaseEnter</t>
+  </si>
+  <si>
+    <t>Please Enter The Friend Role ID</t>
   </si>
   <si>
     <r>
@@ -430,72 +429,70 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">请输入好友角色</t>
+      <t>请输入好友角色</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t>ID</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Text_Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">取消</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_FreeTryOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Try On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">免费试穿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SaveImagesForFree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save images for free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">免费保存形象</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_TryOnYourFriendAvatarForFree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try On Your Friend's Avatar For Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">免费试穿好友的角色形象</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_CopySuccessfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy Successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">复制成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_InvalidID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid ID!</t>
+    <t>Text_Cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Text_FreeTryOn</t>
+  </si>
+  <si>
+    <t>Free Try On</t>
+  </si>
+  <si>
+    <t>免费试穿</t>
+  </si>
+  <si>
+    <t>Text_SaveImagesForFree</t>
+  </si>
+  <si>
+    <t>Save images for free</t>
+  </si>
+  <si>
+    <t>免费保存形象</t>
+  </si>
+  <si>
+    <t>Text_TryOnYourFriendAvatarForFree</t>
+  </si>
+  <si>
+    <t>Try On Your Friend's Avatar For Free</t>
+  </si>
+  <si>
+    <t>免费试穿好友的角色形象</t>
+  </si>
+  <si>
+    <t>Text_CopySuccessfully</t>
+  </si>
+  <si>
+    <t>Copy Successfully</t>
+  </si>
+  <si>
+    <t>复制成功</t>
+  </si>
+  <si>
+    <t>Text_InvalidID</t>
+  </si>
+  <si>
+    <t>Invalid ID!</t>
   </si>
   <si>
     <r>
@@ -503,45 +500,43 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t>ID</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">无效！</t>
+      <t>无效！</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Text_Loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加载中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_TryItOnSuccessfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try it on successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">试穿成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_CopyTheCharacterIDShareFriendsTryOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy the character ID share friends try on</t>
+    <t>Text_Loading</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>加载中</t>
+  </si>
+  <si>
+    <t>Text_TryItOnSuccessfully</t>
+  </si>
+  <si>
+    <t>Try it on successfully</t>
+  </si>
+  <si>
+    <t>试穿成功</t>
+  </si>
+  <si>
+    <t>Text_CopyTheCharacterIDShareFriendsTryOn</t>
+  </si>
+  <si>
+    <t>Copy the character ID share friends try on</t>
   </si>
   <si>
     <r>
@@ -549,109 +544,106 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">复制角色</t>
+      <t>复制角色</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t>ID</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">分享好友试穿</t>
+      <t>分享好友试穿</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Text_TryItOnForFree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try it on for free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">看广告免费试穿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_GuideTips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reach near the target point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">达到目标点附近</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_BootPrompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boot prompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引导提示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_FreeGuideYouGet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free guide you get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">免费指引你获得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SignIn_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity is not enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">活动未开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SignIn_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful costume change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">换装成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SignIn_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insufficient check-in time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签到时间不足</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SignIn_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check-in bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签到奖励</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SignIn_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumulative Check-In For {0} Days</t>
+    <t>Text_TryItOnForFree</t>
+  </si>
+  <si>
+    <t>Try it on for free</t>
+  </si>
+  <si>
+    <t>看广告免费试穿</t>
+  </si>
+  <si>
+    <t>Text_GuideTips</t>
+  </si>
+  <si>
+    <t>Reach near the target point</t>
+  </si>
+  <si>
+    <t>达到目标点附近</t>
+  </si>
+  <si>
+    <t>Text_BootPrompt</t>
+  </si>
+  <si>
+    <t>Boot prompt</t>
+  </si>
+  <si>
+    <t>引导提示</t>
+  </si>
+  <si>
+    <t>Text_FreeGuideYouGet</t>
+  </si>
+  <si>
+    <t>Free guide you get</t>
+  </si>
+  <si>
+    <t>免费指引你获得</t>
+  </si>
+  <si>
+    <t>Text_SignIn_1</t>
+  </si>
+  <si>
+    <t>Activity is not enabled</t>
+  </si>
+  <si>
+    <t>活动未开启</t>
+  </si>
+  <si>
+    <t>Text_SignIn_2</t>
+  </si>
+  <si>
+    <t>Successful costume change</t>
+  </si>
+  <si>
+    <t>换装成功</t>
+  </si>
+  <si>
+    <t>Text_SignIn_3</t>
+  </si>
+  <si>
+    <t>Insufficient check-in time</t>
+  </si>
+  <si>
+    <t>签到时间不足</t>
+  </si>
+  <si>
+    <t>Text_SignIn_4</t>
+  </si>
+  <si>
+    <t>Check-in bonus</t>
+  </si>
+  <si>
+    <t>签到奖励</t>
+  </si>
+  <si>
+    <t>Text_SignIn_5</t>
+  </si>
+  <si>
+    <t>Cumulative Check-In For {0} Days</t>
   </si>
   <si>
     <r>
@@ -659,65 +651,62 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">已经累积签到</t>
+      <t>已经累积签到</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{0}</t>
+      <t>{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">天</t>
+      <t>天</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Text_SignIn_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has been 
+    <t>Text_SignIn_6</t>
+  </si>
+  <si>
+    <t>Has been 
 Obtained</t>
   </si>
   <si>
-    <t xml:space="preserve">已获得</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SignIn_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change of dress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">换装</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SignIn_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insufficient check-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签到不足</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_SignIn_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day {0}</t>
+    <t>已获得</t>
+  </si>
+  <si>
+    <t>Text_SignIn_7</t>
+  </si>
+  <si>
+    <t>Change of dress</t>
+  </si>
+  <si>
+    <t>换装</t>
+  </si>
+  <si>
+    <t>Text_SignIn_8</t>
+  </si>
+  <si>
+    <t>Insufficient check-in</t>
+  </si>
+  <si>
+    <t>签到不足</t>
+  </si>
+  <si>
+    <t>Text_SignIn_9</t>
+  </si>
+  <si>
+    <t>Day {0}</t>
   </si>
   <si>
     <r>
@@ -725,64 +714,61 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">第</t>
+      <t>第</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{0}</t>
+      <t>{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">天</t>
+      <t>天</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Text_SignIn_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">签到</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_OpenMallTextBlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free change of clothes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">免费换装</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_FreeChangeOfClothes1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try on, please wait patiently.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">试穿中，请耐心等待。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_FreeChangeOfClothes2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free fitting {0} minutes</t>
+    <t>Text_SignIn_10</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>Text_OpenMallTextBlock</t>
+  </si>
+  <si>
+    <t>Free change of clothes</t>
+  </si>
+  <si>
+    <t>免费换装</t>
+  </si>
+  <si>
+    <t>Text_FreeChangeOfClothes1</t>
+  </si>
+  <si>
+    <t>Try on, please wait patiently.</t>
+  </si>
+  <si>
+    <t>试穿中，请耐心等待。</t>
+  </si>
+  <si>
+    <t>Text_FreeChangeOfClothes2</t>
+  </si>
+  <si>
+    <t>Free fitting {0} minutes</t>
   </si>
   <si>
     <r>
@@ -790,517 +776,514 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">免费试穿</t>
+      <t>免费试穿</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{0}</t>
+      <t>{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">分钟</t>
+      <t>分钟</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Text_FreeChangeOfClothes3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try it on, please go back to try it on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">试穿结束，请打开商店重新试穿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Rank1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The leaderboard is wrong.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排行榜出错啦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">捏脸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab1_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收藏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab1_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin Tone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肤色</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Face</t>
-  </si>
-  <si>
-    <t xml:space="preserve">脸型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eyes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">眼睛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eyebrows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">眉毛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makeup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妆容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表情</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outfit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">套装</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">头发</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上衣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下衣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鞋子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手套</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宠物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">饰品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab2_515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pupil Style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瞳孔样式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">瞳孔贴花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Highlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上高光</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Highlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下高光</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eyelashes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">睫毛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eyeshadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">眼影</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腮红</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lip Makeup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">口红</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Face Tattoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">面部彩绘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Hair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整体发型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front Hair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前发</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back Hair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">后发</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left Hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right Hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">右手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背饰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耳饰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">面饰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">臀部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoulder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肩部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特效</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_OpenClothTextBlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">换装商店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_MallItem_Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">免费</t>
+    <t>Text_FreeChangeOfClothes3</t>
+  </si>
+  <si>
+    <t>Try it on, please go back to try it on</t>
+  </si>
+  <si>
+    <t>试穿结束，请打开商店重新试穿</t>
+  </si>
+  <si>
+    <t>Text_Rank1</t>
+  </si>
+  <si>
+    <t>The leaderboard is wrong.</t>
+  </si>
+  <si>
+    <t>排行榜出错啦</t>
+  </si>
+  <si>
+    <t>Text_Tab1_1</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>捏脸</t>
+  </si>
+  <si>
+    <t>Text_Tab1_2</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Text_Tab1_3</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>收藏</t>
+  </si>
+  <si>
+    <t>Text_Tab1_4</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>Text_Tab2_101</t>
+  </si>
+  <si>
+    <t>Body Type</t>
+  </si>
+  <si>
+    <t>体型</t>
+  </si>
+  <si>
+    <t>Text_Tab2_102</t>
+  </si>
+  <si>
+    <t>Skin Tone</t>
+  </si>
+  <si>
+    <t>肤色</t>
+  </si>
+  <si>
+    <t>Text_Tab2_103</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>脸型</t>
+  </si>
+  <si>
+    <t>Text_Tab2_104</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>Text_Tab2_105</t>
+  </si>
+  <si>
+    <t>Eyebrows</t>
+  </si>
+  <si>
+    <t>眉毛</t>
+  </si>
+  <si>
+    <t>Text_Tab2_106</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>妆容</t>
+  </si>
+  <si>
+    <t>Text_Tab2_107</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>表情</t>
+  </si>
+  <si>
+    <t>Text_Tab2_108</t>
+  </si>
+  <si>
+    <t>Outfit</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
+    <t>Text_Tab2_109</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>Text_Tab2_110</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>上衣</t>
+  </si>
+  <si>
+    <t>Text_Tab2_111</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>下衣</t>
+  </si>
+  <si>
+    <t>Text_Tab2_112</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>Text_Tab2_113</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>Text_Tab2_114</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>Text_Tab2_115</t>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>Text_Tab2_501</t>
+  </si>
+  <si>
+    <t>Text_Tab2_502</t>
+  </si>
+  <si>
+    <t>Text_Tab2_503</t>
+  </si>
+  <si>
+    <t>Text_Tab2_504</t>
+  </si>
+  <si>
+    <t>Text_Tab2_505</t>
+  </si>
+  <si>
+    <t>Text_Tab2_506</t>
+  </si>
+  <si>
+    <t>Text_Tab2_507</t>
+  </si>
+  <si>
+    <t>Text_Tab2_508</t>
+  </si>
+  <si>
+    <t>Text_Tab2_509</t>
+  </si>
+  <si>
+    <t>Text_Tab2_510</t>
+  </si>
+  <si>
+    <t>Text_Tab2_511</t>
+  </si>
+  <si>
+    <t>Text_Tab2_512</t>
+  </si>
+  <si>
+    <t>Text_Tab2_513</t>
+  </si>
+  <si>
+    <t>Text_Tab2_514</t>
+  </si>
+  <si>
+    <t>Text_Tab2_515</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1001</t>
+  </si>
+  <si>
+    <t>Pupil Style</t>
+  </si>
+  <si>
+    <t>瞳孔样式</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1002</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>瞳孔贴花</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1003</t>
+  </si>
+  <si>
+    <t>Upper Highlight</t>
+  </si>
+  <si>
+    <t>上高光</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1004</t>
+  </si>
+  <si>
+    <t>Lower Highlight</t>
+  </si>
+  <si>
+    <t>下高光</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1005</t>
+  </si>
+  <si>
+    <t>Eyelashes</t>
+  </si>
+  <si>
+    <t>睫毛</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1006</t>
+  </si>
+  <si>
+    <t>Eyeshadow</t>
+  </si>
+  <si>
+    <t>眼影</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1007</t>
+  </si>
+  <si>
+    <t>Blush</t>
+  </si>
+  <si>
+    <t>腮红</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1008</t>
+  </si>
+  <si>
+    <t>Lip Makeup</t>
+  </si>
+  <si>
+    <t>口红</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1009</t>
+  </si>
+  <si>
+    <t>Face Tattoo</t>
+  </si>
+  <si>
+    <t>面部彩绘</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1010</t>
+  </si>
+  <si>
+    <t>Full Hair</t>
+  </si>
+  <si>
+    <t>整体发型</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1011</t>
+  </si>
+  <si>
+    <t>Front Hair</t>
+  </si>
+  <si>
+    <t>前发</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1012</t>
+  </si>
+  <si>
+    <t>Back Hair</t>
+  </si>
+  <si>
+    <t>后发</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1013</t>
+  </si>
+  <si>
+    <t>Left Hand</t>
+  </si>
+  <si>
+    <t>左手</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1014</t>
+  </si>
+  <si>
+    <t>Right Hand</t>
+  </si>
+  <si>
+    <t>右手</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1015</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>背饰</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1016</t>
+  </si>
+  <si>
+    <t>Ear</t>
+  </si>
+  <si>
+    <t>耳饰</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1017</t>
+  </si>
+  <si>
+    <t>面饰</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1018</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>臀部</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1019</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>肩部</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1020</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2001</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2002</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2003</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2004</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2005</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2006</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2007</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2008</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2009</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2010</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2011</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2012</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2013</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2014</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2015</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2016</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2017</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2018</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2019</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2020</t>
+  </si>
+  <si>
+    <t>Text_OpenClothTextBlock</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>换装商店</t>
+  </si>
+  <si>
+    <t>Text_MallItem_Free</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>免费</t>
   </si>
   <si>
     <r>
@@ -1308,33 +1291,31 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Text_</t>
+      <t>Text_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">ThisFeatureIsNotEnabled</t>
+      <t>ThisFeatureIsNotEnabled</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This feature is not enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">此功能未开启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_BodyTypeDescribe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0} times</t>
+    <t>This feature is not enabled</t>
+  </si>
+  <si>
+    <t>此功能未开启</t>
+  </si>
+  <si>
+    <t>Text_BodyTypeDescribe</t>
+  </si>
+  <si>
+    <t>{0} times</t>
   </si>
   <si>
     <r>
@@ -1342,20 +1323,18 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{0}</t>
+      <t>{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">倍</t>
+      <t>倍</t>
     </r>
   </si>
   <si>
@@ -1364,27 +1343,25 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Text_Expression_</t>
+      <t>Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Default</t>
+      <t>Default</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">默认表情</t>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>默认表情</t>
   </si>
   <si>
     <r>
@@ -1392,27 +1369,25 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Text_Expression_</t>
+      <t>Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Smile</t>
+      <t>Smile</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Smile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">微笑</t>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>微笑</t>
   </si>
   <si>
     <r>
@@ -1420,27 +1395,25 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Text_Expression_</t>
+      <t>Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">HaveFun</t>
+      <t>HaveFun</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Have Fun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开心</t>
+    <t>Have Fun</t>
+  </si>
+  <si>
+    <t>开心</t>
   </si>
   <si>
     <r>
@@ -1448,27 +1421,25 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Text_Expression_</t>
+      <t>Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Sad</t>
+      <t>Sad</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">伤心</t>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>伤心</t>
   </si>
   <si>
     <r>
@@ -1476,27 +1447,25 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Text_Expression_</t>
+      <t>Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">GetAngry</t>
+      <t>GetAngry</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Get Angry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生气</t>
+    <t>Get Angry</t>
+  </si>
+  <si>
+    <t>生气</t>
   </si>
   <si>
     <r>
@@ -1504,36 +1473,34 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Text_Expression_</t>
+      <t>Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Embarrassment</t>
+      <t>Embarrassment</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Embarrassment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">尴尬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Expression_Laugh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laugh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">笑</t>
+    <t>Embarrassment</t>
+  </si>
+  <si>
+    <t>尴尬</t>
+  </si>
+  <si>
+    <t>Text_Expression_Laugh</t>
+  </si>
+  <si>
+    <t>Laugh</t>
+  </si>
+  <si>
+    <t>笑</t>
   </si>
   <si>
     <r>
@@ -1541,27 +1508,25 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Text_Expression_</t>
+      <t>Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">BeNaughty</t>
+      <t>BeNaughty</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Be Naughty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">调皮</t>
+    <t>Be Naughty</t>
+  </si>
+  <si>
+    <t>调皮</t>
   </si>
   <si>
     <r>
@@ -1569,27 +1534,25 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Text_Expression_</t>
+      <t>Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Cute</t>
+      <t>Cute</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可爱</t>
+    <t>Cute</t>
+  </si>
+  <si>
+    <t>可爱</t>
   </si>
   <si>
     <r>
@@ -1597,54 +1560,52 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Text_Expression_</t>
+      <t>Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Doubt</t>
+      <t>Doubt</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Doubt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">疑惑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_1021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trailing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">拖尾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_Tab3_2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_ColorPick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color Pick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">调色板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text_ColorPart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part {0}</t>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>疑惑</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1021</t>
+  </si>
+  <si>
+    <t>Trailing</t>
+  </si>
+  <si>
+    <t>拖尾</t>
+  </si>
+  <si>
+    <t>Text_Tab3_2021</t>
+  </si>
+  <si>
+    <t>Text_ColorPick</t>
+  </si>
+  <si>
+    <t>Color Pick</t>
+  </si>
+  <si>
+    <t>调色板</t>
+  </si>
+  <si>
+    <t>Text_ColorPart</t>
+  </si>
+  <si>
+    <t>Part {0}</t>
   </si>
   <si>
     <r>
@@ -1652,7 +1613,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">部位 </t>
@@ -1662,105 +1622,582 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{0}</t>
+      <t>{0}</t>
     </r>
+  </si>
+  <si>
+    <t>Text_NotSupportToning</t>
+  </si>
+  <si>
+    <t>This {0} Does Not Support Toning</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>不支持调色</t>
+    </r>
+  </si>
+  <si>
+    <t>Text_PupilColor</t>
+  </si>
+  <si>
+    <t>Pupil Color</t>
+  </si>
+  <si>
+    <t>瞳孔颜色</t>
+  </si>
+  <si>
+    <t>Text_LeftPupilColor</t>
+  </si>
+  <si>
+    <t>Left Pupil Color</t>
+  </si>
+  <si>
+    <t>左瞳孔颜色</t>
+  </si>
+  <si>
+    <t>Text_RightPupilColor</t>
+  </si>
+  <si>
+    <t>Right Pupil Color</t>
+  </si>
+  <si>
+    <t>右瞳孔颜色</t>
+  </si>
+  <si>
+    <t>Text_DecalColor</t>
+  </si>
+  <si>
+    <t>Decal Color</t>
+  </si>
+  <si>
+    <t>贴花颜色</t>
+  </si>
+  <si>
+    <t>Text_UpperHighlightColor</t>
+  </si>
+  <si>
+    <t>Upper Highlight Color</t>
+  </si>
+  <si>
+    <t>上高光颜色</t>
+  </si>
+  <si>
+    <t>Text_LowerHighlightColor</t>
+  </si>
+  <si>
+    <t>Lower Highlight Color</t>
+  </si>
+  <si>
+    <t>下高光颜色</t>
+  </si>
+  <si>
+    <t>Text_EyelashColor</t>
+  </si>
+  <si>
+    <t>Eyelash Color</t>
+  </si>
+  <si>
+    <t>睫毛颜色</t>
+  </si>
+  <si>
+    <t>Text_EyeshaowColor</t>
+  </si>
+  <si>
+    <t>Eyeshaow Color</t>
+  </si>
+  <si>
+    <t>眼影颜色</t>
+  </si>
+  <si>
+    <t>Text_BlushColor</t>
+  </si>
+  <si>
+    <t>Blush Color</t>
+  </si>
+  <si>
+    <t>腮红颜色</t>
+  </si>
+  <si>
+    <t>Text_LipstickColor</t>
+  </si>
+  <si>
+    <t>Lipstick Color</t>
+  </si>
+  <si>
+    <t>口红颜色</t>
+  </si>
+  <si>
+    <t>Text_Monochrome</t>
+  </si>
+  <si>
+    <t>Monochrome</t>
+  </si>
+  <si>
+    <t>单色</t>
+  </si>
+  <si>
+    <t>Text_TopColor</t>
+  </si>
+  <si>
+    <t>Top Color</t>
+  </si>
+  <si>
+    <t>发顶色</t>
+  </si>
+  <si>
+    <t>Text_TailColor</t>
+  </si>
+  <si>
+    <t>Tail Color</t>
+  </si>
+  <si>
+    <t>发尾色</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFDEE0E3"/>
       </left>
@@ -1775,178 +2212,903 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDEE0E3"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00DEE0E3"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T247"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A157" activeCellId="0" sqref="A157"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9916666666667" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="5" style="1" width="12.97"/>
+    <col min="1" max="1" width="12.9666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.2833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.15" style="1" customWidth="1"/>
+    <col min="5" max="20" width="12.9666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="15" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +3138,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="15" customHeight="1" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2006,7 +3168,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="15" customHeight="1" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +3198,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="15" customHeight="1" spans="1:20">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -2064,8 +3226,8 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" ht="15" customHeight="1" spans="1:20">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2094,8 +3256,8 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" ht="15" customHeight="1" spans="1:20">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2124,8 +3286,8 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" ht="15" customHeight="1" spans="1:20">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2154,8 +3316,8 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" ht="15" customHeight="1" spans="1:20">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2184,8 +3346,8 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" ht="15" customHeight="1" spans="1:20">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2214,8 +3376,8 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" ht="15" customHeight="1" spans="1:20">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2244,8 +3406,8 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" ht="15" customHeight="1" spans="1:20">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2274,8 +3436,8 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" ht="15" customHeight="1" spans="1:20">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2304,8 +3466,8 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" ht="15" customHeight="1" spans="1:20">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2334,8 +3496,8 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" ht="15" customHeight="1" spans="1:20">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2364,8 +3526,8 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" ht="15" customHeight="1" spans="1:20">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2394,8 +3556,8 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" ht="15" customHeight="1" spans="1:20">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2424,8 +3586,8 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" ht="15" customHeight="1" spans="1:20">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2454,8 +3616,8 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" ht="15" customHeight="1" spans="1:20">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2484,8 +3646,8 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" ht="15" customHeight="1" spans="1:20">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2514,8 +3676,8 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" ht="15" customHeight="1" spans="1:20">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2544,8 +3706,8 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" ht="15" customHeight="1" spans="1:20">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2574,8 +3736,8 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" ht="15" customHeight="1" spans="1:20">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2604,8 +3766,8 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" ht="15" customHeight="1" spans="1:20">
+      <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2634,8 +3796,8 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" ht="15" customHeight="1" spans="1:20">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2664,8 +3826,8 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" ht="15" customHeight="1" spans="1:20">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2694,8 +3856,8 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" ht="15" customHeight="1" spans="1:20">
+      <c r="A26" s="2">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2724,8 +3886,8 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" ht="15" customHeight="1" spans="1:20">
+      <c r="A27" s="2">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2754,8 +3916,8 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" ht="15" customHeight="1" spans="1:20">
+      <c r="A28" s="2">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2784,8 +3946,8 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" ht="15" customHeight="1" spans="1:20">
+      <c r="A29" s="2">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2814,8 +3976,8 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" ht="15" customHeight="1" spans="1:20">
+      <c r="A30" s="2">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2844,8 +4006,8 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" ht="15" customHeight="1" spans="1:20">
+      <c r="A31" s="2">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2874,8 +4036,8 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" ht="15" customHeight="1" spans="1:20">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2904,8 +4066,8 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" ht="15" customHeight="1" spans="1:20">
+      <c r="A33" s="2">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2934,8 +4096,8 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" ht="15" customHeight="1" spans="1:20">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2964,8 +4126,8 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" ht="15" customHeight="1" spans="1:20">
+      <c r="A35" s="2">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2994,8 +4156,8 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" ht="15" customHeight="1" spans="1:20">
+      <c r="A36" s="2">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3024,8 +4186,8 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" ht="15" customHeight="1" spans="1:20">
+      <c r="A37" s="2">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3054,8 +4216,8 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" ht="15" customHeight="1" spans="1:20">
+      <c r="A38" s="2">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3084,8 +4246,8 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" ht="15" customHeight="1" spans="1:20">
+      <c r="A39" s="2">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3114,8 +4276,8 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" ht="15" customHeight="1" spans="1:20">
+      <c r="A40" s="2">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3144,8 +4306,8 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" ht="15" customHeight="1" spans="1:20">
+      <c r="A41" s="2">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3174,8 +4336,8 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" ht="15" customHeight="1" spans="1:20">
+      <c r="A42" s="2">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3204,8 +4366,8 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" ht="15" customHeight="1" spans="1:20">
+      <c r="A43" s="2">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3234,8 +4396,8 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" ht="15" customHeight="1" spans="1:20">
+      <c r="A44" s="2">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3264,8 +4426,8 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" ht="15" customHeight="1" spans="1:20">
+      <c r="A45" s="2">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3294,8 +4456,8 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" ht="15" customHeight="1" spans="1:20">
+      <c r="A46" s="2">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3324,8 +4486,8 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" ht="15" customHeight="1" spans="1:20">
+      <c r="A47" s="2">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3354,8 +4516,8 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:20">
+      <c r="A48" s="2">
         <v>44</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3384,8 +4546,8 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:20">
+      <c r="A49" s="2">
         <v>45</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3414,8 +4576,8 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:20">
+      <c r="A50" s="2">
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -3444,8 +4606,8 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:20">
+      <c r="A51" s="2">
         <v>47</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -3474,8 +4636,8 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:20">
+      <c r="A52" s="2">
         <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -3504,8 +4666,8 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:20">
+      <c r="A53" s="2">
         <v>49</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -3534,8 +4696,8 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:20">
+      <c r="A54" s="2">
         <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -3564,8 +4726,8 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" ht="25.5" spans="1:20">
+      <c r="A55" s="2">
         <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -3594,8 +4756,8 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:20">
+      <c r="A56" s="2">
         <v>52</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -3624,8 +4786,8 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:20">
+      <c r="A57" s="2">
         <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -3654,8 +4816,8 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:20">
+      <c r="A58" s="2">
         <v>54</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -3684,8 +4846,8 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:20">
+      <c r="A59" s="2">
         <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3714,8 +4876,8 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:20">
+      <c r="A60" s="2">
         <v>56</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -3744,8 +4906,8 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" ht="24" spans="1:20">
+      <c r="A61" s="2">
         <v>57</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -3774,8 +4936,8 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:20">
+      <c r="A62" s="2">
         <v>58</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3804,8 +4966,8 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:20">
+      <c r="A63" s="2">
         <v>59</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -3834,8 +4996,8 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:20">
+      <c r="A64" s="2">
         <v>60</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -3864,8 +5026,8 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:20">
+      <c r="A65" s="2">
         <v>61</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3894,8 +5056,8 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:20">
+      <c r="A66" s="2">
         <v>62</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -3924,8 +5086,8 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:20">
+      <c r="A67" s="2">
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -3954,8 +5116,8 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:20">
+      <c r="A68" s="2">
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -3984,8 +5146,8 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:20">
+      <c r="A69" s="2">
         <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -4014,8 +5176,8 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:20">
+      <c r="A70" s="2">
         <v>66</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -4044,8 +5206,8 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:20">
+      <c r="A71" s="2">
         <v>67</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -4074,8 +5236,8 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:20">
+      <c r="A72" s="2">
         <v>68</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -4104,8 +5266,8 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:20">
+      <c r="A73" s="2">
         <v>69</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -4134,8 +5296,8 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:20">
+      <c r="A74" s="2">
         <v>70</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -4164,8 +5326,8 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:20">
+      <c r="A75" s="2">
         <v>71</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -4194,8 +5356,8 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:20">
+      <c r="A76" s="2">
         <v>72</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -4224,8 +5386,8 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:20">
+      <c r="A77" s="2">
         <v>73</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -4254,8 +5416,8 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:20">
+      <c r="A78" s="2">
         <v>74</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -4284,8 +5446,8 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:20">
+      <c r="A79" s="2">
         <v>75</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -4314,8 +5476,8 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:20">
+      <c r="A80" s="2">
         <v>76</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -4344,8 +5506,8 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:20">
+      <c r="A81" s="2">
         <v>77</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -4374,8 +5536,8 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:20">
+      <c r="A82" s="2">
         <v>78</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -4404,8 +5566,8 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:20">
+      <c r="A83" s="2">
         <v>79</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -4434,8 +5596,8 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:20">
+      <c r="A84" s="2">
         <v>80</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -4466,8 +5628,8 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:20">
+      <c r="A85" s="2">
         <v>81</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -4498,8 +5660,8 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:20">
+      <c r="A86" s="2">
         <v>82</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -4530,8 +5692,8 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:20">
+      <c r="A87" s="2">
         <v>83</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -4562,8 +5724,8 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:20">
+      <c r="A88" s="2">
         <v>84</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -4594,8 +5756,8 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:20">
+      <c r="A89" s="2">
         <v>85</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -4626,8 +5788,8 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:20">
+      <c r="A90" s="2">
         <v>86</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -4658,8 +5820,8 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:20">
+      <c r="A91" s="2">
         <v>87</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -4690,8 +5852,8 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:20">
+      <c r="A92" s="2">
         <v>88</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -4722,8 +5884,8 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:20">
+      <c r="A93" s="2">
         <v>89</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -4754,8 +5916,8 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:20">
+      <c r="A94" s="2">
         <v>90</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -4786,8 +5948,8 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:20">
+      <c r="A95" s="2">
         <v>91</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -4818,8 +5980,8 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:20">
+      <c r="A96" s="2">
         <v>92</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -4850,8 +6012,8 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:20">
+      <c r="A97" s="2">
         <v>93</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -4882,8 +6044,8 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:20">
+      <c r="A98" s="2">
         <v>94</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -4914,8 +6076,8 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:20">
+      <c r="A99" s="2">
         <v>95</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -4944,8 +6106,8 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:20">
+      <c r="A100" s="2">
         <v>96</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -4974,8 +6136,8 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:20">
+      <c r="A101" s="2">
         <v>97</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -5004,8 +6166,8 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:20">
+      <c r="A102" s="2">
         <v>98</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -5034,8 +6196,8 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:20">
+      <c r="A103" s="2">
         <v>99</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -5064,8 +6226,8 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:20">
+      <c r="A104" s="2">
         <v>100</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -5094,8 +6256,8 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:20">
+      <c r="A105" s="2">
         <v>101</v>
       </c>
       <c r="B105" s="8" t="s">
@@ -5124,8 +6286,8 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:20">
+      <c r="A106" s="2">
         <v>102</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -5154,8 +6316,8 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:20">
+      <c r="A107" s="2">
         <v>103</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -5184,8 +6346,8 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:20">
+      <c r="A108" s="2">
         <v>104</v>
       </c>
       <c r="B108" s="8" t="s">
@@ -5214,8 +6376,8 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:20">
+      <c r="A109" s="2">
         <v>105</v>
       </c>
       <c r="B109" s="8" t="s">
@@ -5244,8 +6406,8 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:20">
+      <c r="A110" s="2">
         <v>106</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -5274,8 +6436,8 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:20">
+      <c r="A111" s="2">
         <v>107</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -5304,8 +6466,8 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:20">
+      <c r="A112" s="2">
         <v>108</v>
       </c>
       <c r="B112" s="8" t="s">
@@ -5334,8 +6496,8 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:20">
+      <c r="A113" s="2">
         <v>109</v>
       </c>
       <c r="B113" s="8" t="s">
@@ -5364,8 +6526,8 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:20">
+      <c r="A114" s="2">
         <v>110</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -5394,8 +6556,8 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:20">
+      <c r="A115" s="2">
         <v>111</v>
       </c>
       <c r="B115" s="8" t="s">
@@ -5424,8 +6586,8 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:20">
+      <c r="A116" s="2">
         <v>112</v>
       </c>
       <c r="B116" s="8" t="s">
@@ -5454,8 +6616,8 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:20">
+      <c r="A117" s="2">
         <v>113</v>
       </c>
       <c r="B117" s="8" t="s">
@@ -5484,8 +6646,8 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:20">
+      <c r="A118" s="2">
         <v>114</v>
       </c>
       <c r="B118" s="8" t="s">
@@ -5514,8 +6676,8 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:20">
+      <c r="A119" s="2">
         <v>115</v>
       </c>
       <c r="B119" s="8" t="s">
@@ -5546,8 +6708,8 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:20">
+      <c r="A120" s="2">
         <v>116</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -5578,8 +6740,8 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:20">
+      <c r="A121" s="2">
         <v>117</v>
       </c>
       <c r="B121" s="8" t="s">
@@ -5610,8 +6772,8 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:20">
+      <c r="A122" s="2">
         <v>118</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -5642,8 +6804,8 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:20">
+      <c r="A123" s="2">
         <v>119</v>
       </c>
       <c r="B123" s="8" t="s">
@@ -5674,8 +6836,8 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:20">
+      <c r="A124" s="2">
         <v>120</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -5706,8 +6868,8 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:20">
+      <c r="A125" s="2">
         <v>121</v>
       </c>
       <c r="B125" s="8" t="s">
@@ -5738,8 +6900,8 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:20">
+      <c r="A126" s="2">
         <v>122</v>
       </c>
       <c r="B126" s="8" t="s">
@@ -5770,8 +6932,8 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:20">
+      <c r="A127" s="2">
         <v>123</v>
       </c>
       <c r="B127" s="8" t="s">
@@ -5802,8 +6964,8 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:20">
+      <c r="A128" s="2">
         <v>124</v>
       </c>
       <c r="B128" s="8" t="s">
@@ -5834,8 +6996,8 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:20">
+      <c r="A129" s="2">
         <v>125</v>
       </c>
       <c r="B129" s="8" t="s">
@@ -5866,8 +7028,8 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:20">
+      <c r="A130" s="2">
         <v>126</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -5898,8 +7060,8 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:20">
+      <c r="A131" s="2">
         <v>127</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -5930,8 +7092,8 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:20">
+      <c r="A132" s="2">
         <v>128</v>
       </c>
       <c r="B132" s="8" t="s">
@@ -5962,8 +7124,8 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:20">
+      <c r="A133" s="2">
         <v>129</v>
       </c>
       <c r="B133" s="8" t="s">
@@ -5994,8 +7156,8 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:20">
+      <c r="A134" s="2">
         <v>130</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -6026,8 +7188,8 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:20">
+      <c r="A135" s="2">
         <v>131</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -6058,8 +7220,8 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:20">
+      <c r="A136" s="2">
         <v>132</v>
       </c>
       <c r="B136" s="8" t="s">
@@ -6090,8 +7252,8 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:20">
+      <c r="A137" s="2">
         <v>133</v>
       </c>
       <c r="B137" s="8" t="s">
@@ -6122,8 +7284,8 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:20">
+      <c r="A138" s="2">
         <v>134</v>
       </c>
       <c r="B138" s="8" t="s">
@@ -6154,8 +7316,8 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:20">
+      <c r="A139" s="2">
         <v>135</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -6184,8 +7346,8 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:20">
+      <c r="A140" s="2">
         <v>136</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -6214,8 +7376,8 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:20">
+      <c r="A141" s="2">
         <v>137</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -6244,8 +7406,8 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:20">
+      <c r="A142" s="2">
         <v>138</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -6274,8 +7436,8 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:20">
+      <c r="A143" s="2">
         <v>139</v>
       </c>
       <c r="B143" s="11" t="s">
@@ -6304,8 +7466,8 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:20">
+      <c r="A144" s="2">
         <v>140</v>
       </c>
       <c r="B144" s="11" t="s">
@@ -6334,8 +7496,8 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:20">
+      <c r="A145" s="2">
         <v>141</v>
       </c>
       <c r="B145" s="11" t="s">
@@ -6364,8 +7526,8 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:20">
+      <c r="A146" s="2">
         <v>142</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -6394,8 +7556,8 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:20">
+      <c r="A147" s="2">
         <v>143</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -6424,8 +7586,8 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:20">
+      <c r="A148" s="2">
         <v>144</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -6454,8 +7616,8 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:20">
+      <c r="A149" s="2">
         <v>145</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -6484,8 +7646,8 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:20">
+      <c r="A150" s="2">
         <v>146</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -6514,8 +7676,8 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:20">
+      <c r="A151" s="2">
         <v>147</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -6544,8 +7706,8 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:20">
+      <c r="A152" s="2">
         <v>148</v>
       </c>
       <c r="B152" s="11" t="s">
@@ -6574,8 +7736,8 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:20">
+      <c r="A153" s="2">
         <v>149</v>
       </c>
       <c r="B153" s="8" t="s">
@@ -6604,8 +7766,8 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:20">
+      <c r="A154" s="2">
         <v>150</v>
       </c>
       <c r="B154" s="8" t="s">
@@ -6636,8 +7798,8 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:20">
+      <c r="A155" s="2">
         <v>151</v>
       </c>
       <c r="B155" s="6" t="s">
@@ -6666,8 +7828,8 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:20">
+      <c r="A156" s="2">
         <v>152</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -6696,11 +7858,19 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
+    <row r="157" spans="1:20">
+      <c r="A157" s="2">
+        <v>153</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>397</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -6718,11 +7888,19 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
+    <row r="158" spans="1:20">
+      <c r="A158" s="2">
+        <v>154</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>400</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -6740,11 +7918,19 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
+    <row r="159" spans="1:20">
+      <c r="A159" s="2">
+        <v>155</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>403</v>
+      </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -6762,11 +7948,19 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
+    <row r="160" spans="1:20">
+      <c r="A160" s="2">
+        <v>156</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>406</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -6784,11 +7978,19 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
+    <row r="161" spans="1:20">
+      <c r="A161" s="2">
+        <v>157</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>409</v>
+      </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -6806,11 +8008,19 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
+    <row r="162" spans="1:20">
+      <c r="A162" s="2">
+        <v>158</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>412</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -6828,11 +8038,19 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
+    <row r="163" spans="1:20">
+      <c r="A163" s="2">
+        <v>159</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>415</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -6850,11 +8068,19 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
+    <row r="164" spans="1:20">
+      <c r="A164" s="2">
+        <v>160</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>418</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -6872,11 +8098,19 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
+    <row r="165" spans="1:20">
+      <c r="A165" s="2">
+        <v>161</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>421</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -6894,11 +8128,19 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
+    <row r="166" spans="1:20">
+      <c r="A166" s="2">
+        <v>162</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -6916,11 +8158,19 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
+    <row r="167" spans="1:20">
+      <c r="A167" s="2">
+        <v>163</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>427</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -6938,11 +8188,19 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
+    <row r="168" spans="1:20">
+      <c r="A168" s="2">
+        <v>164</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>430</v>
+      </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -6960,11 +8218,19 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
+    <row r="169" spans="1:20">
+      <c r="A169" s="2">
+        <v>165</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>433</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -6982,11 +8248,19 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
+    <row r="170" spans="1:20">
+      <c r="A170" s="2">
+        <v>166</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>436</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -7004,7 +8278,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:20">
       <c r="A171" s="2"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -7026,7 +8300,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:20">
       <c r="A172" s="2"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -7048,7 +8322,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:20">
       <c r="A173" s="2"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -7070,7 +8344,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:20">
       <c r="A174" s="2"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -7092,7 +8366,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:20">
       <c r="A175" s="2"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -7114,7 +8388,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:20">
       <c r="A176" s="2"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -7136,7 +8410,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:20">
       <c r="A177" s="2"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -7158,7 +8432,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:20">
       <c r="A178" s="2"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -7180,7 +8454,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:20">
       <c r="A179" s="2"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -7202,7 +8476,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:20">
       <c r="A180" s="2"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -7224,7 +8498,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:20">
       <c r="A181" s="2"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -7246,7 +8520,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:20">
       <c r="A182" s="2"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -7268,7 +8542,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:20">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -7290,7 +8564,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:20">
       <c r="A184" s="2"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -7312,7 +8586,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:20">
       <c r="A185" s="2"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -7334,7 +8608,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:20">
       <c r="A186" s="2"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -7356,7 +8630,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:20">
       <c r="A187" s="2"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -7378,7 +8652,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:20">
       <c r="A188" s="2"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -7400,7 +8674,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:20">
       <c r="A189" s="2"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -7422,7 +8696,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:20">
       <c r="A190" s="2"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -7444,7 +8718,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:20">
       <c r="A191" s="2"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -7466,7 +8740,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:20">
       <c r="A192" s="2"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -7488,7 +8762,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:20">
       <c r="A193" s="2"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -7510,7 +8784,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:20">
       <c r="A194" s="2"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -7532,7 +8806,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:20">
       <c r="A195" s="2"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -7554,7 +8828,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:20">
       <c r="A196" s="2"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -7576,7 +8850,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:20">
       <c r="A197" s="2"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -7598,7 +8872,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:20">
       <c r="A198" s="2"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -7620,7 +8894,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:20">
       <c r="A199" s="2"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -7642,7 +8916,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:20">
       <c r="A200" s="2"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -7664,7 +8938,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:20">
       <c r="A201" s="2"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -7686,7 +8960,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:20">
       <c r="A202" s="2"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -7708,7 +8982,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:20">
       <c r="A203" s="2"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -7730,7 +9004,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:20">
       <c r="A204" s="2"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -7752,7 +9026,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:20">
       <c r="A205" s="2"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -7774,7 +9048,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:20">
       <c r="A206" s="2"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -7796,7 +9070,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:20">
       <c r="A207" s="2"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -7818,7 +9092,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:20">
       <c r="A208" s="2"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -7840,7 +9114,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:20">
       <c r="A209" s="2"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -7862,7 +9136,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:20">
       <c r="A210" s="2"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -7884,7 +9158,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:20">
       <c r="A211" s="2"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -7906,7 +9180,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:20">
       <c r="A212" s="2"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -7928,7 +9202,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:20">
       <c r="A213" s="2"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -7950,7 +9224,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:20">
       <c r="A214" s="2"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -7972,7 +9246,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:20">
       <c r="A215" s="2"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -7994,7 +9268,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:20">
       <c r="A216" s="2"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -8016,7 +9290,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:20">
       <c r="A217" s="2"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -8038,7 +9312,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:20">
       <c r="A218" s="2"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -8060,7 +9334,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:20">
       <c r="A219" s="2"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -8082,7 +9356,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:20">
       <c r="A220" s="2"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -8104,7 +9378,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:20">
       <c r="A221" s="2"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -8126,7 +9400,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:20">
       <c r="A222" s="2"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -8148,7 +9422,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:20">
       <c r="A223" s="2"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -8170,7 +9444,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:20">
       <c r="A224" s="2"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -8192,7 +9466,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:20">
       <c r="A225" s="2"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -8214,7 +9488,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:20">
       <c r="A226" s="2"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -8236,7 +9510,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:20">
       <c r="A227" s="2"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -8258,7 +9532,7 @@
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:20">
       <c r="A228" s="2"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -8280,7 +9554,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:20">
       <c r="A229" s="2"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -8302,7 +9576,7 @@
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:20">
       <c r="A230" s="2"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -8324,7 +9598,7 @@
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:20">
       <c r="A231" s="2"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -8346,7 +9620,7 @@
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:20">
       <c r="A232" s="2"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -8368,7 +9642,7 @@
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:20">
       <c r="A233" s="2"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -8390,7 +9664,7 @@
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:20">
       <c r="A234" s="2"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -8412,7 +9686,7 @@
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:20">
       <c r="A235" s="2"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -8434,7 +9708,7 @@
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:20">
       <c r="A236" s="2"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -8456,7 +9730,7 @@
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:20">
       <c r="A237" s="2"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -8478,7 +9752,7 @@
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:20">
       <c r="A238" s="2"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -8500,7 +9774,7 @@
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:20">
       <c r="A239" s="2"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -8522,7 +9796,7 @@
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:20">
       <c r="A240" s="2"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -8544,7 +9818,7 @@
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:20">
       <c r="A241" s="2"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -8566,7 +9840,7 @@
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:20">
       <c r="A242" s="2"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -8588,7 +9862,7 @@
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:20">
       <c r="A243" s="2"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -8610,7 +9884,7 @@
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:20">
       <c r="A244" s="2"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -8632,7 +9906,7 @@
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:20">
       <c r="A245" s="2"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -8654,7 +9928,7 @@
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:20">
       <c r="A246" s="2"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -8676,7 +9950,7 @@
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:20">
       <c r="A247" s="2"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -8699,12 +9973,8 @@
       <c r="T247" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
+    <workbookView windowHeight="17655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="461">
   <si>
     <t>int</t>
   </si>
@@ -1778,6 +1778,95 @@
   </si>
   <si>
     <t>发尾色</t>
+  </si>
+  <si>
+    <t>Text_FreeSave</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Free </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+  </si>
+  <si>
+    <t>免费保存</t>
+  </si>
+  <si>
+    <t>Text_ResetImage</t>
+  </si>
+  <si>
+    <t>Reset Image</t>
+  </si>
+  <si>
+    <t>重置平台形象</t>
+  </si>
+  <si>
+    <t>Text_ResetImageFaild</t>
+  </si>
+  <si>
+    <t>Failed to reset platform image</t>
+  </si>
+  <si>
+    <t>重置平台形象失败</t>
+  </si>
+  <si>
+    <t>Text_SaveColor</t>
+  </si>
+  <si>
+    <t>Save {0} Color</t>
+  </si>
+  <si>
+    <t>保存{0}颜色</t>
+  </si>
+  <si>
+    <t>Text_SaveTips</t>
+  </si>
+  <si>
+    <t>Save Tips</t>
+  </si>
+  <si>
+    <t>保存提示</t>
+  </si>
+  <si>
+    <t>Text_Save</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>Text_NoSave</t>
+  </si>
+  <si>
+    <t>No Save</t>
+  </si>
+  <si>
+    <t>不保存</t>
+  </si>
+  <si>
+    <t>Text_WhetherSaveImage</t>
+  </si>
+  <si>
+    <t>Whether Save Image</t>
+  </si>
+  <si>
+    <t>是否保存当前角色形象</t>
   </si>
 </sst>
 </file>
@@ -3095,11 +3184,11 @@
   <sheetPr/>
   <dimension ref="A1:T247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9916666666667" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11.9166666666667" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.9666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
@@ -8279,10 +8368,18 @@
       <c r="T170" s="2"/>
     </row>
     <row r="171" spans="1:20">
-      <c r="A171" s="2"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
+      <c r="A171" s="2">
+        <v>167</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>439</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -8301,10 +8398,18 @@
       <c r="T171" s="2"/>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="2"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
+      <c r="A172" s="2">
+        <v>168</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -8323,10 +8428,18 @@
       <c r="T172" s="2"/>
     </row>
     <row r="173" spans="1:20">
-      <c r="A173" s="2"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
+      <c r="A173" s="2">
+        <v>169</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>445</v>
+      </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -8345,10 +8458,18 @@
       <c r="T173" s="2"/>
     </row>
     <row r="174" spans="1:20">
-      <c r="A174" s="2"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
+      <c r="A174" s="2">
+        <v>170</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -8367,10 +8488,18 @@
       <c r="T174" s="2"/>
     </row>
     <row r="175" spans="1:20">
-      <c r="A175" s="2"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
+      <c r="A175" s="2">
+        <v>171</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>451</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -8389,10 +8518,18 @@
       <c r="T175" s="2"/>
     </row>
     <row r="176" spans="1:20">
-      <c r="A176" s="2"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
+      <c r="A176" s="2">
+        <v>172</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>454</v>
+      </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -8411,10 +8548,18 @@
       <c r="T176" s="2"/>
     </row>
     <row r="177" spans="1:20">
-      <c r="A177" s="2"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
+      <c r="A177" s="2">
+        <v>173</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>457</v>
+      </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -8433,10 +8578,18 @@
       <c r="T177" s="2"/>
     </row>
     <row r="178" spans="1:20">
-      <c r="A178" s="2"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
+      <c r="A178" s="2">
+        <v>174</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>460</v>
+      </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -1,50 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="17655" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="461">
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Value_Ch</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="484">
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value_Ch</t>
   </si>
   <si>
     <r>
@@ -52,259 +45,261 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>唯一</t>
+      <t xml:space="preserve">唯一</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>ID</t>
+      <t xml:space="preserve">ID</t>
     </r>
   </si>
   <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>Key|ReadByName</t>
-  </si>
-  <si>
-    <t>MainLanguage</t>
-  </si>
-  <si>
-    <t>ChildLanguage</t>
-  </si>
-  <si>
-    <t>Text_TheItemBarIsFull</t>
-  </si>
-  <si>
-    <t>The item bar is full</t>
-  </si>
-  <si>
-    <t>道具栏已满</t>
-  </si>
-  <si>
-    <t>Text_ThisItemIsInUse</t>
-  </si>
-  <si>
-    <t>This item is in use</t>
-  </si>
-  <si>
-    <t>正在使用此道具</t>
-  </si>
-  <si>
-    <t>Text_Tips1</t>
-  </si>
-  <si>
-    <t>Someone is using it, please try another one</t>
-  </si>
-  <si>
-    <t>有人正在使用，请换个试试</t>
-  </si>
-  <si>
-    <t>Text_SetUp1</t>
-  </si>
-  <si>
-    <t>Base Setup</t>
-  </si>
-  <si>
-    <t>基础设置</t>
-  </si>
-  <si>
-    <t>Text_PictureQuality</t>
-  </si>
-  <si>
-    <t>Picture Quality</t>
-  </si>
-  <si>
-    <t>画质</t>
-  </si>
-  <si>
-    <t>Text_SoundEffects</t>
-  </si>
-  <si>
-    <t>Sound Effects</t>
-  </si>
-  <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t>Text_BackgroundMusic</t>
-  </si>
-  <si>
-    <t>Background Music</t>
-  </si>
-  <si>
-    <t>背景音乐</t>
-  </si>
-  <si>
-    <t>Text_ViewAngleScaling</t>
-  </si>
-  <si>
-    <t>View Angle Scaling</t>
-  </si>
-  <si>
-    <t>视角缩放</t>
-  </si>
-  <si>
-    <t>Text_DisplayNicknames</t>
-  </si>
-  <si>
-    <t>Display Nicknames</t>
-  </si>
-  <si>
-    <t>显示昵称</t>
-  </si>
-  <si>
-    <t>Text_ResetLocation</t>
-  </si>
-  <si>
-    <t>Reset Location</t>
-  </si>
-  <si>
-    <t>重置位置</t>
-  </si>
-  <si>
-    <t>Text_RestoringSettings</t>
-  </si>
-  <si>
-    <t>Restoring Settings</t>
-  </si>
-  <si>
-    <t>还原设置</t>
-  </si>
-  <si>
-    <t>Text_On</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>开</t>
-  </si>
-  <si>
-    <t>Text_Off</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>关</t>
-  </si>
-  <si>
-    <t>Text_ObtainedTips</t>
-  </si>
-  <si>
-    <t>Obtained, open the knapsack to use</t>
-  </si>
-  <si>
-    <t>已获得，打开背包使用</t>
-  </si>
-  <si>
-    <t>Text_Advertising</t>
-  </si>
-  <si>
-    <t>Advertising</t>
-  </si>
-  <si>
-    <t>广告奖励</t>
-  </si>
-  <si>
-    <t>Text_ADGetTips</t>
-  </si>
-  <si>
-    <t>See the AD for free guide you get</t>
-  </si>
-  <si>
-    <t>看广告免费指引你获得</t>
-  </si>
-  <si>
-    <t>Text_Dont</t>
-  </si>
-  <si>
-    <t>Don't</t>
-  </si>
-  <si>
-    <t>不要</t>
-  </si>
-  <si>
-    <t>Text_Free</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>免费获得</t>
-  </si>
-  <si>
-    <t>Text_Fail</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>指引失败，请重试</t>
-  </si>
-  <si>
-    <t>Text_NoOnTheList</t>
-  </si>
-  <si>
-    <t>Not</t>
-  </si>
-  <si>
-    <t>未上榜</t>
-  </si>
-  <si>
-    <t>Text_Ranking</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>Text_Nickname</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t>Text_Score</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>分数</t>
-  </si>
-  <si>
-    <t>Text_Duration</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>时长</t>
-  </si>
-  <si>
-    <t>Text_TopInTermsOfDuration</t>
-  </si>
-  <si>
-    <t>Top {0} In Terms Of Duration</t>
+    <t xml:space="preserve">名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key|ReadByName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChildLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_TheItemBarIsFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The item bar is full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">道具栏已满</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ThisItemIsInUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item is in use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正在使用此道具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tips1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone is using it, please try another one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有人正在使用，请换个试试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SetUp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基础设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_PictureQuality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picture Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画质</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SoundEffects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_BackgroundMusic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背景音乐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ViewAngleScaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Angle Scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">视角缩放</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_DisplayNicknames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Nicknames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">显示昵称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ResetLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重置位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_RestoringSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restoring Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">还原设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ObtainedTips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtained, open the knapsack to use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已获得，打开背包使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Advertising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advertising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告奖励</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ADGetTips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See the AD for free guide you get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看广告免费指引你获得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Dont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不要</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">免费获得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指引失败，请重试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_NoOnTheList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未上榜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">排名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Nickname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">昵称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">时长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_TopInTermsOfDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top {0} In Terms Of Duration</t>
   </si>
   <si>
     <r>
@@ -312,81 +307,84 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>时长全服前</t>
+      <t xml:space="preserve">时长全服前</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>{0}</t>
+      <t xml:space="preserve">{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>名</t>
+      <t xml:space="preserve">名</t>
     </r>
   </si>
   <si>
-    <t>Text_StartGame</t>
-  </si>
-  <si>
-    <t>Start the game</t>
-  </si>
-  <si>
-    <t>开始游戏</t>
-  </si>
-  <si>
-    <t>Text_WelcomeTo</t>
-  </si>
-  <si>
-    <t>Welcome to
+    <t xml:space="preserve">Text_StartGame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开始游戏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_WelcomeTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to
 My Cherry blossom town</t>
   </si>
   <si>
-    <t>欢迎来到
+    <t xml:space="preserve">欢迎来到
 春节免费换装</t>
   </si>
   <si>
-    <t>Text_UpNext</t>
-  </si>
-  <si>
-    <t>Up next</t>
-  </si>
-  <si>
-    <t>下一个</t>
-  </si>
-  <si>
-    <t>Text_GuideEnd</t>
-  </si>
-  <si>
-    <t>With the guide over, start your trip to the cherry blossom town</t>
-  </si>
-  <si>
-    <t>引导结束，开启你的樱花小镇之旅吧</t>
-  </si>
-  <si>
-    <t>Text_Close</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>Text_MyCharacterId</t>
-  </si>
-  <si>
-    <t>My Character ID- Share Friend Try On</t>
+    <t xml:space="preserve">Text_UpNext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下一个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_GuideEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With the guide over, start your trip to the cherry blossom town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引导结束，开启你的樱花小镇之旅吧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关闭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_MyCharacterId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Character ID- Share Friend Try On</t>
   </si>
   <si>
     <r>
@@ -394,34 +392,37 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>我的角色</t>
+      <t xml:space="preserve">我的角色</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>ID-</t>
+      <t xml:space="preserve">ID-</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>分享好友试穿</t>
+      <t xml:space="preserve">分享好友试穿</t>
     </r>
   </si>
   <si>
-    <t>Text_PleaseEnter</t>
-  </si>
-  <si>
-    <t>Please Enter The Friend Role ID</t>
+    <t xml:space="preserve">Text_PleaseEnter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please Enter The Friend Role ID</t>
   </si>
   <si>
     <r>
@@ -429,70 +430,72 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>请输入好友角色</t>
+      <t xml:space="preserve">请输入好友角色</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>ID</t>
+      <t xml:space="preserve">ID</t>
     </r>
   </si>
   <si>
-    <t>Text_Cancel</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>Text_FreeTryOn</t>
-  </si>
-  <si>
-    <t>Free Try On</t>
-  </si>
-  <si>
-    <t>免费试穿</t>
-  </si>
-  <si>
-    <t>Text_SaveImagesForFree</t>
-  </si>
-  <si>
-    <t>Save images for free</t>
-  </si>
-  <si>
-    <t>免费保存形象</t>
-  </si>
-  <si>
-    <t>Text_TryOnYourFriendAvatarForFree</t>
-  </si>
-  <si>
-    <t>Try On Your Friend's Avatar For Free</t>
-  </si>
-  <si>
-    <t>免费试穿好友的角色形象</t>
-  </si>
-  <si>
-    <t>Text_CopySuccessfully</t>
-  </si>
-  <si>
-    <t>Copy Successfully</t>
-  </si>
-  <si>
-    <t>复制成功</t>
-  </si>
-  <si>
-    <t>Text_InvalidID</t>
-  </si>
-  <si>
-    <t>Invalid ID!</t>
+    <t xml:space="preserve">Text_Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_FreeTryOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Try On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">免费试穿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SaveImagesForFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save images for free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">免费保存形象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_TryOnYourFriendAvatarForFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try On Your Friend's Avatar For Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">免费试穿好友的角色形象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_CopySuccessfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy Successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">复制成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_InvalidID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid ID!</t>
   </si>
   <si>
     <r>
@@ -500,43 +503,45 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>ID</t>
+      <t xml:space="preserve">ID</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>无效！</t>
+      <t xml:space="preserve">无效！</t>
     </r>
   </si>
   <si>
-    <t>Text_Loading</t>
-  </si>
-  <si>
-    <t>Loading</t>
-  </si>
-  <si>
-    <t>加载中</t>
-  </si>
-  <si>
-    <t>Text_TryItOnSuccessfully</t>
-  </si>
-  <si>
-    <t>Try it on successfully</t>
-  </si>
-  <si>
-    <t>试穿成功</t>
-  </si>
-  <si>
-    <t>Text_CopyTheCharacterIDShareFriendsTryOn</t>
-  </si>
-  <si>
-    <t>Copy the character ID share friends try on</t>
+    <t xml:space="preserve">Text_Loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加载中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_TryItOnSuccessfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try it on successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">试穿成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_CopyTheCharacterIDShareFriendsTryOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy the character ID share friends try on</t>
   </si>
   <si>
     <r>
@@ -544,106 +549,109 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>复制角色</t>
+      <t xml:space="preserve">复制角色</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>ID</t>
+      <t xml:space="preserve">ID</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>分享好友试穿</t>
+      <t xml:space="preserve">分享好友试穿</t>
     </r>
   </si>
   <si>
-    <t>Text_TryItOnForFree</t>
-  </si>
-  <si>
-    <t>Try it on for free</t>
-  </si>
-  <si>
-    <t>看广告免费试穿</t>
-  </si>
-  <si>
-    <t>Text_GuideTips</t>
-  </si>
-  <si>
-    <t>Reach near the target point</t>
-  </si>
-  <si>
-    <t>达到目标点附近</t>
-  </si>
-  <si>
-    <t>Text_BootPrompt</t>
-  </si>
-  <si>
-    <t>Boot prompt</t>
-  </si>
-  <si>
-    <t>引导提示</t>
-  </si>
-  <si>
-    <t>Text_FreeGuideYouGet</t>
-  </si>
-  <si>
-    <t>Free guide you get</t>
-  </si>
-  <si>
-    <t>免费指引你获得</t>
-  </si>
-  <si>
-    <t>Text_SignIn_1</t>
-  </si>
-  <si>
-    <t>Activity is not enabled</t>
-  </si>
-  <si>
-    <t>活动未开启</t>
-  </si>
-  <si>
-    <t>Text_SignIn_2</t>
-  </si>
-  <si>
-    <t>Successful costume change</t>
-  </si>
-  <si>
-    <t>换装成功</t>
-  </si>
-  <si>
-    <t>Text_SignIn_3</t>
-  </si>
-  <si>
-    <t>Insufficient check-in time</t>
-  </si>
-  <si>
-    <t>签到时间不足</t>
-  </si>
-  <si>
-    <t>Text_SignIn_4</t>
-  </si>
-  <si>
-    <t>Check-in bonus</t>
-  </si>
-  <si>
-    <t>签到奖励</t>
-  </si>
-  <si>
-    <t>Text_SignIn_5</t>
-  </si>
-  <si>
-    <t>Cumulative Check-In For {0} Days</t>
+    <t xml:space="preserve">Text_TryItOnForFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try it on for free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看广告免费试穿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_GuideTips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach near the target point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">达到目标点附近</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_BootPrompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boot prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引导提示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_FreeGuideYouGet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free guide you get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">免费指引你获得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SignIn_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity is not enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">活动未开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SignIn_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful costume change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">换装成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SignIn_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insufficient check-in time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签到时间不足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SignIn_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check-in bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签到奖励</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SignIn_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumulative Check-In For {0} Days</t>
   </si>
   <si>
     <r>
@@ -651,62 +659,65 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>已经累积签到</t>
+      <t xml:space="preserve">已经累积签到</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>{0}</t>
+      <t xml:space="preserve">{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>天</t>
+      <t xml:space="preserve">天</t>
     </r>
   </si>
   <si>
-    <t>Text_SignIn_6</t>
-  </si>
-  <si>
-    <t>Has been 
+    <t xml:space="preserve">Text_SignIn_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has been 
 Obtained</t>
   </si>
   <si>
-    <t>已获得</t>
-  </si>
-  <si>
-    <t>Text_SignIn_7</t>
-  </si>
-  <si>
-    <t>Change of dress</t>
-  </si>
-  <si>
-    <t>换装</t>
-  </si>
-  <si>
-    <t>Text_SignIn_8</t>
-  </si>
-  <si>
-    <t>Insufficient check-in</t>
-  </si>
-  <si>
-    <t>签到不足</t>
-  </si>
-  <si>
-    <t>Text_SignIn_9</t>
-  </si>
-  <si>
-    <t>Day {0}</t>
+    <t xml:space="preserve">已获得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SignIn_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change of dress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">换装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SignIn_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insufficient check-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签到不足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SignIn_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day {0}</t>
   </si>
   <si>
     <r>
@@ -714,61 +725,64 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>第</t>
+      <t xml:space="preserve">第</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>{0}</t>
+      <t xml:space="preserve">{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>天</t>
+      <t xml:space="preserve">天</t>
     </r>
   </si>
   <si>
-    <t>Text_SignIn_10</t>
-  </si>
-  <si>
-    <t>Sign In</t>
-  </si>
-  <si>
-    <t>签到</t>
-  </si>
-  <si>
-    <t>Text_OpenMallTextBlock</t>
-  </si>
-  <si>
-    <t>Free change of clothes</t>
-  </si>
-  <si>
-    <t>免费换装</t>
-  </si>
-  <si>
-    <t>Text_FreeChangeOfClothes1</t>
-  </si>
-  <si>
-    <t>Try on, please wait patiently.</t>
-  </si>
-  <si>
-    <t>试穿中，请耐心等待。</t>
-  </si>
-  <si>
-    <t>Text_FreeChangeOfClothes2</t>
-  </si>
-  <si>
-    <t>Free fitting {0} minutes</t>
+    <t xml:space="preserve">Text_SignIn_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_OpenMallTextBlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free change of clothes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">免费换装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_FreeChangeOfClothes1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try on, please wait patiently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">试穿中，请耐心等待。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_FreeChangeOfClothes2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free fitting {0} minutes</t>
   </si>
   <si>
     <r>
@@ -776,514 +790,523 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>免费试穿</t>
+      <t xml:space="preserve">免费试穿</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>{0}</t>
+      <t xml:space="preserve">{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>分钟</t>
+      <t xml:space="preserve">分钟</t>
     </r>
   </si>
   <si>
-    <t>Text_FreeChangeOfClothes3</t>
-  </si>
-  <si>
-    <t>Try it on, please go back to try it on</t>
-  </si>
-  <si>
-    <t>试穿结束，请打开商店重新试穿</t>
-  </si>
-  <si>
-    <t>Text_Rank1</t>
-  </si>
-  <si>
-    <t>The leaderboard is wrong.</t>
-  </si>
-  <si>
-    <t>排行榜出错啦</t>
-  </si>
-  <si>
-    <t>Text_Tab1_1</t>
-  </si>
-  <si>
-    <t>Appearance</t>
-  </si>
-  <si>
-    <t>捏脸</t>
-  </si>
-  <si>
-    <t>Text_Tab1_2</t>
-  </si>
-  <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>Text_Tab1_3</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>收藏</t>
-  </si>
-  <si>
-    <t>Text_Tab1_4</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>Text_Tab2_101</t>
-  </si>
-  <si>
-    <t>Body Type</t>
-  </si>
-  <si>
-    <t>体型</t>
-  </si>
-  <si>
-    <t>Text_Tab2_102</t>
-  </si>
-  <si>
-    <t>Skin Tone</t>
-  </si>
-  <si>
-    <t>肤色</t>
-  </si>
-  <si>
-    <t>Text_Tab2_103</t>
-  </si>
-  <si>
-    <t>Face</t>
-  </si>
-  <si>
-    <t>脸型</t>
-  </si>
-  <si>
-    <t>Text_Tab2_104</t>
-  </si>
-  <si>
-    <t>Eyes</t>
-  </si>
-  <si>
-    <t>眼睛</t>
-  </si>
-  <si>
-    <t>Text_Tab2_105</t>
-  </si>
-  <si>
-    <t>Eyebrows</t>
-  </si>
-  <si>
-    <t>眉毛</t>
-  </si>
-  <si>
-    <t>Text_Tab2_106</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>妆容</t>
-  </si>
-  <si>
-    <t>Text_Tab2_107</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>表情</t>
-  </si>
-  <si>
-    <t>Text_Tab2_108</t>
-  </si>
-  <si>
-    <t>Outfit</t>
-  </si>
-  <si>
-    <t>套装</t>
-  </si>
-  <si>
-    <t>Text_Tab2_109</t>
-  </si>
-  <si>
-    <t>Hair</t>
-  </si>
-  <si>
-    <t>头发</t>
-  </si>
-  <si>
-    <t>Text_Tab2_110</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>上衣</t>
-  </si>
-  <si>
-    <t>Text_Tab2_111</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>下衣</t>
-  </si>
-  <si>
-    <t>Text_Tab2_112</t>
-  </si>
-  <si>
-    <t>Gloves</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>Text_Tab2_113</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>手套</t>
-  </si>
-  <si>
-    <t>Text_Tab2_114</t>
-  </si>
-  <si>
-    <t>Pet</t>
-  </si>
-  <si>
-    <t>宠物</t>
-  </si>
-  <si>
-    <t>Text_Tab2_115</t>
-  </si>
-  <si>
-    <t>Accessory</t>
-  </si>
-  <si>
-    <t>饰品</t>
-  </si>
-  <si>
-    <t>Text_Tab2_501</t>
-  </si>
-  <si>
-    <t>Text_Tab2_502</t>
-  </si>
-  <si>
-    <t>Text_Tab2_503</t>
-  </si>
-  <si>
-    <t>Text_Tab2_504</t>
-  </si>
-  <si>
-    <t>Text_Tab2_505</t>
-  </si>
-  <si>
-    <t>Text_Tab2_506</t>
-  </si>
-  <si>
-    <t>Text_Tab2_507</t>
-  </si>
-  <si>
-    <t>Text_Tab2_508</t>
-  </si>
-  <si>
-    <t>Text_Tab2_509</t>
-  </si>
-  <si>
-    <t>Text_Tab2_510</t>
-  </si>
-  <si>
-    <t>Text_Tab2_511</t>
-  </si>
-  <si>
-    <t>Text_Tab2_512</t>
-  </si>
-  <si>
-    <t>Text_Tab2_513</t>
-  </si>
-  <si>
-    <t>Text_Tab2_514</t>
-  </si>
-  <si>
-    <t>Text_Tab2_515</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1001</t>
-  </si>
-  <si>
-    <t>Pupil Style</t>
-  </si>
-  <si>
-    <t>瞳孔样式</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1002</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>瞳孔贴花</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1003</t>
-  </si>
-  <si>
-    <t>Upper Highlight</t>
-  </si>
-  <si>
-    <t>上高光</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1004</t>
-  </si>
-  <si>
-    <t>Lower Highlight</t>
-  </si>
-  <si>
-    <t>下高光</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1005</t>
-  </si>
-  <si>
-    <t>Eyelashes</t>
-  </si>
-  <si>
-    <t>睫毛</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1006</t>
-  </si>
-  <si>
-    <t>Eyeshadow</t>
-  </si>
-  <si>
-    <t>眼影</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1007</t>
-  </si>
-  <si>
-    <t>Blush</t>
-  </si>
-  <si>
-    <t>腮红</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1008</t>
-  </si>
-  <si>
-    <t>Lip Makeup</t>
-  </si>
-  <si>
-    <t>口红</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1009</t>
-  </si>
-  <si>
-    <t>Face Tattoo</t>
-  </si>
-  <si>
-    <t>面部彩绘</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1010</t>
-  </si>
-  <si>
-    <t>Full Hair</t>
-  </si>
-  <si>
-    <t>整体发型</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1011</t>
-  </si>
-  <si>
-    <t>Front Hair</t>
-  </si>
-  <si>
-    <t>前发</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1012</t>
-  </si>
-  <si>
-    <t>Back Hair</t>
-  </si>
-  <si>
-    <t>后发</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1013</t>
-  </si>
-  <si>
-    <t>Left Hand</t>
-  </si>
-  <si>
-    <t>左手</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1014</t>
-  </si>
-  <si>
-    <t>Right Hand</t>
-  </si>
-  <si>
-    <t>右手</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1015</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>背饰</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1016</t>
-  </si>
-  <si>
-    <t>Ear</t>
-  </si>
-  <si>
-    <t>耳饰</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1017</t>
-  </si>
-  <si>
-    <t>面饰</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1018</t>
-  </si>
-  <si>
-    <t>Hip</t>
-  </si>
-  <si>
-    <t>臀部</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1019</t>
-  </si>
-  <si>
-    <t>Shoulder</t>
-  </si>
-  <si>
-    <t>肩部</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1020</t>
-  </si>
-  <si>
-    <t>Effects</t>
-  </si>
-  <si>
-    <t>特效</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2001</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2002</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2003</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2004</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2005</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2006</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2007</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2008</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2009</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2010</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2011</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2012</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2013</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2014</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2015</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2016</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2017</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2018</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2019</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2020</t>
-  </si>
-  <si>
-    <t>Text_OpenClothTextBlock</t>
-  </si>
-  <si>
-    <t>Shop</t>
-  </si>
-  <si>
-    <t>换装商店</t>
-  </si>
-  <si>
-    <t>Text_MallItem_Free</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>免费</t>
+    <t xml:space="preserve">Text_FreeChangeOfClothes3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try it on, please go back to try it on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">试穿结束，请打开商店重新试穿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Rank1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The leaderboard is wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">排行榜出错啦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">捏脸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab1_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收藏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab1_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">体型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin Tone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肤色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face</t>
+  </si>
+  <si>
+    <t xml:space="preserve">脸型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眼睛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyebrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眉毛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妆容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outfit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">套装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">头发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手套</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宠物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饰品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab2_515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pupil Style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瞳孔样式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瞳孔贴花</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上高光</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下高光</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyelashes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">睫毛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyeshadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眼影</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腮红</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lip Makeup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">口红</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face Tattoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">面部彩绘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整体发型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back Hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">头饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">面饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臀部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoulder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肩部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特效</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耳饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_OpenClothTextBlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">换装商店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_MallItem_Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">免费</t>
   </si>
   <si>
     <r>
@@ -1291,31 +1314,33 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>Text_</t>
+      <t xml:space="preserve">Text_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>ThisFeatureIsNotEnabled</t>
+      <t xml:space="preserve">ThisFeatureIsNotEnabled</t>
     </r>
   </si>
   <si>
-    <t>This feature is not enabled</t>
-  </si>
-  <si>
-    <t>此功能未开启</t>
-  </si>
-  <si>
-    <t>Text_BodyTypeDescribe</t>
-  </si>
-  <si>
-    <t>{0} times</t>
+    <t xml:space="preserve">This feature is not enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此功能未开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_BodyTypeDescribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} times</t>
   </si>
   <si>
     <r>
@@ -1323,18 +1348,20 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>{0}</t>
+      <t xml:space="preserve">{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>倍</t>
+      <t xml:space="preserve">倍</t>
     </r>
   </si>
   <si>
@@ -1343,25 +1370,27 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Text_Expression_</t>
+      <t xml:space="preserve">Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>Default</t>
+      <t xml:space="preserve">Default</t>
     </r>
   </si>
   <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>默认表情</t>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">默认表情</t>
   </si>
   <si>
     <r>
@@ -1369,25 +1398,27 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Text_Expression_</t>
+      <t xml:space="preserve">Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>Smile</t>
+      <t xml:space="preserve">Smile</t>
     </r>
   </si>
   <si>
-    <t>Smile</t>
-  </si>
-  <si>
-    <t>微笑</t>
+    <t xml:space="preserve">Smile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微笑</t>
   </si>
   <si>
     <r>
@@ -1395,25 +1426,27 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Text_Expression_</t>
+      <t xml:space="preserve">Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>HaveFun</t>
+      <t xml:space="preserve">HaveFun</t>
     </r>
   </si>
   <si>
-    <t>Have Fun</t>
-  </si>
-  <si>
-    <t>开心</t>
+    <t xml:space="preserve">Have Fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开心</t>
   </si>
   <si>
     <r>
@@ -1421,25 +1454,27 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Text_Expression_</t>
+      <t xml:space="preserve">Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>Sad</t>
+      <t xml:space="preserve">Sad</t>
     </r>
   </si>
   <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>伤心</t>
+    <t xml:space="preserve">Sad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伤心</t>
   </si>
   <si>
     <r>
@@ -1447,25 +1482,27 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Text_Expression_</t>
+      <t xml:space="preserve">Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>GetAngry</t>
+      <t xml:space="preserve">GetAngry</t>
     </r>
   </si>
   <si>
-    <t>Get Angry</t>
-  </si>
-  <si>
-    <t>生气</t>
+    <t xml:space="preserve">Get Angry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生气</t>
   </si>
   <si>
     <r>
@@ -1473,34 +1510,36 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Text_Expression_</t>
+      <t xml:space="preserve">Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>Embarrassment</t>
+      <t xml:space="preserve">Embarrassment</t>
     </r>
   </si>
   <si>
-    <t>Embarrassment</t>
-  </si>
-  <si>
-    <t>尴尬</t>
-  </si>
-  <si>
-    <t>Text_Expression_Laugh</t>
-  </si>
-  <si>
-    <t>Laugh</t>
-  </si>
-  <si>
-    <t>笑</t>
+    <t xml:space="preserve">Embarrassment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尴尬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Expression_Laugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">笑</t>
   </si>
   <si>
     <r>
@@ -1508,25 +1547,27 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Text_Expression_</t>
+      <t xml:space="preserve">Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>BeNaughty</t>
+      <t xml:space="preserve">BeNaughty</t>
     </r>
   </si>
   <si>
-    <t>Be Naughty</t>
-  </si>
-  <si>
-    <t>调皮</t>
+    <t xml:space="preserve">Be Naughty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">调皮</t>
   </si>
   <si>
     <r>
@@ -1534,25 +1575,27 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Text_Expression_</t>
+      <t xml:space="preserve">Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>Cute</t>
+      <t xml:space="preserve">Cute</t>
     </r>
   </si>
   <si>
-    <t>Cute</t>
-  </si>
-  <si>
-    <t>可爱</t>
+    <t xml:space="preserve">Cute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可爱</t>
   </si>
   <si>
     <r>
@@ -1560,52 +1603,54 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Text_Expression_</t>
+      <t xml:space="preserve">Text_Expression_</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>Doubt</t>
+      <t xml:space="preserve">Doubt</t>
     </r>
   </si>
   <si>
-    <t>Doubt</t>
-  </si>
-  <si>
-    <t>疑惑</t>
-  </si>
-  <si>
-    <t>Text_Tab3_1021</t>
-  </si>
-  <si>
-    <t>Trailing</t>
-  </si>
-  <si>
-    <t>拖尾</t>
-  </si>
-  <si>
-    <t>Text_Tab3_2021</t>
-  </si>
-  <si>
-    <t>Text_ColorPick</t>
-  </si>
-  <si>
-    <t>Color Pick</t>
-  </si>
-  <si>
-    <t>调色板</t>
-  </si>
-  <si>
-    <t>Text_ColorPart</t>
-  </si>
-  <si>
-    <t>Part {0}</t>
+    <t xml:space="preserve">Doubt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">疑惑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trailing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拖尾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Tab3_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ColorPick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Pick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">调色板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ColorPart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part {0}</t>
   </si>
   <si>
     <r>
@@ -1613,6 +1658,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">部位 </t>
@@ -1622,16 +1668,17 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>{0}</t>
+      <t xml:space="preserve">{0}</t>
     </r>
   </si>
   <si>
-    <t>Text_NotSupportToning</t>
-  </si>
-  <si>
-    <t>This {0} Does Not Support Toning</t>
+    <t xml:space="preserve">Text_NotSupportToning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This {0} Does Not Support Toning</t>
   </si>
   <si>
     <r>
@@ -1639,148 +1686,151 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>这个</t>
+      <t xml:space="preserve">这个</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>{0}</t>
+      <t xml:space="preserve">{0}</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>不支持调色</t>
+      <t xml:space="preserve">不支持调色</t>
     </r>
   </si>
   <si>
-    <t>Text_PupilColor</t>
-  </si>
-  <si>
-    <t>Pupil Color</t>
-  </si>
-  <si>
-    <t>瞳孔颜色</t>
-  </si>
-  <si>
-    <t>Text_LeftPupilColor</t>
-  </si>
-  <si>
-    <t>Left Pupil Color</t>
-  </si>
-  <si>
-    <t>左瞳孔颜色</t>
-  </si>
-  <si>
-    <t>Text_RightPupilColor</t>
-  </si>
-  <si>
-    <t>Right Pupil Color</t>
-  </si>
-  <si>
-    <t>右瞳孔颜色</t>
-  </si>
-  <si>
-    <t>Text_DecalColor</t>
-  </si>
-  <si>
-    <t>Decal Color</t>
-  </si>
-  <si>
-    <t>贴花颜色</t>
-  </si>
-  <si>
-    <t>Text_UpperHighlightColor</t>
-  </si>
-  <si>
-    <t>Upper Highlight Color</t>
-  </si>
-  <si>
-    <t>上高光颜色</t>
-  </si>
-  <si>
-    <t>Text_LowerHighlightColor</t>
-  </si>
-  <si>
-    <t>Lower Highlight Color</t>
-  </si>
-  <si>
-    <t>下高光颜色</t>
-  </si>
-  <si>
-    <t>Text_EyelashColor</t>
-  </si>
-  <si>
-    <t>Eyelash Color</t>
-  </si>
-  <si>
-    <t>睫毛颜色</t>
-  </si>
-  <si>
-    <t>Text_EyeshaowColor</t>
-  </si>
-  <si>
-    <t>Eyeshaow Color</t>
-  </si>
-  <si>
-    <t>眼影颜色</t>
-  </si>
-  <si>
-    <t>Text_BlushColor</t>
-  </si>
-  <si>
-    <t>Blush Color</t>
-  </si>
-  <si>
-    <t>腮红颜色</t>
-  </si>
-  <si>
-    <t>Text_LipstickColor</t>
-  </si>
-  <si>
-    <t>Lipstick Color</t>
-  </si>
-  <si>
-    <t>口红颜色</t>
-  </si>
-  <si>
-    <t>Text_Monochrome</t>
-  </si>
-  <si>
-    <t>Monochrome</t>
-  </si>
-  <si>
-    <t>单色</t>
-  </si>
-  <si>
-    <t>Text_TopColor</t>
-  </si>
-  <si>
-    <t>Top Color</t>
-  </si>
-  <si>
-    <t>发顶色</t>
-  </si>
-  <si>
-    <t>Text_TailColor</t>
-  </si>
-  <si>
-    <t>Tail Color</t>
-  </si>
-  <si>
-    <t>发尾色</t>
-  </si>
-  <si>
-    <t>Text_FreeSave</t>
+    <t xml:space="preserve">Text_PupilColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pupil Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瞳孔颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_LeftPupilColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Pupil Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左瞳孔颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_RightPupilColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Pupil Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右瞳孔颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_DecalColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decal Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贴花颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_UpperHighlightColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Highlight Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上高光颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_LowerHighlightColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Highlight Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下高光颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_EyelashColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyelash Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">睫毛颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_EyeshaowColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyeshaow Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眼影颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_BlushColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blush Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">腮红颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_LipstickColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipstick Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">口红颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Monochrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monochrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_TopColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发顶色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_TailColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tail Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发尾色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_FreeSave</t>
   </si>
   <si>
     <r>
@@ -1788,6 +1838,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Free </t>
@@ -1797,496 +1848,336 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>Save</t>
+      <t xml:space="preserve">Save</t>
     </r>
   </si>
   <si>
-    <t>免费保存</t>
-  </si>
-  <si>
-    <t>Text_ResetImage</t>
-  </si>
-  <si>
-    <t>Reset Image</t>
-  </si>
-  <si>
-    <t>重置平台形象</t>
-  </si>
-  <si>
-    <t>Text_ResetImageFaild</t>
-  </si>
-  <si>
-    <t>Failed to reset platform image</t>
-  </si>
-  <si>
-    <t>重置平台形象失败</t>
-  </si>
-  <si>
-    <t>Text_SaveColor</t>
-  </si>
-  <si>
-    <t>Save {0} Color</t>
-  </si>
-  <si>
-    <t>保存{0}颜色</t>
-  </si>
-  <si>
-    <t>Text_SaveTips</t>
-  </si>
-  <si>
-    <t>Save Tips</t>
-  </si>
-  <si>
-    <t>保存提示</t>
-  </si>
-  <si>
-    <t>Text_Save</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>保存</t>
-  </si>
-  <si>
-    <t>Text_NoSave</t>
-  </si>
-  <si>
-    <t>No Save</t>
-  </si>
-  <si>
-    <t>不保存</t>
-  </si>
-  <si>
-    <t>Text_WhetherSaveImage</t>
-  </si>
-  <si>
-    <t>Whether Save Image</t>
-  </si>
-  <si>
-    <t>是否保存当前角色形象</t>
+    <t xml:space="preserve">免费保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ResetImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重置平台形象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_ResetImageFaild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed to reset platform image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重置平台形象失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SaveColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save {0} Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存{0}颜色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SaveTips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save Tips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存提示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_NoSave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_WhetherSaveImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether Save Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否保存当前角色形象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_CloseTips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close Tips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关闭提示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text_SaveSuccessfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save Successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保存成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Text_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ResetSuccessfully</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset Successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重置成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Text_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SwitchSuccessfully</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch Successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Text_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WhetherToKeepTheCurrentColor</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether to keep the current color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否保留当前颜色</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Text_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Retain</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Retain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保留</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Text_No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Retain</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No Retain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不保留</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFDEE0E3"/>
       </left>
@@ -2301,903 +2192,186 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00DEE0E3"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDEE0E3"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:T247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C115" activeCellId="0" sqref="C115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9166666666667" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11.8828125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.9666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.2833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.15" style="1" customWidth="1"/>
-    <col min="5" max="20" width="12.9666666666667" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="5" style="1" width="12.97"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:20">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3227,7 +2401,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:20">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3257,7 +2431,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:20">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3287,7 +2461,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:20">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -3315,8 +2489,8 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:20">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3345,8 +2519,8 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:20">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3375,8 +2549,8 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:20">
-      <c r="A7" s="2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3405,8 +2579,8 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:20">
-      <c r="A8" s="2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3435,8 +2609,8 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:20">
-      <c r="A9" s="2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3465,8 +2639,8 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:20">
-      <c r="A10" s="2">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3495,8 +2669,8 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:20">
-      <c r="A11" s="2">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3525,8 +2699,8 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:20">
-      <c r="A12" s="2">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3555,8 +2729,8 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:20">
-      <c r="A13" s="2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3585,8 +2759,8 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:20">
-      <c r="A14" s="2">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3615,8 +2789,8 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:20">
-      <c r="A15" s="2">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3645,8 +2819,8 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:20">
-      <c r="A16" s="2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3675,8 +2849,8 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:20">
-      <c r="A17" s="2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3705,8 +2879,8 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:20">
-      <c r="A18" s="2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3735,8 +2909,8 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:20">
-      <c r="A19" s="2">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3765,8 +2939,8 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:20">
-      <c r="A20" s="2">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3795,8 +2969,8 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:20">
-      <c r="A21" s="2">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3825,8 +2999,8 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:20">
-      <c r="A22" s="2">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3855,8 +3029,8 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:20">
-      <c r="A23" s="2">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3885,8 +3059,8 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:20">
-      <c r="A24" s="2">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3915,8 +3089,8 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:20">
-      <c r="A25" s="2">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3945,8 +3119,8 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:20">
-      <c r="A26" s="2">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3975,8 +3149,8 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:20">
-      <c r="A27" s="2">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4005,8 +3179,8 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:20">
-      <c r="A28" s="2">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4035,8 +3209,8 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:20">
-      <c r="A29" s="2">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4065,8 +3239,8 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:20">
-      <c r="A30" s="2">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -4095,8 +3269,8 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:20">
-      <c r="A31" s="2">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -4125,8 +3299,8 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:20">
-      <c r="A32" s="2">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4155,8 +3329,8 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:20">
-      <c r="A33" s="2">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4185,8 +3359,8 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:20">
-      <c r="A34" s="2">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4215,8 +3389,8 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:20">
-      <c r="A35" s="2">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4245,8 +3419,8 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:20">
-      <c r="A36" s="2">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4275,8 +3449,8 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:20">
-      <c r="A37" s="2">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -4305,8 +3479,8 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:20">
-      <c r="A38" s="2">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4335,8 +3509,8 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" ht="15" customHeight="1" spans="1:20">
-      <c r="A39" s="2">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4365,8 +3539,8 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="1:20">
-      <c r="A40" s="2">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4395,8 +3569,8 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" ht="15" customHeight="1" spans="1:20">
-      <c r="A41" s="2">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4425,8 +3599,8 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:20">
-      <c r="A42" s="2">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4455,8 +3629,8 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" ht="15" customHeight="1" spans="1:20">
-      <c r="A43" s="2">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4485,8 +3659,8 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:20">
-      <c r="A44" s="2">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4515,8 +3689,8 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="1:20">
-      <c r="A45" s="2">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4545,8 +3719,8 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:20">
-      <c r="A46" s="2">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -4575,8 +3749,8 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" ht="15" customHeight="1" spans="1:20">
-      <c r="A47" s="2">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -4605,8 +3779,8 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="2">
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
         <v>44</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4635,8 +3809,8 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="2">
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
         <v>45</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -4665,8 +3839,8 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="2">
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -4695,8 +3869,8 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="2">
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
         <v>47</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -4725,8 +3899,8 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="2">
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
         <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -4755,8 +3929,8 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="2">
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>49</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -4785,8 +3959,8 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="2">
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -4815,8 +3989,8 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" ht="25.5" spans="1:20">
-      <c r="A55" s="2">
+    <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -4845,8 +4019,8 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="2">
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -4875,8 +4049,8 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="2">
+    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -4905,8 +4079,8 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="2">
+    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -4935,8 +4109,8 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="2">
+    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -4965,8 +4139,8 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20">
-      <c r="A60" s="2">
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -4995,8 +4169,8 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" ht="24" spans="1:20">
-      <c r="A61" s="2">
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -5025,8 +4199,8 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="2">
+    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -5055,8 +4229,8 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="2">
+    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -5085,8 +4259,8 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20">
-      <c r="A64" s="2">
+    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -5115,8 +4289,8 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="2">
+    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5145,8 +4319,8 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20">
-      <c r="A66" s="2">
+    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -5175,8 +4349,8 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="2">
+    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -5205,8 +4379,8 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20">
-      <c r="A68" s="2">
+    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -5235,8 +4409,8 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="2">
+    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -5265,8 +4439,8 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20">
-      <c r="A70" s="2">
+    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -5295,8 +4469,8 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20">
-      <c r="A71" s="2">
+    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -5325,8 +4499,8 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="2">
+    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -5355,8 +4529,8 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="2">
+    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -5385,8 +4559,8 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="2">
+    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -5415,8 +4589,8 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="2">
+    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -5445,8 +4619,8 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="2">
+    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -5475,8 +4649,8 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="2">
+    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -5505,8 +4679,8 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="2">
+    <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -5535,8 +4709,8 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="2">
+    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -5565,8 +4739,8 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20">
-      <c r="A80" s="2">
+    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -5595,8 +4769,8 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20">
-      <c r="A81" s="2">
+    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
         <v>77</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -5625,8 +4799,8 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
-      <c r="A82" s="2">
+    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -5655,8 +4829,8 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
-      <c r="A83" s="2">
+    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -5685,8 +4859,8 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20">
-      <c r="A84" s="2">
+    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -5717,8 +4891,8 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20">
-      <c r="A85" s="2">
+    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -5749,8 +4923,8 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
-      <c r="A86" s="2">
+    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
         <v>82</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -5781,8 +4955,8 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="2">
+    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
         <v>83</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -5813,8 +4987,8 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20">
-      <c r="A88" s="2">
+    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -5845,8 +5019,8 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="2">
+    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
         <v>85</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -5877,8 +5051,8 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="1:20">
-      <c r="A90" s="2">
+    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
         <v>86</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -5909,8 +5083,8 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="1:20">
-      <c r="A91" s="2">
+    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
         <v>87</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -5941,8 +5115,8 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="2">
+    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
         <v>88</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -5973,8 +5147,8 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="1:20">
-      <c r="A93" s="2">
+    <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
         <v>89</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -6005,8 +5179,8 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="2">
+    <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
         <v>90</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -6037,8 +5211,8 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
-      <c r="A95" s="2">
+    <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
         <v>91</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -6069,8 +5243,8 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
-      <c r="A96" s="2">
+    <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
         <v>92</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -6101,8 +5275,8 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="1:20">
-      <c r="A97" s="2">
+    <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -6133,8 +5307,8 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20">
-      <c r="A98" s="2">
+    <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -6165,8 +5339,8 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="1:20">
-      <c r="A99" s="2">
+    <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -6195,8 +5369,8 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20">
-      <c r="A100" s="2">
+    <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -6225,8 +5399,8 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="1:20">
-      <c r="A101" s="2">
+    <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -6255,8 +5429,8 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20">
-      <c r="A102" s="2">
+    <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -6285,8 +5459,8 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="1:20">
-      <c r="A103" s="2">
+    <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -6315,8 +5489,8 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20">
-      <c r="A104" s="2">
+    <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
         <v>100</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -6345,8 +5519,8 @@
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="1:20">
-      <c r="A105" s="2">
+    <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
         <v>101</v>
       </c>
       <c r="B105" s="8" t="s">
@@ -6375,8 +5549,8 @@
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="1:20">
-      <c r="A106" s="2">
+    <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
         <v>102</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -6405,8 +5579,8 @@
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="1:20">
-      <c r="A107" s="2">
+    <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
         <v>103</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -6435,8 +5609,8 @@
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="1:20">
-      <c r="A108" s="2">
+    <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
         <v>104</v>
       </c>
       <c r="B108" s="8" t="s">
@@ -6465,8 +5639,8 @@
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="1:20">
-      <c r="A109" s="2">
+    <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
         <v>105</v>
       </c>
       <c r="B109" s="8" t="s">
@@ -6495,8 +5669,8 @@
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="1:20">
-      <c r="A110" s="2">
+    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
         <v>106</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -6525,8 +5699,8 @@
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="1:20">
-      <c r="A111" s="2">
+    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
         <v>107</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -6555,8 +5729,8 @@
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="1:20">
-      <c r="A112" s="2">
+    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
         <v>108</v>
       </c>
       <c r="B112" s="8" t="s">
@@ -6585,8 +5759,8 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20">
-      <c r="A113" s="2">
+    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
         <v>109</v>
       </c>
       <c r="B113" s="8" t="s">
@@ -6615,8 +5789,8 @@
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="1:20">
-      <c r="A114" s="2">
+    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
         <v>110</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -6645,8 +5819,8 @@
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="1:20">
-      <c r="A115" s="2">
+    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
         <v>111</v>
       </c>
       <c r="B115" s="8" t="s">
@@ -6675,8 +5849,8 @@
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="1:20">
-      <c r="A116" s="2">
+    <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
         <v>112</v>
       </c>
       <c r="B116" s="8" t="s">
@@ -6705,8 +5879,8 @@
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="1:20">
-      <c r="A117" s="2">
+    <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
         <v>113</v>
       </c>
       <c r="B117" s="8" t="s">
@@ -6735,8 +5909,8 @@
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="1:20">
-      <c r="A118" s="2">
+    <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
         <v>114</v>
       </c>
       <c r="B118" s="8" t="s">
@@ -6765,8 +5939,8 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="1:20">
-      <c r="A119" s="2">
+    <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
         <v>115</v>
       </c>
       <c r="B119" s="8" t="s">
@@ -6797,8 +5971,8 @@
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="1:20">
-      <c r="A120" s="2">
+    <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
         <v>116</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -6829,8 +6003,8 @@
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="1:20">
-      <c r="A121" s="2">
+    <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
         <v>117</v>
       </c>
       <c r="B121" s="8" t="s">
@@ -6861,8 +6035,8 @@
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="1:20">
-      <c r="A122" s="2">
+    <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
         <v>118</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -6893,8 +6067,8 @@
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="1:20">
-      <c r="A123" s="2">
+    <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
         <v>119</v>
       </c>
       <c r="B123" s="8" t="s">
@@ -6925,8 +6099,8 @@
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="1:20">
-      <c r="A124" s="2">
+    <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
         <v>120</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -6957,8 +6131,8 @@
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="1:20">
-      <c r="A125" s="2">
+    <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
         <v>121</v>
       </c>
       <c r="B125" s="8" t="s">
@@ -6989,8 +6163,8 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="1:20">
-      <c r="A126" s="2">
+    <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
         <v>122</v>
       </c>
       <c r="B126" s="8" t="s">
@@ -7021,8 +6195,8 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="1:20">
-      <c r="A127" s="2">
+    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
         <v>123</v>
       </c>
       <c r="B127" s="8" t="s">
@@ -7053,8 +6227,8 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="1:20">
-      <c r="A128" s="2">
+    <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
         <v>124</v>
       </c>
       <c r="B128" s="8" t="s">
@@ -7085,8 +6259,8 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="1:20">
-      <c r="A129" s="2">
+    <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
         <v>125</v>
       </c>
       <c r="B129" s="8" t="s">
@@ -7117,8 +6291,8 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="1:20">
-      <c r="A130" s="2">
+    <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
         <v>126</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -7149,8 +6323,8 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="1:20">
-      <c r="A131" s="2">
+    <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
         <v>127</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -7181,8 +6355,8 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="1:20">
-      <c r="A132" s="2">
+    <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
         <v>128</v>
       </c>
       <c r="B132" s="8" t="s">
@@ -7213,8 +6387,8 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="1:20">
-      <c r="A133" s="2">
+    <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
         <v>129</v>
       </c>
       <c r="B133" s="8" t="s">
@@ -7245,18 +6419,18 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="1:20">
-      <c r="A134" s="2">
+    <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
         <v>130</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>338</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>200</v>
@@ -7277,12 +6451,12 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="1:20">
-      <c r="A135" s="2">
+    <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
         <v>131</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>211</v>
@@ -7309,12 +6483,12 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="1:20">
-      <c r="A136" s="2">
+    <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
         <v>132</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>315</v>
@@ -7341,12 +6515,12 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="1:20">
-      <c r="A137" s="2">
+    <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
         <v>133</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>318</v>
@@ -7373,12 +6547,12 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="1:20">
-      <c r="A138" s="2">
+    <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
         <v>134</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>321</v>
@@ -7405,18 +6579,18 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="1:20">
-      <c r="A139" s="2">
+    <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
         <v>135</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -7435,18 +6609,18 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="1:20">
-      <c r="A140" s="2">
+    <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
         <v>136</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -7465,18 +6639,18 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="1:20">
-      <c r="A141" s="2">
+    <row r="141" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
         <v>137</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -7495,18 +6669,18 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="1:20">
-      <c r="A142" s="2">
+    <row r="142" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
         <v>138</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -7525,18 +6699,18 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="1:20">
-      <c r="A143" s="2">
+    <row r="143" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
         <v>139</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -7555,18 +6729,18 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="1:20">
-      <c r="A144" s="2">
+    <row r="144" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
         <v>140</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -7585,18 +6759,18 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="1:20">
-      <c r="A145" s="2">
+    <row r="145" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
         <v>141</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -7615,18 +6789,18 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="1:20">
-      <c r="A146" s="2">
+    <row r="146" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
         <v>142</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -7645,18 +6819,18 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="1:20">
-      <c r="A147" s="2">
+    <row r="147" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
         <v>143</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -7675,18 +6849,18 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="1:20">
-      <c r="A148" s="2">
+    <row r="148" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
         <v>144</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -7705,18 +6879,18 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20">
-      <c r="A149" s="2">
+    <row r="149" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
         <v>145</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -7735,18 +6909,18 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="1:20">
-      <c r="A150" s="2">
+    <row r="150" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="n">
         <v>146</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -7765,18 +6939,18 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="1:20">
-      <c r="A151" s="2">
+    <row r="151" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="n">
         <v>147</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -7795,18 +6969,18 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20">
-      <c r="A152" s="2">
+    <row r="152" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="n">
         <v>148</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -7825,18 +6999,18 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="1:20">
-      <c r="A153" s="2">
+    <row r="153" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="n">
         <v>149</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -7855,18 +7029,18 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="1:20">
-      <c r="A154" s="2">
+    <row r="154" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="n">
         <v>150</v>
       </c>
       <c r="B154" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>386</v>
-      </c>
       <c r="D154" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>200</v>
@@ -7887,18 +7061,18 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20">
-      <c r="A155" s="2">
+    <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="n">
         <v>151</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -7917,18 +7091,18 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="1:20">
-      <c r="A156" s="2">
+    <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="n">
         <v>152</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -7947,18 +7121,18 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="1:20">
-      <c r="A157" s="2">
+    <row r="157" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="n">
         <v>153</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -7977,18 +7151,18 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="1:20">
-      <c r="A158" s="2">
+    <row r="158" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="n">
         <v>154</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -8007,18 +7181,18 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="1:20">
-      <c r="A159" s="2">
+    <row r="159" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="n">
         <v>155</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D159" s="13" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -8037,18 +7211,18 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="1:20">
-      <c r="A160" s="2">
+    <row r="160" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="n">
         <v>156</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D160" s="13" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -8067,18 +7241,18 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="1:20">
-      <c r="A161" s="2">
+    <row r="161" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
         <v>157</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -8097,18 +7271,18 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="1:20">
-      <c r="A162" s="2">
+    <row r="162" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="n">
         <v>158</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -8127,18 +7301,18 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="1:20">
-      <c r="A163" s="2">
+    <row r="163" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="n">
         <v>159</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -8157,18 +7331,18 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="1:20">
-      <c r="A164" s="2">
+    <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="n">
         <v>160</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -8187,18 +7361,18 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="1:20">
-      <c r="A165" s="2">
+    <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="n">
         <v>161</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -8217,18 +7391,18 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="1:20">
-      <c r="A166" s="2">
+    <row r="166" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="n">
         <v>162</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -8247,18 +7421,18 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="1:20">
-      <c r="A167" s="2">
+    <row r="167" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="n">
         <v>163</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -8277,18 +7451,18 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="1:20">
-      <c r="A168" s="2">
+    <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="n">
         <v>164</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -8307,18 +7481,18 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="1:20">
-      <c r="A169" s="2">
+    <row r="169" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="n">
         <v>165</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -8337,18 +7511,18 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="1:20">
-      <c r="A170" s="2">
+    <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="n">
         <v>166</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -8367,18 +7541,18 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="1:20">
-      <c r="A171" s="2">
+    <row r="171" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="n">
         <v>167</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -8397,18 +7571,18 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="1:20">
-      <c r="A172" s="2">
+    <row r="172" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="n">
         <v>168</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -8427,18 +7601,18 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="1:20">
-      <c r="A173" s="2">
+    <row r="173" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="n">
         <v>169</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -8457,18 +7631,18 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="1:20">
-      <c r="A174" s="2">
+    <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="n">
         <v>170</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -8487,18 +7661,18 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="1:20">
-      <c r="A175" s="2">
+    <row r="175" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="n">
         <v>171</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D175" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -8517,18 +7691,18 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="1:20">
-      <c r="A176" s="2">
+    <row r="176" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="n">
         <v>172</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D176" s="13" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -8547,18 +7721,18 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="1:20">
-      <c r="A177" s="2">
+    <row r="177" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="n">
         <v>173</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -8577,18 +7751,18 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="1:20">
-      <c r="A178" s="2">
+    <row r="178" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="n">
         <v>174</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -8607,11 +7781,19 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="1:20">
-      <c r="A179" s="2"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
+    <row r="179" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>465</v>
+      </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -8629,11 +7811,19 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20">
-      <c r="A180" s="2"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
+    <row r="180" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>468</v>
+      </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -8651,11 +7841,19 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="1:20">
-      <c r="A181" s="2"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>471</v>
+      </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -8673,11 +7871,19 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="1:20">
-      <c r="A182" s="2"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>474</v>
+      </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -8695,11 +7901,19 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="1:20">
-      <c r="A183" s="2"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>477</v>
+      </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -8717,11 +7931,19 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="1:20">
-      <c r="A184" s="2"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>480</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -8739,11 +7961,19 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="1:20">
-      <c r="A185" s="2"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -8761,7 +7991,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -8783,7 +8013,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -8805,7 +8035,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -8827,7 +8057,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -8849,7 +8079,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -8871,7 +8101,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -8893,7 +8123,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -8915,7 +8145,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -8937,7 +8167,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -8959,7 +8189,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -8981,7 +8211,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -9003,7 +8233,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -9025,7 +8255,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -9047,7 +8277,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -9069,7 +8299,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -9091,7 +8321,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -9113,7 +8343,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -9135,7 +8365,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -9157,7 +8387,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -9179,7 +8409,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -9201,7 +8431,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" spans="1:20">
+    <row r="206" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -9223,7 +8453,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -9245,7 +8475,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -9267,7 +8497,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -9289,7 +8519,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -9311,7 +8541,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -9333,7 +8563,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -9355,7 +8585,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -9377,7 +8607,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -9399,7 +8629,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" spans="1:20">
+    <row r="215" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -9421,7 +8651,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -9443,7 +8673,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -9465,7 +8695,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -9487,7 +8717,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -9509,7 +8739,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -9531,7 +8761,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -9553,7 +8783,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -9575,7 +8805,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -9597,7 +8827,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" spans="1:20">
+    <row r="224" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -9619,7 +8849,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" spans="1:20">
+    <row r="225" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -9641,7 +8871,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" spans="1:20">
+    <row r="226" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -9663,7 +8893,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="1:20">
+    <row r="227" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -9685,7 +8915,7 @@
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" spans="1:20">
+    <row r="228" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -9707,7 +8937,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -9729,7 +8959,7 @@
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -9751,7 +8981,7 @@
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -9773,7 +9003,7 @@
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -9795,7 +9025,7 @@
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -9817,7 +9047,7 @@
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -9839,7 +9069,7 @@
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -9861,7 +9091,7 @@
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -9883,7 +9113,7 @@
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -9905,7 +9135,7 @@
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" spans="1:20">
+    <row r="238" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -9927,7 +9157,7 @@
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -9949,7 +9179,7 @@
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -9971,7 +9201,7 @@
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -9993,7 +9223,7 @@
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -10015,7 +9245,7 @@
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" spans="1:20">
+    <row r="243" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -10037,7 +9267,7 @@
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" spans="1:20">
+    <row r="244" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -10059,7 +9289,7 @@
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="1:20">
+    <row r="245" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -10081,7 +9311,7 @@
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" spans="1:20">
+    <row r="246" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -10103,7 +9333,7 @@
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" spans="1:20">
+    <row r="247" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -10126,8 +9356,12 @@
       <c r="T247" s="2"/>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="580">
   <si>
     <t>int</t>
   </si>
@@ -1701,6 +1701,75 @@
   </si>
   <si>
     <t>日常造型2</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips1</t>
+  </si>
+  <si>
+    <t>服装签到</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips2</t>
+  </si>
+  <si>
+    <t>试穿排行榜</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips3</t>
+  </si>
+  <si>
+    <t>全服排行榜</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips4</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips5</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips6</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips7</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips1</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips2</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips3</t>
+  </si>
+  <si>
+    <t>被试穿次数</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips4</t>
+  </si>
+  <si>
+    <t>试穿好友形象</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips5</t>
+  </si>
+  <si>
+    <t>自己的形象</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips6</t>
+  </si>
+  <si>
+    <t>试穿失败、好友已离开房间</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips7</t>
+  </si>
+  <si>
+    <t>换个好友试试吧</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2764,8 @@
   </sheetPr>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -9153,10 +9222,16 @@
       <c r="V211" s="2"/>
     </row>
     <row r="212" ht="17" customHeight="1" spans="1:22">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="A212" s="1">
+        <v>208</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -9177,10 +9252,16 @@
       <c r="V212" s="2"/>
     </row>
     <row r="213" ht="17" customHeight="1" spans="1:22">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="A213" s="1">
+        <v>209</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -9201,10 +9282,16 @@
       <c r="V213" s="2"/>
     </row>
     <row r="214" ht="17" customHeight="1" spans="1:22">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="A214" s="1">
+        <v>210</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -9225,10 +9312,16 @@
       <c r="V214" s="2"/>
     </row>
     <row r="215" ht="17" customHeight="1" spans="1:22">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="A215" s="1">
+        <v>211</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -9249,10 +9342,16 @@
       <c r="V215" s="2"/>
     </row>
     <row r="216" ht="17" customHeight="1" spans="1:22">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="A216" s="1">
+        <v>212</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -9273,10 +9372,16 @@
       <c r="V216" s="2"/>
     </row>
     <row r="217" ht="17" customHeight="1" spans="1:22">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="A217" s="1">
+        <v>213</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -9297,10 +9402,16 @@
       <c r="V217" s="2"/>
     </row>
     <row r="218" ht="17" customHeight="1" spans="1:22">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="A218" s="1">
+        <v>214</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -9321,10 +9432,16 @@
       <c r="V218" s="2"/>
     </row>
     <row r="219" ht="17" customHeight="1" spans="1:22">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="A219" s="1">
+        <v>215</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
+      <c r="D219" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -9345,10 +9462,16 @@
       <c r="V219" s="2"/>
     </row>
     <row r="220" ht="17" customHeight="1" spans="1:22">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="A220" s="1">
+        <v>216</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
+      <c r="D220" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -9369,10 +9492,16 @@
       <c r="V220" s="2"/>
     </row>
     <row r="221" ht="17" customHeight="1" spans="1:22">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="A221" s="1">
+        <v>217</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
+      <c r="D221" s="2" t="s">
+        <v>571</v>
+      </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="2"/>
@@ -9393,10 +9522,16 @@
       <c r="V221" s="2"/>
     </row>
     <row r="222" ht="17" customHeight="1" spans="1:22">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="A222" s="1">
+        <v>218</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
+      <c r="D222" s="2" t="s">
+        <v>573</v>
+      </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -9417,10 +9552,16 @@
       <c r="V222" s="2"/>
     </row>
     <row r="223" ht="17" customHeight="1" spans="1:22">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="A223" s="1">
+        <v>219</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
+      <c r="D223" s="2" t="s">
+        <v>575</v>
+      </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -9441,10 +9582,16 @@
       <c r="V223" s="2"/>
     </row>
     <row r="224" ht="17" customHeight="1" spans="1:22">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="A224" s="1">
+        <v>220</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
+      <c r="D224" s="2" t="s">
+        <v>577</v>
+      </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -9465,10 +9612,16 @@
       <c r="V224" s="2"/>
     </row>
     <row r="225" ht="17" customHeight="1" spans="1:22">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="A225" s="1">
+        <v>221</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>578</v>
+      </c>
       <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
+      <c r="D225" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="582">
   <si>
     <t>int</t>
   </si>
@@ -1770,6 +1770,12 @@
   </si>
   <si>
     <t>换个好友试试吧</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips8</t>
+  </si>
+  <si>
+    <t>试穿失败、好友服装不规范</t>
   </si>
 </sst>
 </file>
@@ -2765,7 +2771,7 @@
   <dimension ref="A1:V574"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -9642,10 +9648,16 @@
       <c r="V225" s="2"/>
     </row>
     <row r="226" ht="17" customHeight="1" spans="1:22">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="A226" s="1">
+        <v>222</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>580</v>
+      </c>
       <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
+      <c r="D226" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="582">
   <si>
     <t>int</t>
   </si>
@@ -1701,6 +1701,81 @@
   </si>
   <si>
     <t>日常造型2</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips1</t>
+  </si>
+  <si>
+    <t>服装签到</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips2</t>
+  </si>
+  <si>
+    <t>试穿排行榜</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips3</t>
+  </si>
+  <si>
+    <t>全服排行榜</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips4</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips5</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips6</t>
+  </si>
+  <si>
+    <t>Text_HUDPanelTips7</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips1</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips2</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips3</t>
+  </si>
+  <si>
+    <t>被试穿次数</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips4</t>
+  </si>
+  <si>
+    <t>试穿好友形象</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips5</t>
+  </si>
+  <si>
+    <t>自己的形象</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips6</t>
+  </si>
+  <si>
+    <t>试穿失败、好友已离开房间</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips7</t>
+  </si>
+  <si>
+    <t>换个好友试试吧</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips8</t>
+  </si>
+  <si>
+    <t>试穿失败、好友服装不规范</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2770,8 @@
   </sheetPr>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -9153,10 +9228,16 @@
       <c r="V211" s="2"/>
     </row>
     <row r="212" ht="17" customHeight="1" spans="1:22">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="A212" s="1">
+        <v>208</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -9177,10 +9258,16 @@
       <c r="V212" s="2"/>
     </row>
     <row r="213" ht="17" customHeight="1" spans="1:22">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="A213" s="1">
+        <v>209</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -9201,10 +9288,16 @@
       <c r="V213" s="2"/>
     </row>
     <row r="214" ht="17" customHeight="1" spans="1:22">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="A214" s="1">
+        <v>210</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -9225,10 +9318,16 @@
       <c r="V214" s="2"/>
     </row>
     <row r="215" ht="17" customHeight="1" spans="1:22">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="A215" s="1">
+        <v>211</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -9249,10 +9348,16 @@
       <c r="V215" s="2"/>
     </row>
     <row r="216" ht="17" customHeight="1" spans="1:22">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="A216" s="1">
+        <v>212</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -9273,10 +9378,16 @@
       <c r="V216" s="2"/>
     </row>
     <row r="217" ht="17" customHeight="1" spans="1:22">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="A217" s="1">
+        <v>213</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -9297,10 +9408,16 @@
       <c r="V217" s="2"/>
     </row>
     <row r="218" ht="17" customHeight="1" spans="1:22">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="A218" s="1">
+        <v>214</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -9321,10 +9438,16 @@
       <c r="V218" s="2"/>
     </row>
     <row r="219" ht="17" customHeight="1" spans="1:22">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="A219" s="1">
+        <v>215</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
+      <c r="D219" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -9345,10 +9468,16 @@
       <c r="V219" s="2"/>
     </row>
     <row r="220" ht="17" customHeight="1" spans="1:22">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="A220" s="1">
+        <v>216</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
+      <c r="D220" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -9369,10 +9498,16 @@
       <c r="V220" s="2"/>
     </row>
     <row r="221" ht="17" customHeight="1" spans="1:22">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="A221" s="1">
+        <v>217</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
+      <c r="D221" s="2" t="s">
+        <v>571</v>
+      </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="2"/>
@@ -9393,10 +9528,16 @@
       <c r="V221" s="2"/>
     </row>
     <row r="222" ht="17" customHeight="1" spans="1:22">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="A222" s="1">
+        <v>218</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
+      <c r="D222" s="2" t="s">
+        <v>573</v>
+      </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -9417,10 +9558,16 @@
       <c r="V222" s="2"/>
     </row>
     <row r="223" ht="17" customHeight="1" spans="1:22">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="A223" s="1">
+        <v>219</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
+      <c r="D223" s="2" t="s">
+        <v>575</v>
+      </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -9441,10 +9588,16 @@
       <c r="V223" s="2"/>
     </row>
     <row r="224" ht="17" customHeight="1" spans="1:22">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="A224" s="1">
+        <v>220</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
+      <c r="D224" s="2" t="s">
+        <v>577</v>
+      </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -9465,10 +9618,16 @@
       <c r="V224" s="2"/>
     </row>
     <row r="225" ht="17" customHeight="1" spans="1:22">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="A225" s="1">
+        <v>221</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>578</v>
+      </c>
       <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
+      <c r="D225" s="2" t="s">
+        <v>579</v>
+      </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -9489,10 +9648,16 @@
       <c r="V225" s="2"/>
     </row>
     <row r="226" ht="17" customHeight="1" spans="1:22">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="A226" s="1">
+        <v>222</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>580</v>
+      </c>
       <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
+      <c r="D226" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="590">
   <si>
     <t>int</t>
   </si>
@@ -1776,6 +1776,30 @@
   </si>
   <si>
     <t>试穿失败、好友服装不规范</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips9</t>
+  </si>
+  <si>
+    <t>被好友试穿权限</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips10</t>
+  </si>
+  <si>
+    <t>允许</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips11</t>
+  </si>
+  <si>
+    <t>不允许</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips12</t>
+  </si>
+  <si>
+    <t>好友试穿权限已关闭，不允许试穿</t>
   </si>
 </sst>
 </file>
@@ -2770,8 +2794,8 @@
   </sheetPr>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -9678,10 +9702,16 @@
       <c r="V226" s="2"/>
     </row>
     <row r="227" ht="17" customHeight="1" spans="1:22">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="A227" s="1">
+        <v>223</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>582</v>
+      </c>
       <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="D227" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -9702,10 +9732,16 @@
       <c r="V227" s="2"/>
     </row>
     <row r="228" ht="17" customHeight="1" spans="1:22">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="A228" s="1">
+        <v>224</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>584</v>
+      </c>
       <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="2" t="s">
+        <v>585</v>
+      </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -9726,10 +9762,16 @@
       <c r="V228" s="2"/>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:22">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="A229" s="1">
+        <v>225</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
+      <c r="D229" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -9750,10 +9792,16 @@
       <c r="V229" s="2"/>
     </row>
     <row r="230" ht="17" customHeight="1" spans="1:22">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="A230" s="1">
+        <v>226</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="2" t="s">
+        <v>589</v>
+      </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="590">
   <si>
     <t>int</t>
   </si>
@@ -1776,6 +1776,30 @@
   </si>
   <si>
     <t>试穿失败、好友服装不规范</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips9</t>
+  </si>
+  <si>
+    <t>被好友试穿权限</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips10</t>
+  </si>
+  <si>
+    <t>允许</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips11</t>
+  </si>
+  <si>
+    <t>不允许</t>
+  </si>
+  <si>
+    <t>Text_TryOnTips12</t>
+  </si>
+  <si>
+    <t>好友试穿权限已关闭，不允许试穿</t>
   </si>
 </sst>
 </file>
@@ -2771,7 +2795,7 @@
   <dimension ref="A1:V574"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -9678,10 +9702,16 @@
       <c r="V226" s="2"/>
     </row>
     <row r="227" ht="17" customHeight="1" spans="1:22">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="A227" s="1">
+        <v>223</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>582</v>
+      </c>
       <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="D227" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -9702,10 +9732,16 @@
       <c r="V227" s="2"/>
     </row>
     <row r="228" ht="17" customHeight="1" spans="1:22">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="A228" s="1">
+        <v>224</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>584</v>
+      </c>
       <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="2" t="s">
+        <v>585</v>
+      </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -9726,10 +9762,16 @@
       <c r="V228" s="2"/>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:22">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="A229" s="1">
+        <v>225</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
+      <c r="D229" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -9750,10 +9792,16 @@
       <c r="V229" s="2"/>
     </row>
     <row r="230" ht="17" customHeight="1" spans="1:22">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="A230" s="1">
+        <v>226</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="2" t="s">
+        <v>589</v>
+      </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="592">
   <si>
     <t>int</t>
   </si>
@@ -1800,6 +1800,12 @@
   </si>
   <si>
     <t>好友试穿权限已关闭，不允许试穿</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1048</t>
+  </si>
+  <si>
+    <t>灵宠</t>
   </si>
 </sst>
 </file>
@@ -2797,8 +2803,8 @@
   </sheetPr>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -9825,10 +9831,18 @@
       <c r="V230" s="3"/>
     </row>
     <row r="231" ht="17" customHeight="1" spans="1:22">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
+      <c r="A231" s="1">
+        <v>227</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>591</v>
+      </c>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="592">
   <si>
     <t>int</t>
   </si>
@@ -1800,6 +1800,12 @@
   </si>
   <si>
     <t>好友试穿权限已关闭，不允许试穿</t>
+  </si>
+  <si>
+    <t>Text_Tab3_1048</t>
+  </si>
+  <si>
+    <t>灵宠</t>
   </si>
 </sst>
 </file>
@@ -2794,8 +2800,8 @@
   </sheetPr>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -9822,10 +9828,18 @@
       <c r="V230" s="2"/>
     </row>
     <row r="231" ht="17" customHeight="1" spans="1:22">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
+      <c r="A231" s="1">
+        <v>227</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>591</v>
+      </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -310,7 +310,7 @@
   </si>
   <si>
     <t>欢迎来到
-樱花换装派对</t>
+春日物语：露营换装派对</t>
   </si>
   <si>
     <t>Text_UpNext</t>
@@ -328,7 +328,7 @@
     <t>With the guide over, start your trip to the cherry blossom town</t>
   </si>
   <si>
-    <t>引导结束，开启你的樱花小镇之旅吧</t>
+    <t>引导结束，开启你的露营之旅吧</t>
   </si>
   <si>
     <t>Text_Close</t>
@@ -2803,8 +2803,8 @@
   </sheetPr>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C231" sqref="C231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="602">
   <si>
     <t>int</t>
   </si>
@@ -632,156 +632,159 @@
     <t>Collection</t>
   </si>
   <si>
+    <t>保存穿搭</t>
+  </si>
+  <si>
+    <t>Text_Tab1_4</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>Text_Tab2_101</t>
+  </si>
+  <si>
+    <t>Body Type</t>
+  </si>
+  <si>
+    <t>体型</t>
+  </si>
+  <si>
+    <t>Text_Tab2_102</t>
+  </si>
+  <si>
+    <t>Skin Tone</t>
+  </si>
+  <si>
+    <t>肤色</t>
+  </si>
+  <si>
+    <t>Text_Tab2_103</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>脸型</t>
+  </si>
+  <si>
+    <t>Text_Tab2_104</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>Text_Tab2_105</t>
+  </si>
+  <si>
+    <t>Eyebrows</t>
+  </si>
+  <si>
+    <t>眉毛</t>
+  </si>
+  <si>
+    <t>Text_Tab2_106</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>妆容</t>
+  </si>
+  <si>
+    <t>Text_Tab2_107</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>表情</t>
+  </si>
+  <si>
+    <t>Text_Tab2_108</t>
+  </si>
+  <si>
+    <t>Outfit</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
+    <t>Text_Tab2_109</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>Text_Tab2_110</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>上衣</t>
+  </si>
+  <si>
+    <t>Text_Tab2_111</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>下衣</t>
+  </si>
+  <si>
+    <t>Text_Tab2_112</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>Text_Tab2_113</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>Text_Tab2_114</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>Text_Tab2_115</t>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>Text_Tab2_501</t>
+  </si>
+  <si>
     <t>收藏</t>
   </si>
   <si>
-    <t>Text_Tab1_4</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>Text_Tab2_101</t>
-  </si>
-  <si>
-    <t>Body Type</t>
-  </si>
-  <si>
-    <t>体型</t>
-  </si>
-  <si>
-    <t>Text_Tab2_102</t>
-  </si>
-  <si>
-    <t>Skin Tone</t>
-  </si>
-  <si>
-    <t>肤色</t>
-  </si>
-  <si>
-    <t>Text_Tab2_103</t>
-  </si>
-  <si>
-    <t>Face</t>
-  </si>
-  <si>
-    <t>脸型</t>
-  </si>
-  <si>
-    <t>Text_Tab2_104</t>
-  </si>
-  <si>
-    <t>Eyes</t>
-  </si>
-  <si>
-    <t>眼睛</t>
-  </si>
-  <si>
-    <t>Text_Tab2_105</t>
-  </si>
-  <si>
-    <t>Eyebrows</t>
-  </si>
-  <si>
-    <t>眉毛</t>
-  </si>
-  <si>
-    <t>Text_Tab2_106</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>妆容</t>
-  </si>
-  <si>
-    <t>Text_Tab2_107</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>表情</t>
-  </si>
-  <si>
-    <t>Text_Tab2_108</t>
-  </si>
-  <si>
-    <t>Outfit</t>
-  </si>
-  <si>
-    <t>套装</t>
-  </si>
-  <si>
-    <t>Text_Tab2_109</t>
-  </si>
-  <si>
-    <t>Hair</t>
-  </si>
-  <si>
-    <t>头发</t>
-  </si>
-  <si>
-    <t>Text_Tab2_110</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>上衣</t>
-  </si>
-  <si>
-    <t>Text_Tab2_111</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>下衣</t>
-  </si>
-  <si>
-    <t>Text_Tab2_112</t>
-  </si>
-  <si>
-    <t>Gloves</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>Text_Tab2_113</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>手套</t>
-  </si>
-  <si>
-    <t>Text_Tab2_114</t>
-  </si>
-  <si>
-    <t>Pet</t>
-  </si>
-  <si>
-    <t>宠物</t>
-  </si>
-  <si>
-    <t>Text_Tab2_115</t>
-  </si>
-  <si>
-    <t>Accessory</t>
-  </si>
-  <si>
-    <t>饰品</t>
-  </si>
-  <si>
-    <t>Text_Tab2_501</t>
-  </si>
-  <si>
     <t>Text_Tab2_502</t>
   </si>
   <si>
@@ -1806,6 +1809,34 @@
   </si>
   <si>
     <t>灵宠</t>
+  </si>
+  <si>
+    <t>Text_SaveSuccefully</t>
+  </si>
+  <si>
+    <t>Save Succefully</t>
+  </si>
+  <si>
+    <t>保存穿搭成功</t>
+  </si>
+  <si>
+    <t>Text_SaveCurrentCharacter</t>
+  </si>
+  <si>
+    <t>保存当前穿搭
+（{0}/{1}）</t>
+  </si>
+  <si>
+    <t>Text_MaxSaveCount</t>
+  </si>
+  <si>
+    <t>最多只能保存{0}个</t>
+  </si>
+  <si>
+    <t>Text_DeleteSucceed</t>
+  </si>
+  <si>
+    <t>删除成功</t>
   </si>
 </sst>
 </file>
@@ -1818,40 +1849,40 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1859,14 +1890,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1874,7 +1912,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1882,7 +1920,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1890,7 +1928,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1898,7 +1936,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1906,14 +1944,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1921,7 +1959,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1929,7 +1967,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1937,14 +1975,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1952,42 +1990,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2309,175 +2347,166 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2532,7 +2561,289 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00DEE0E3"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2542,7 +2853,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2558,7 +2869,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2570,7 +2881,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2587,9 +2898,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2622,9 +2933,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2798,27 +3109,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.475" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="20" width="14" customWidth="1"/>
+    <col min="2" max="2" width="18.8583333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.8583333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.0583333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.9666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:20">
+    <row r="1" customHeight="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2848,7 +3154,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:20">
+    <row r="2" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2878,7 +3184,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:20">
+    <row r="3" customHeight="1" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2908,7 +3214,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:20">
+    <row r="4" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -2936,7 +3242,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:20">
+    <row r="5" customHeight="1" spans="1:20">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2966,7 +3272,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:20">
+    <row r="6" customHeight="1" spans="1:20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2996,7 +3302,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:20">
+    <row r="7" customHeight="1" spans="1:20">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3026,7 +3332,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:20">
+    <row r="8" customHeight="1" spans="1:20">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3056,7 +3362,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:20">
+    <row r="9" customHeight="1" spans="1:20">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3086,7 +3392,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:20">
+    <row r="10" customHeight="1" spans="1:20">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3116,7 +3422,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:20">
+    <row r="11" customHeight="1" spans="1:20">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3146,7 +3452,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:20">
+    <row r="12" customHeight="1" spans="1:20">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3176,7 +3482,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:20">
+    <row r="13" customHeight="1" spans="1:20">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3206,7 +3512,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:20">
+    <row r="14" customHeight="1" spans="1:20">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3236,7 +3542,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:20">
+    <row r="15" customHeight="1" spans="1:20">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3266,7 +3572,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:20">
+    <row r="16" customHeight="1" spans="1:20">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3296,7 +3602,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:20">
+    <row r="17" customHeight="1" spans="1:20">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3326,7 +3632,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:20">
+    <row r="18" customHeight="1" spans="1:20">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3356,7 +3662,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:20">
+    <row r="19" customHeight="1" spans="1:20">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3386,7 +3692,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:20">
+    <row r="20" customHeight="1" spans="1:20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3416,7 +3722,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:20">
+    <row r="21" customHeight="1" spans="1:20">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3446,7 +3752,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:20">
+    <row r="22" customHeight="1" spans="1:20">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3476,7 +3782,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:20">
+    <row r="23" customHeight="1" spans="1:20">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3506,7 +3812,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:20">
+    <row r="24" customHeight="1" spans="1:20">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3536,7 +3842,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:20">
+    <row r="25" customHeight="1" spans="1:20">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3566,7 +3872,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:20">
+    <row r="26" customHeight="1" spans="1:20">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -3596,7 +3902,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:20">
+    <row r="27" customHeight="1" spans="1:20">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -3626,7 +3932,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:20">
+    <row r="28" customHeight="1" spans="1:20">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -3656,7 +3962,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:20">
+    <row r="29" customHeight="1" spans="1:20">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -3686,7 +3992,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:20">
+    <row r="30" customHeight="1" spans="1:20">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -3716,14 +4022,14 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:20">
+    <row r="31" customHeight="1" spans="1:20">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -3746,7 +4052,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:20">
+    <row r="32" customHeight="1" spans="1:20">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -3776,7 +4082,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:20">
+    <row r="33" customHeight="1" spans="1:20">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -3806,7 +4112,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:20">
+    <row r="34" customHeight="1" spans="1:20">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -3836,7 +4142,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:20">
+    <row r="35" customHeight="1" spans="1:20">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -3866,7 +4172,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:20">
+    <row r="36" customHeight="1" spans="1:20">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -3896,7 +4202,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:20">
+    <row r="37" customHeight="1" spans="1:20">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -3926,7 +4232,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:20">
+    <row r="38" customHeight="1" spans="1:20">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -3956,7 +4262,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:20">
+    <row r="39" customHeight="1" spans="1:20">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -3986,7 +4292,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:20">
+    <row r="40" customHeight="1" spans="1:20">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -4016,7 +4322,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:20">
+    <row r="41" customHeight="1" spans="1:20">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -4046,7 +4352,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:20">
+    <row r="42" customHeight="1" spans="1:20">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -4076,7 +4382,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:20">
+    <row r="43" customHeight="1" spans="1:20">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -4106,7 +4412,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="1:20">
+    <row r="44" customHeight="1" spans="1:20">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -4136,7 +4442,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" ht="17" customHeight="1" spans="1:20">
+    <row r="45" customHeight="1" spans="1:20">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -4166,7 +4472,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" ht="17" customHeight="1" spans="1:20">
+    <row r="46" customHeight="1" spans="1:20">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -4196,7 +4502,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" ht="17" customHeight="1" spans="1:20">
+    <row r="47" customHeight="1" spans="1:20">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -4436,14 +4742,14 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" ht="28" customHeight="1" spans="1:20">
+    <row r="55" ht="27.75" customHeight="1" spans="1:20">
       <c r="A55" s="1">
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4616,7 +4922,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" ht="26" customHeight="1" spans="1:20">
+    <row r="61" ht="25.5" customHeight="1" spans="1:20">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -5320,7 +5626,7 @@
         <v>206</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -5343,7 +5649,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>208</v>
@@ -5352,7 +5658,7 @@
         <v>209</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -5375,7 +5681,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>211</v>
@@ -5384,7 +5690,7 @@
         <v>212</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -5407,7 +5713,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>214</v>
@@ -5416,7 +5722,7 @@
         <v>215</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -5439,7 +5745,7 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>217</v>
@@ -5448,7 +5754,7 @@
         <v>218</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -5471,7 +5777,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>220</v>
@@ -5480,7 +5786,7 @@
         <v>221</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -5503,7 +5809,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>223</v>
@@ -5512,7 +5818,7 @@
         <v>224</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -5535,7 +5841,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>226</v>
@@ -5544,7 +5850,7 @@
         <v>227</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -5567,7 +5873,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>229</v>
@@ -5576,7 +5882,7 @@
         <v>230</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -5599,7 +5905,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>232</v>
@@ -5608,7 +5914,7 @@
         <v>233</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -5631,7 +5937,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>235</v>
@@ -5640,7 +5946,7 @@
         <v>236</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -5663,7 +5969,7 @@
         <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>238</v>
@@ -5672,7 +5978,7 @@
         <v>239</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -5695,7 +6001,7 @@
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>241</v>
@@ -5704,7 +6010,7 @@
         <v>242</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -5727,7 +6033,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>244</v>
@@ -5736,7 +6042,7 @@
         <v>245</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -5759,7 +6065,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>247</v>
@@ -5768,7 +6074,7 @@
         <v>248</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -5791,13 +6097,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5821,13 +6127,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -5851,13 +6157,13 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -5881,13 +6187,13 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -5911,13 +6217,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -5941,13 +6247,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5971,13 +6277,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -6001,13 +6307,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -6031,13 +6337,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -6061,13 +6367,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -6091,13 +6397,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -6121,13 +6427,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -6151,13 +6457,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -6181,13 +6487,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -6211,13 +6517,13 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -6241,13 +6547,13 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -6271,13 +6577,13 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -6301,13 +6607,13 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -6331,13 +6637,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -6361,13 +6667,13 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -6391,16 +6697,16 @@
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -6423,16 +6729,16 @@
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -6455,16 +6761,16 @@
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -6487,16 +6793,16 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -6519,16 +6825,16 @@
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -6551,16 +6857,16 @@
         <v>120</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -6583,16 +6889,16 @@
         <v>121</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -6615,16 +6921,16 @@
         <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -6647,16 +6953,16 @@
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -6679,16 +6985,16 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -6711,16 +7017,16 @@
         <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -6743,16 +7049,16 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -6775,16 +7081,16 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -6807,16 +7113,16 @@
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -6839,16 +7145,16 @@
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -6871,16 +7177,16 @@
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -6903,16 +7209,16 @@
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6935,16 +7241,16 @@
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -6967,16 +7273,16 @@
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -6999,16 +7305,16 @@
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -7031,13 +7337,13 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -7061,13 +7367,13 @@
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -7091,13 +7397,13 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -7121,13 +7427,13 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -7151,13 +7457,13 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -7181,13 +7487,13 @@
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -7211,13 +7517,13 @@
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -7241,13 +7547,13 @@
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -7271,13 +7577,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -7301,13 +7607,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -7331,13 +7637,13 @@
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -7361,13 +7667,13 @@
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -7391,13 +7697,13 @@
         <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -7421,13 +7727,13 @@
         <v>148</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -7451,13 +7757,13 @@
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -7481,16 +7787,16 @@
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -7513,13 +7819,13 @@
         <v>151</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -7543,13 +7849,13 @@
         <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -7573,13 +7879,13 @@
         <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -7603,13 +7909,13 @@
         <v>154</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -7633,13 +7939,13 @@
         <v>155</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -7663,13 +7969,13 @@
         <v>156</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -7693,13 +7999,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -7723,13 +8029,13 @@
         <v>158</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -7753,13 +8059,13 @@
         <v>159</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -7783,13 +8089,13 @@
         <v>160</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -7813,13 +8119,13 @@
         <v>161</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -7843,13 +8149,13 @@
         <v>162</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -7873,13 +8179,13 @@
         <v>163</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -7903,13 +8209,13 @@
         <v>164</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -7933,13 +8239,13 @@
         <v>165</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -7963,13 +8269,13 @@
         <v>166</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -7993,13 +8299,13 @@
         <v>167</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -8023,13 +8329,13 @@
         <v>168</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -8053,13 +8359,13 @@
         <v>169</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -8083,13 +8389,13 @@
         <v>170</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -8113,13 +8419,13 @@
         <v>171</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -8143,13 +8449,13 @@
         <v>172</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -8173,13 +8479,13 @@
         <v>173</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -8203,13 +8509,13 @@
         <v>174</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -8233,13 +8539,13 @@
         <v>175</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -8263,13 +8569,13 @@
         <v>176</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -8293,13 +8599,13 @@
         <v>177</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -8323,13 +8629,13 @@
         <v>178</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -8353,13 +8659,13 @@
         <v>179</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -8383,13 +8689,13 @@
         <v>180</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -8413,13 +8719,13 @@
         <v>181</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -8443,13 +8749,13 @@
         <v>182</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -8473,13 +8779,13 @@
         <v>183</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -8503,13 +8809,13 @@
         <v>184</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -8533,13 +8839,13 @@
         <v>185</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -8563,13 +8869,13 @@
         <v>186</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -8588,18 +8894,18 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191" ht="17" customHeight="1" spans="1:22">
+    <row r="191" customHeight="1" spans="1:22">
       <c r="A191" s="1">
         <v>187</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -8620,18 +8926,18 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
     </row>
-    <row r="192" ht="17" customHeight="1" spans="1:22">
+    <row r="192" customHeight="1" spans="1:22">
       <c r="A192" s="1">
         <v>188</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -8652,18 +8958,18 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
     </row>
-    <row r="193" ht="17" customHeight="1" spans="1:22">
+    <row r="193" customHeight="1" spans="1:22">
       <c r="A193" s="1">
         <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -8684,18 +8990,18 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
     </row>
-    <row r="194" ht="17" customHeight="1" spans="1:22">
+    <row r="194" customHeight="1" spans="1:22">
       <c r="A194" s="1">
         <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -8716,18 +9022,18 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
     </row>
-    <row r="195" ht="17" customHeight="1" spans="1:22">
+    <row r="195" customHeight="1" spans="1:22">
       <c r="A195" s="1">
         <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -8748,12 +9054,12 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
     </row>
-    <row r="196" ht="17" customHeight="1" spans="1:22">
+    <row r="196" customHeight="1" spans="1:22">
       <c r="A196" s="1">
         <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>226</v>
@@ -8780,18 +9086,18 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
     </row>
-    <row r="197" ht="17" customHeight="1" spans="1:22">
+    <row r="197" customHeight="1" spans="1:22">
       <c r="A197" s="1">
         <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -8812,18 +9118,18 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
     </row>
-    <row r="198" ht="17" customHeight="1" spans="1:22">
+    <row r="198" customHeight="1" spans="1:22">
       <c r="A198" s="1">
         <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -8844,18 +9150,18 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
     </row>
-    <row r="199" ht="17" customHeight="1" spans="1:22">
+    <row r="199" customHeight="1" spans="1:22">
       <c r="A199" s="1">
         <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -8876,18 +9182,18 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
     </row>
-    <row r="200" ht="17" customHeight="1" spans="1:22">
+    <row r="200" customHeight="1" spans="1:22">
       <c r="A200" s="1">
         <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
@@ -8908,18 +9214,18 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
     </row>
-    <row r="201" ht="17" customHeight="1" spans="1:22">
+    <row r="201" customHeight="1" spans="1:22">
       <c r="A201" s="1">
         <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -8940,18 +9246,18 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
     </row>
-    <row r="202" ht="17" customHeight="1" spans="1:22">
+    <row r="202" customHeight="1" spans="1:22">
       <c r="A202" s="1">
         <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -8972,12 +9278,12 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
     </row>
-    <row r="203" ht="17" customHeight="1" spans="1:22">
+    <row r="203" customHeight="1" spans="1:22">
       <c r="A203" s="1">
         <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>238</v>
@@ -9004,18 +9310,18 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
     </row>
-    <row r="204" ht="17" customHeight="1" spans="1:22">
+    <row r="204" customHeight="1" spans="1:22">
       <c r="A204" s="1">
         <v>200</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -9036,18 +9342,18 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
     </row>
-    <row r="205" ht="17" customHeight="1" spans="1:22">
+    <row r="205" customHeight="1" spans="1:22">
       <c r="A205" s="1">
         <v>201</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
@@ -9068,18 +9374,18 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
     </row>
-    <row r="206" ht="17" customHeight="1" spans="1:22">
+    <row r="206" customHeight="1" spans="1:22">
       <c r="A206" s="1">
         <v>202</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
@@ -9100,18 +9406,18 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
     </row>
-    <row r="207" ht="17" customHeight="1" spans="1:22">
+    <row r="207" customHeight="1" spans="1:22">
       <c r="A207" s="1">
         <v>203</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -9132,18 +9438,18 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
     </row>
-    <row r="208" ht="17" customHeight="1" spans="1:22">
+    <row r="208" customHeight="1" spans="1:22">
       <c r="A208" s="1">
         <v>204</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
@@ -9164,18 +9470,18 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
     </row>
-    <row r="209" ht="17" customHeight="1" spans="1:22">
+    <row r="209" customHeight="1" spans="1:22">
       <c r="A209" s="1">
         <v>205</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -9196,18 +9502,18 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
     </row>
-    <row r="210" ht="17" customHeight="1" spans="1:22">
+    <row r="210" customHeight="1" spans="1:22">
       <c r="A210" s="1">
         <v>206</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -9228,18 +9534,18 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
     </row>
-    <row r="211" ht="17" customHeight="1" spans="1:22">
+    <row r="211" customHeight="1" spans="1:22">
       <c r="A211" s="1">
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
@@ -9260,16 +9566,16 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
     </row>
-    <row r="212" ht="17" customHeight="1" spans="1:22">
+    <row r="212" customHeight="1" spans="1:22">
       <c r="A212" s="1">
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
@@ -9290,16 +9596,16 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
     </row>
-    <row r="213" ht="17" customHeight="1" spans="1:22">
+    <row r="213" customHeight="1" spans="1:22">
       <c r="A213" s="1">
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
@@ -9320,16 +9626,16 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
     </row>
-    <row r="214" ht="17" customHeight="1" spans="1:22">
+    <row r="214" customHeight="1" spans="1:22">
       <c r="A214" s="1">
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
@@ -9350,16 +9656,16 @@
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
     </row>
-    <row r="215" ht="17" customHeight="1" spans="1:22">
+    <row r="215" customHeight="1" spans="1:22">
       <c r="A215" s="1">
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
@@ -9380,12 +9686,12 @@
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
     </row>
-    <row r="216" ht="17" customHeight="1" spans="1:22">
+    <row r="216" customHeight="1" spans="1:22">
       <c r="A216" s="1">
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
@@ -9410,16 +9716,16 @@
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
     </row>
-    <row r="217" ht="17" customHeight="1" spans="1:22">
+    <row r="217" customHeight="1" spans="1:22">
       <c r="A217" s="1">
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
@@ -9440,12 +9746,12 @@
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
     </row>
-    <row r="218" ht="17" customHeight="1" spans="1:22">
+    <row r="218" customHeight="1" spans="1:22">
       <c r="A218" s="1">
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
@@ -9470,12 +9776,12 @@
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
     </row>
-    <row r="219" ht="17" customHeight="1" spans="1:22">
+    <row r="219" customHeight="1" spans="1:22">
       <c r="A219" s="1">
         <v>215</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3" t="s">
@@ -9500,12 +9806,12 @@
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
     </row>
-    <row r="220" ht="17" customHeight="1" spans="1:22">
+    <row r="220" customHeight="1" spans="1:22">
       <c r="A220" s="1">
         <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
@@ -9530,16 +9836,16 @@
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
     </row>
-    <row r="221" ht="17" customHeight="1" spans="1:22">
+    <row r="221" customHeight="1" spans="1:22">
       <c r="A221" s="1">
         <v>217</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -9560,16 +9866,16 @@
       <c r="U221" s="3"/>
       <c r="V221" s="3"/>
     </row>
-    <row r="222" ht="17" customHeight="1" spans="1:22">
+    <row r="222" customHeight="1" spans="1:22">
       <c r="A222" s="1">
         <v>218</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
@@ -9590,16 +9896,16 @@
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
     </row>
-    <row r="223" ht="17" customHeight="1" spans="1:22">
+    <row r="223" customHeight="1" spans="1:22">
       <c r="A223" s="1">
         <v>219</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
@@ -9620,16 +9926,16 @@
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
     </row>
-    <row r="224" ht="17" customHeight="1" spans="1:22">
+    <row r="224" customHeight="1" spans="1:22">
       <c r="A224" s="1">
         <v>220</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
@@ -9650,16 +9956,16 @@
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
     </row>
-    <row r="225" ht="17" customHeight="1" spans="1:22">
+    <row r="225" customHeight="1" spans="1:22">
       <c r="A225" s="1">
         <v>221</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
@@ -9680,16 +9986,16 @@
       <c r="U225" s="3"/>
       <c r="V225" s="3"/>
     </row>
-    <row r="226" ht="17" customHeight="1" spans="1:22">
+    <row r="226" customHeight="1" spans="1:22">
       <c r="A226" s="1">
         <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
@@ -9710,16 +10016,16 @@
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
     </row>
-    <row r="227" ht="17" customHeight="1" spans="1:22">
+    <row r="227" customHeight="1" spans="1:22">
       <c r="A227" s="1">
         <v>223</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
@@ -9740,16 +10046,16 @@
       <c r="U227" s="3"/>
       <c r="V227" s="3"/>
     </row>
-    <row r="228" ht="17" customHeight="1" spans="1:22">
+    <row r="228" customHeight="1" spans="1:22">
       <c r="A228" s="1">
         <v>224</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
@@ -9770,16 +10076,16 @@
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
     </row>
-    <row r="229" ht="17" customHeight="1" spans="1:22">
+    <row r="229" customHeight="1" spans="1:22">
       <c r="A229" s="1">
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
@@ -9800,16 +10106,16 @@
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
     </row>
-    <row r="230" ht="17" customHeight="1" spans="1:22">
+    <row r="230" customHeight="1" spans="1:22">
       <c r="A230" s="1">
         <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
@@ -9830,18 +10136,18 @@
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
     </row>
-    <row r="231" ht="17" customHeight="1" spans="1:22">
+    <row r="231" customHeight="1" spans="1:22">
       <c r="A231" s="1">
         <v>227</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
@@ -9862,11 +10168,19 @@
       <c r="U231" s="3"/>
       <c r="V231" s="3"/>
     </row>
-    <row r="232" ht="17" customHeight="1" spans="1:22">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
+    <row r="232" customHeight="1" spans="1:22">
+      <c r="A232" s="1">
+        <v>228</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>595</v>
+      </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
@@ -9886,11 +10200,17 @@
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
     </row>
-    <row r="233" ht="17" customHeight="1" spans="1:22">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+    <row r="233" customHeight="1" spans="1:22">
+      <c r="A233" s="1">
+        <v>229</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
+      <c r="D233" s="4" t="s">
+        <v>597</v>
+      </c>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -9910,11 +10230,17 @@
       <c r="U233" s="3"/>
       <c r="V233" s="3"/>
     </row>
-    <row r="234" ht="17" customHeight="1" spans="1:22">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+    <row r="234" customHeight="1" spans="1:22">
+      <c r="A234" s="1">
+        <v>230</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
+      <c r="D234" s="3" t="s">
+        <v>599</v>
+      </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -9934,11 +10260,17 @@
       <c r="U234" s="3"/>
       <c r="V234" s="3"/>
     </row>
-    <row r="235" ht="17" customHeight="1" spans="1:22">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+    <row r="235" customHeight="1" spans="1:22">
+      <c r="A235" s="1">
+        <v>231</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
+      <c r="D235" s="3" t="s">
+        <v>601</v>
+      </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
@@ -9958,7 +10290,7 @@
       <c r="U235" s="3"/>
       <c r="V235" s="3"/>
     </row>
-    <row r="236" ht="17" customHeight="1" spans="1:22">
+    <row r="236" customHeight="1" spans="1:22">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="3"/>
@@ -9982,13 +10314,13 @@
       <c r="U236" s="3"/>
       <c r="V236" s="3"/>
     </row>
-    <row r="237" ht="17" customHeight="1" spans="1:22">
+    <row r="237" customHeight="1" spans="1:22">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="3"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
@@ -10010,9 +10342,9 @@
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="3"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -10034,9 +10366,9 @@
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="3"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
@@ -10174,7 +10506,7 @@
       <c r="U244" s="3"/>
       <c r="V244" s="3"/>
     </row>
-    <row r="245" ht="28" customHeight="1" spans="1:22">
+    <row r="245" ht="27.75" customHeight="1" spans="1:22">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3"/>
@@ -10318,11 +10650,11 @@
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
     </row>
-    <row r="251" ht="26" customHeight="1" spans="1:22">
+    <row r="251" ht="25.5" customHeight="1" spans="1:22">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="3"/>
-      <c r="D251" s="5"/>
+      <c r="D251" s="6"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
       <c r="G251" s="3"/>
@@ -10346,9 +10678,9 @@
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="3"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
@@ -10370,9 +10702,9 @@
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="3"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
@@ -10394,9 +10726,9 @@
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="3"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
@@ -12194,9 +12526,9 @@
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="3"/>
-      <c r="D329" s="5"/>
-      <c r="E329" s="5"/>
-      <c r="F329" s="5"/>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6"/>
+      <c r="F329" s="6"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
@@ -12218,9 +12550,9 @@
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="3"/>
-      <c r="D330" s="5"/>
-      <c r="E330" s="5"/>
-      <c r="F330" s="5"/>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
@@ -12242,9 +12574,9 @@
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="3"/>
-      <c r="D331" s="5"/>
-      <c r="E331" s="5"/>
-      <c r="F331" s="5"/>
+      <c r="D331" s="6"/>
+      <c r="E331" s="6"/>
+      <c r="F331" s="6"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
@@ -12266,9 +12598,9 @@
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="3"/>
-      <c r="D332" s="5"/>
-      <c r="E332" s="5"/>
-      <c r="F332" s="5"/>
+      <c r="D332" s="6"/>
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
@@ -12290,9 +12622,9 @@
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="3"/>
-      <c r="D333" s="5"/>
-      <c r="E333" s="5"/>
-      <c r="F333" s="6"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="7"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
@@ -12314,9 +12646,9 @@
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="3"/>
-      <c r="D334" s="5"/>
-      <c r="E334" s="5"/>
-      <c r="F334" s="6"/>
+      <c r="D334" s="6"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="7"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
@@ -12338,9 +12670,9 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="3"/>
-      <c r="D335" s="5"/>
-      <c r="E335" s="5"/>
-      <c r="F335" s="6"/>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="7"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
@@ -12362,9 +12694,9 @@
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="3"/>
-      <c r="D336" s="5"/>
-      <c r="E336" s="5"/>
-      <c r="F336" s="6"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="7"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
@@ -12386,9 +12718,9 @@
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="3"/>
-      <c r="D337" s="5"/>
-      <c r="E337" s="5"/>
-      <c r="F337" s="6"/>
+      <c r="D337" s="6"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="7"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
@@ -12410,9 +12742,9 @@
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="3"/>
-      <c r="D338" s="5"/>
-      <c r="E338" s="5"/>
-      <c r="F338" s="6"/>
+      <c r="D338" s="6"/>
+      <c r="E338" s="6"/>
+      <c r="F338" s="7"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
@@ -12434,9 +12766,9 @@
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="3"/>
-      <c r="D339" s="5"/>
-      <c r="E339" s="5"/>
-      <c r="F339" s="6"/>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="7"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
@@ -12458,9 +12790,9 @@
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="3"/>
-      <c r="D340" s="5"/>
-      <c r="E340" s="5"/>
-      <c r="F340" s="6"/>
+      <c r="D340" s="6"/>
+      <c r="E340" s="6"/>
+      <c r="F340" s="7"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
@@ -12482,9 +12814,9 @@
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="3"/>
-      <c r="D341" s="5"/>
-      <c r="E341" s="5"/>
-      <c r="F341" s="6"/>
+      <c r="D341" s="6"/>
+      <c r="E341" s="6"/>
+      <c r="F341" s="7"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
@@ -12506,9 +12838,9 @@
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="3"/>
-      <c r="D342" s="5"/>
-      <c r="E342" s="5"/>
-      <c r="F342" s="6"/>
+      <c r="D342" s="6"/>
+      <c r="E342" s="6"/>
+      <c r="F342" s="7"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
@@ -12531,8 +12863,8 @@
       <c r="B343" s="1"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
-      <c r="E343" s="5"/>
-      <c r="F343" s="5"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
@@ -12555,8 +12887,8 @@
       <c r="B344" s="1"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
-      <c r="E344" s="5"/>
-      <c r="F344" s="5"/>
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
@@ -12578,9 +12910,9 @@
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="3"/>
-      <c r="D345" s="5"/>
-      <c r="E345" s="5"/>
-      <c r="F345" s="5"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
@@ -12602,9 +12934,9 @@
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="3"/>
-      <c r="D346" s="5"/>
-      <c r="E346" s="5"/>
-      <c r="F346" s="5"/>
+      <c r="D346" s="6"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
@@ -12626,9 +12958,9 @@
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="3"/>
-      <c r="D347" s="5"/>
-      <c r="E347" s="5"/>
-      <c r="F347" s="5"/>
+      <c r="D347" s="6"/>
+      <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
@@ -12650,9 +12982,9 @@
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="3"/>
-      <c r="D348" s="5"/>
-      <c r="E348" s="5"/>
-      <c r="F348" s="7"/>
+      <c r="D348" s="6"/>
+      <c r="E348" s="6"/>
+      <c r="F348" s="8"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
@@ -12674,9 +13006,9 @@
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="3"/>
-      <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
-      <c r="F349" s="5"/>
+      <c r="D349" s="6"/>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
@@ -12698,9 +13030,9 @@
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="3"/>
-      <c r="D350" s="5"/>
-      <c r="E350" s="5"/>
-      <c r="F350" s="5"/>
+      <c r="D350" s="6"/>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
@@ -12722,9 +13054,9 @@
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="3"/>
-      <c r="D351" s="5"/>
-      <c r="E351" s="5"/>
-      <c r="F351" s="5"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
@@ -12746,9 +13078,9 @@
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="3"/>
-      <c r="D352" s="5"/>
-      <c r="E352" s="5"/>
-      <c r="F352" s="5"/>
+      <c r="D352" s="6"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
@@ -12770,9 +13102,9 @@
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="3"/>
-      <c r="D353" s="5"/>
-      <c r="E353" s="5"/>
-      <c r="F353" s="5"/>
+      <c r="D353" s="6"/>
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
@@ -12794,9 +13126,9 @@
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="3"/>
-      <c r="D354" s="5"/>
-      <c r="E354" s="5"/>
-      <c r="F354" s="5"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
@@ -12818,9 +13150,9 @@
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="3"/>
-      <c r="D355" s="5"/>
-      <c r="E355" s="5"/>
-      <c r="F355" s="5"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
@@ -12842,9 +13174,9 @@
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="3"/>
-      <c r="D356" s="5"/>
-      <c r="E356" s="5"/>
-      <c r="F356" s="5"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
@@ -12866,9 +13198,9 @@
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="3"/>
-      <c r="D357" s="5"/>
-      <c r="E357" s="5"/>
-      <c r="F357" s="5"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
@@ -12890,9 +13222,9 @@
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="3"/>
-      <c r="D358" s="5"/>
-      <c r="E358" s="5"/>
-      <c r="F358" s="5"/>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
@@ -12914,9 +13246,9 @@
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="3"/>
-      <c r="D359" s="5"/>
-      <c r="E359" s="5"/>
-      <c r="F359" s="5"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
@@ -12938,9 +13270,9 @@
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="3"/>
-      <c r="D360" s="5"/>
-      <c r="E360" s="5"/>
-      <c r="F360" s="5"/>
+      <c r="D360" s="6"/>
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
@@ -12962,9 +13294,9 @@
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="3"/>
-      <c r="D361" s="5"/>
-      <c r="E361" s="5"/>
-      <c r="F361" s="5"/>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
@@ -12986,9 +13318,9 @@
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="3"/>
-      <c r="D362" s="5"/>
-      <c r="E362" s="5"/>
-      <c r="F362" s="5"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
@@ -13010,9 +13342,9 @@
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="3"/>
-      <c r="D363" s="5"/>
-      <c r="E363" s="5"/>
-      <c r="F363" s="5"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
@@ -13034,9 +13366,9 @@
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="3"/>
-      <c r="D364" s="5"/>
-      <c r="E364" s="5"/>
-      <c r="F364" s="5"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
@@ -13058,9 +13390,9 @@
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="3"/>
-      <c r="D365" s="5"/>
-      <c r="E365" s="5"/>
-      <c r="F365" s="5"/>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
@@ -13082,9 +13414,9 @@
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="3"/>
-      <c r="D366" s="5"/>
-      <c r="E366" s="5"/>
-      <c r="F366" s="5"/>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
@@ -13106,9 +13438,9 @@
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="3"/>
-      <c r="D367" s="5"/>
-      <c r="E367" s="5"/>
-      <c r="F367" s="5"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
@@ -13130,9 +13462,9 @@
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="3"/>
-      <c r="D368" s="5"/>
-      <c r="E368" s="5"/>
-      <c r="F368" s="5"/>
+      <c r="D368" s="6"/>
+      <c r="E368" s="6"/>
+      <c r="F368" s="6"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
@@ -13154,9 +13486,9 @@
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="3"/>
-      <c r="D369" s="5"/>
-      <c r="E369" s="5"/>
-      <c r="F369" s="5"/>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+      <c r="F369" s="6"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
@@ -13178,9 +13510,9 @@
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="3"/>
-      <c r="D370" s="5"/>
-      <c r="E370" s="5"/>
-      <c r="F370" s="5"/>
+      <c r="D370" s="6"/>
+      <c r="E370" s="6"/>
+      <c r="F370" s="6"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
@@ -13202,9 +13534,9 @@
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="3"/>
-      <c r="D371" s="5"/>
-      <c r="E371" s="5"/>
-      <c r="F371" s="5"/>
+      <c r="D371" s="6"/>
+      <c r="E371" s="6"/>
+      <c r="F371" s="6"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
@@ -13226,9 +13558,9 @@
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="3"/>
-      <c r="D372" s="5"/>
-      <c r="E372" s="5"/>
-      <c r="F372" s="5"/>
+      <c r="D372" s="6"/>
+      <c r="E372" s="6"/>
+      <c r="F372" s="6"/>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
@@ -13250,9 +13582,9 @@
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="3"/>
-      <c r="D373" s="5"/>
-      <c r="E373" s="5"/>
-      <c r="F373" s="5"/>
+      <c r="D373" s="6"/>
+      <c r="E373" s="6"/>
+      <c r="F373" s="6"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
@@ -13274,9 +13606,9 @@
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="3"/>
-      <c r="D374" s="5"/>
-      <c r="E374" s="5"/>
-      <c r="F374" s="5"/>
+      <c r="D374" s="6"/>
+      <c r="E374" s="6"/>
+      <c r="F374" s="6"/>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
@@ -13298,9 +13630,9 @@
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="3"/>
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
-      <c r="F375" s="5"/>
+      <c r="D375" s="6"/>
+      <c r="E375" s="6"/>
+      <c r="F375" s="6"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
@@ -13323,7 +13655,7 @@
       <c r="B376" s="1"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
-      <c r="E376" s="5"/>
+      <c r="E376" s="6"/>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
@@ -13347,7 +13679,7 @@
       <c r="B377" s="1"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
-      <c r="E377" s="5"/>
+      <c r="E377" s="6"/>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
@@ -13371,7 +13703,7 @@
       <c r="B378" s="1"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
-      <c r="E378" s="5"/>
+      <c r="E378" s="6"/>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
@@ -13395,7 +13727,7 @@
       <c r="B379" s="1"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
-      <c r="E379" s="5"/>
+      <c r="E379" s="6"/>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
@@ -13419,7 +13751,7 @@
       <c r="B380" s="1"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
-      <c r="E380" s="5"/>
+      <c r="E380" s="6"/>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
@@ -13443,7 +13775,7 @@
       <c r="B381" s="1"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
-      <c r="E381" s="5"/>
+      <c r="E381" s="6"/>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
@@ -13467,7 +13799,7 @@
       <c r="B382" s="1"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
-      <c r="E382" s="5"/>
+      <c r="E382" s="6"/>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
@@ -13490,9 +13822,9 @@
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="3"/>
-      <c r="D383" s="5"/>
-      <c r="E383" s="5"/>
-      <c r="F383" s="5"/>
+      <c r="D383" s="6"/>
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
@@ -13514,9 +13846,9 @@
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="3"/>
-      <c r="D384" s="5"/>
-      <c r="E384" s="5"/>
-      <c r="F384" s="5"/>
+      <c r="D384" s="6"/>
+      <c r="E384" s="6"/>
+      <c r="F384" s="6"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
@@ -13536,9 +13868,9 @@
     </row>
     <row r="385" spans="3:22">
       <c r="C385" s="3"/>
-      <c r="D385" s="5"/>
-      <c r="E385" s="5"/>
-      <c r="F385" s="5"/>
+      <c r="D385" s="6"/>
+      <c r="E385" s="6"/>
+      <c r="F385" s="6"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
@@ -13558,9 +13890,9 @@
     </row>
     <row r="386" spans="3:22">
       <c r="C386" s="3"/>
-      <c r="D386" s="5"/>
-      <c r="E386" s="5"/>
-      <c r="F386" s="5"/>
+      <c r="D386" s="6"/>
+      <c r="E386" s="6"/>
+      <c r="F386" s="6"/>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
@@ -13580,9 +13912,9 @@
     </row>
     <row r="387" spans="3:22">
       <c r="C387" s="3"/>
-      <c r="D387" s="5"/>
-      <c r="E387" s="5"/>
-      <c r="F387" s="5"/>
+      <c r="D387" s="6"/>
+      <c r="E387" s="6"/>
+      <c r="F387" s="6"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
@@ -13602,9 +13934,9 @@
     </row>
     <row r="388" spans="3:22">
       <c r="C388" s="3"/>
-      <c r="D388" s="5"/>
-      <c r="E388" s="5"/>
-      <c r="F388" s="5"/>
+      <c r="D388" s="6"/>
+      <c r="E388" s="6"/>
+      <c r="F388" s="6"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
@@ -13624,9 +13956,9 @@
     </row>
     <row r="389" spans="3:22">
       <c r="C389" s="3"/>
-      <c r="D389" s="5"/>
-      <c r="E389" s="5"/>
-      <c r="F389" s="5"/>
+      <c r="D389" s="6"/>
+      <c r="E389" s="6"/>
+      <c r="F389" s="6"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
@@ -13646,9 +13978,9 @@
     </row>
     <row r="390" spans="3:22">
       <c r="C390" s="3"/>
-      <c r="D390" s="5"/>
-      <c r="E390" s="5"/>
-      <c r="F390" s="5"/>
+      <c r="D390" s="6"/>
+      <c r="E390" s="6"/>
+      <c r="F390" s="6"/>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
@@ -13668,9 +14000,9 @@
     </row>
     <row r="391" spans="3:22">
       <c r="C391" s="3"/>
-      <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
-      <c r="F391" s="5"/>
+      <c r="D391" s="6"/>
+      <c r="E391" s="6"/>
+      <c r="F391" s="6"/>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
@@ -13690,9 +14022,9 @@
     </row>
     <row r="392" spans="3:22">
       <c r="C392" s="3"/>
-      <c r="D392" s="5"/>
-      <c r="E392" s="5"/>
-      <c r="F392" s="5"/>
+      <c r="D392" s="6"/>
+      <c r="E392" s="6"/>
+      <c r="F392" s="6"/>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
@@ -13712,9 +14044,9 @@
     </row>
     <row r="393" spans="3:22">
       <c r="C393" s="3"/>
-      <c r="D393" s="5"/>
-      <c r="E393" s="5"/>
-      <c r="F393" s="5"/>
+      <c r="D393" s="6"/>
+      <c r="E393" s="6"/>
+      <c r="F393" s="6"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
@@ -13734,9 +14066,9 @@
     </row>
     <row r="394" spans="3:22">
       <c r="C394" s="3"/>
-      <c r="D394" s="5"/>
-      <c r="E394" s="5"/>
-      <c r="F394" s="5"/>
+      <c r="D394" s="6"/>
+      <c r="E394" s="6"/>
+      <c r="F394" s="6"/>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
@@ -13756,9 +14088,9 @@
     </row>
     <row r="395" spans="3:22">
       <c r="C395" s="3"/>
-      <c r="D395" s="5"/>
-      <c r="E395" s="5"/>
-      <c r="F395" s="5"/>
+      <c r="D395" s="6"/>
+      <c r="E395" s="6"/>
+      <c r="F395" s="6"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
@@ -13778,9 +14110,9 @@
     </row>
     <row r="396" spans="3:22">
       <c r="C396" s="3"/>
-      <c r="D396" s="5"/>
-      <c r="E396" s="5"/>
-      <c r="F396" s="5"/>
+      <c r="D396" s="6"/>
+      <c r="E396" s="6"/>
+      <c r="F396" s="6"/>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
@@ -13800,9 +14132,9 @@
     </row>
     <row r="397" spans="3:22">
       <c r="C397" s="3"/>
-      <c r="D397" s="5"/>
-      <c r="E397" s="5"/>
-      <c r="F397" s="5"/>
+      <c r="D397" s="6"/>
+      <c r="E397" s="6"/>
+      <c r="F397" s="6"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
@@ -13822,9 +14154,9 @@
     </row>
     <row r="398" spans="3:22">
       <c r="C398" s="3"/>
-      <c r="D398" s="5"/>
-      <c r="E398" s="5"/>
-      <c r="F398" s="5"/>
+      <c r="D398" s="6"/>
+      <c r="E398" s="6"/>
+      <c r="F398" s="6"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
@@ -13844,9 +14176,9 @@
     </row>
     <row r="399" spans="3:22">
       <c r="C399" s="3"/>
-      <c r="D399" s="5"/>
-      <c r="E399" s="5"/>
-      <c r="F399" s="5"/>
+      <c r="D399" s="6"/>
+      <c r="E399" s="6"/>
+      <c r="F399" s="6"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
@@ -13866,9 +14198,9 @@
     </row>
     <row r="400" spans="3:22">
       <c r="C400" s="3"/>
-      <c r="D400" s="5"/>
-      <c r="E400" s="5"/>
-      <c r="F400" s="5"/>
+      <c r="D400" s="6"/>
+      <c r="E400" s="6"/>
+      <c r="F400" s="6"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
@@ -13888,9 +14220,9 @@
     </row>
     <row r="401" spans="3:22">
       <c r="C401" s="3"/>
-      <c r="D401" s="5"/>
-      <c r="E401" s="5"/>
-      <c r="F401" s="5"/>
+      <c r="D401" s="6"/>
+      <c r="E401" s="6"/>
+      <c r="F401" s="6"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
@@ -13910,9 +14242,9 @@
     </row>
     <row r="402" spans="3:22">
       <c r="C402" s="3"/>
-      <c r="D402" s="5"/>
-      <c r="E402" s="5"/>
-      <c r="F402" s="5"/>
+      <c r="D402" s="6"/>
+      <c r="E402" s="6"/>
+      <c r="F402" s="6"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
@@ -13932,9 +14264,9 @@
     </row>
     <row r="403" spans="3:22">
       <c r="C403" s="3"/>
-      <c r="D403" s="5"/>
-      <c r="E403" s="5"/>
-      <c r="F403" s="5"/>
+      <c r="D403" s="6"/>
+      <c r="E403" s="6"/>
+      <c r="F403" s="6"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
@@ -13954,9 +14286,9 @@
     </row>
     <row r="404" spans="3:22">
       <c r="C404" s="3"/>
-      <c r="D404" s="5"/>
-      <c r="E404" s="5"/>
-      <c r="F404" s="5"/>
+      <c r="D404" s="6"/>
+      <c r="E404" s="6"/>
+      <c r="F404" s="6"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
@@ -13976,9 +14308,9 @@
     </row>
     <row r="405" spans="3:22">
       <c r="C405" s="3"/>
-      <c r="D405" s="5"/>
-      <c r="E405" s="5"/>
-      <c r="F405" s="5"/>
+      <c r="D405" s="6"/>
+      <c r="E405" s="6"/>
+      <c r="F405" s="6"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
@@ -13998,9 +14330,9 @@
     </row>
     <row r="406" spans="3:22">
       <c r="C406" s="3"/>
-      <c r="D406" s="5"/>
-      <c r="E406" s="5"/>
-      <c r="F406" s="5"/>
+      <c r="D406" s="6"/>
+      <c r="E406" s="6"/>
+      <c r="F406" s="6"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
@@ -14020,9 +14352,9 @@
     </row>
     <row r="407" spans="3:22">
       <c r="C407" s="3"/>
-      <c r="D407" s="5"/>
-      <c r="E407" s="5"/>
-      <c r="F407" s="5"/>
+      <c r="D407" s="6"/>
+      <c r="E407" s="6"/>
+      <c r="F407" s="6"/>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
@@ -14042,9 +14374,9 @@
     </row>
     <row r="408" spans="3:22">
       <c r="C408" s="3"/>
-      <c r="D408" s="5"/>
-      <c r="E408" s="5"/>
-      <c r="F408" s="5"/>
+      <c r="D408" s="6"/>
+      <c r="E408" s="6"/>
+      <c r="F408" s="6"/>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
@@ -14064,9 +14396,9 @@
     </row>
     <row r="409" spans="3:22">
       <c r="C409" s="3"/>
-      <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
-      <c r="F409" s="5"/>
+      <c r="D409" s="6"/>
+      <c r="E409" s="6"/>
+      <c r="F409" s="6"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
@@ -14086,9 +14418,9 @@
     </row>
     <row r="410" spans="3:22">
       <c r="C410" s="3"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
-      <c r="F410" s="5"/>
+      <c r="D410" s="6"/>
+      <c r="E410" s="6"/>
+      <c r="F410" s="6"/>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
@@ -14108,9 +14440,9 @@
     </row>
     <row r="411" spans="3:22">
       <c r="C411" s="3"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
+      <c r="D411" s="6"/>
+      <c r="E411" s="6"/>
+      <c r="F411" s="6"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
@@ -14130,9 +14462,9 @@
     </row>
     <row r="412" spans="3:22">
       <c r="C412" s="3"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
+      <c r="D412" s="6"/>
+      <c r="E412" s="6"/>
+      <c r="F412" s="6"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
@@ -14152,9 +14484,9 @@
     </row>
     <row r="413" spans="3:22">
       <c r="C413" s="3"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-      <c r="F413" s="5"/>
+      <c r="D413" s="6"/>
+      <c r="E413" s="6"/>
+      <c r="F413" s="6"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
@@ -14174,9 +14506,9 @@
     </row>
     <row r="414" spans="3:22">
       <c r="C414" s="3"/>
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-      <c r="F414" s="5"/>
+      <c r="D414" s="6"/>
+      <c r="E414" s="6"/>
+      <c r="F414" s="6"/>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
@@ -14196,9 +14528,9 @@
     </row>
     <row r="415" spans="3:22">
       <c r="C415" s="3"/>
-      <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
-      <c r="F415" s="5"/>
+      <c r="D415" s="6"/>
+      <c r="E415" s="6"/>
+      <c r="F415" s="6"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
@@ -14218,9 +14550,9 @@
     </row>
     <row r="416" spans="3:22">
       <c r="C416" s="3"/>
-      <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
-      <c r="F416" s="5"/>
+      <c r="D416" s="6"/>
+      <c r="E416" s="6"/>
+      <c r="F416" s="6"/>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
@@ -14240,9 +14572,9 @@
     </row>
     <row r="417" spans="3:22">
       <c r="C417" s="3"/>
-      <c r="D417" s="5"/>
-      <c r="E417" s="5"/>
-      <c r="F417" s="5"/>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+      <c r="F417" s="6"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
@@ -14262,9 +14594,9 @@
     </row>
     <row r="418" spans="3:22">
       <c r="C418" s="3"/>
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
-      <c r="F418" s="5"/>
+      <c r="D418" s="6"/>
+      <c r="E418" s="6"/>
+      <c r="F418" s="6"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
@@ -14284,9 +14616,9 @@
     </row>
     <row r="419" spans="3:22">
       <c r="C419" s="3"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
-      <c r="F419" s="5"/>
+      <c r="D419" s="6"/>
+      <c r="E419" s="6"/>
+      <c r="F419" s="6"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
@@ -14306,9 +14638,9 @@
     </row>
     <row r="420" spans="3:22">
       <c r="C420" s="3"/>
-      <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
-      <c r="F420" s="5"/>
+      <c r="D420" s="6"/>
+      <c r="E420" s="6"/>
+      <c r="F420" s="6"/>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
@@ -14328,9 +14660,9 @@
     </row>
     <row r="421" spans="3:22">
       <c r="C421" s="3"/>
-      <c r="D421" s="5"/>
-      <c r="E421" s="5"/>
-      <c r="F421" s="5"/>
+      <c r="D421" s="6"/>
+      <c r="E421" s="6"/>
+      <c r="F421" s="6"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
@@ -14350,9 +14682,9 @@
     </row>
     <row r="422" spans="3:22">
       <c r="C422" s="3"/>
-      <c r="D422" s="5"/>
-      <c r="E422" s="5"/>
-      <c r="F422" s="5"/>
+      <c r="D422" s="6"/>
+      <c r="E422" s="6"/>
+      <c r="F422" s="6"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
@@ -14372,9 +14704,9 @@
     </row>
     <row r="423" spans="3:22">
       <c r="C423" s="3"/>
-      <c r="D423" s="5"/>
-      <c r="E423" s="5"/>
-      <c r="F423" s="5"/>
+      <c r="D423" s="6"/>
+      <c r="E423" s="6"/>
+      <c r="F423" s="6"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
@@ -14394,9 +14726,9 @@
     </row>
     <row r="424" spans="3:22">
       <c r="C424" s="3"/>
-      <c r="D424" s="5"/>
-      <c r="E424" s="5"/>
-      <c r="F424" s="5"/>
+      <c r="D424" s="6"/>
+      <c r="E424" s="6"/>
+      <c r="F424" s="6"/>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
@@ -14416,9 +14748,9 @@
     </row>
     <row r="425" spans="3:22">
       <c r="C425" s="3"/>
-      <c r="D425" s="5"/>
-      <c r="E425" s="5"/>
-      <c r="F425" s="5"/>
+      <c r="D425" s="6"/>
+      <c r="E425" s="6"/>
+      <c r="F425" s="6"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
@@ -14438,9 +14770,9 @@
     </row>
     <row r="426" spans="3:22">
       <c r="C426" s="3"/>
-      <c r="D426" s="5"/>
-      <c r="E426" s="5"/>
-      <c r="F426" s="5"/>
+      <c r="D426" s="6"/>
+      <c r="E426" s="6"/>
+      <c r="F426" s="6"/>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
@@ -14460,9 +14792,9 @@
     </row>
     <row r="427" spans="3:22">
       <c r="C427" s="3"/>
-      <c r="D427" s="5"/>
-      <c r="E427" s="5"/>
-      <c r="F427" s="5"/>
+      <c r="D427" s="6"/>
+      <c r="E427" s="6"/>
+      <c r="F427" s="6"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
@@ -14482,9 +14814,9 @@
     </row>
     <row r="428" spans="3:22">
       <c r="C428" s="3"/>
-      <c r="D428" s="5"/>
-      <c r="E428" s="5"/>
-      <c r="F428" s="5"/>
+      <c r="D428" s="6"/>
+      <c r="E428" s="6"/>
+      <c r="F428" s="6"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
@@ -14504,9 +14836,9 @@
     </row>
     <row r="429" spans="3:22">
       <c r="C429" s="3"/>
-      <c r="D429" s="5"/>
-      <c r="E429" s="5"/>
-      <c r="F429" s="5"/>
+      <c r="D429" s="6"/>
+      <c r="E429" s="6"/>
+      <c r="F429" s="6"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
@@ -14526,9 +14858,9 @@
     </row>
     <row r="430" spans="3:22">
       <c r="C430" s="3"/>
-      <c r="D430" s="5"/>
-      <c r="E430" s="5"/>
-      <c r="F430" s="5"/>
+      <c r="D430" s="6"/>
+      <c r="E430" s="6"/>
+      <c r="F430" s="6"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
@@ -14548,9 +14880,9 @@
     </row>
     <row r="431" spans="3:22">
       <c r="C431" s="3"/>
-      <c r="D431" s="5"/>
-      <c r="E431" s="5"/>
-      <c r="F431" s="5"/>
+      <c r="D431" s="6"/>
+      <c r="E431" s="6"/>
+      <c r="F431" s="6"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
@@ -14570,9 +14902,9 @@
     </row>
     <row r="432" spans="3:22">
       <c r="C432" s="3"/>
-      <c r="D432" s="5"/>
-      <c r="E432" s="5"/>
-      <c r="F432" s="5"/>
+      <c r="D432" s="6"/>
+      <c r="E432" s="6"/>
+      <c r="F432" s="6"/>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
@@ -14592,9 +14924,9 @@
     </row>
     <row r="433" spans="3:22">
       <c r="C433" s="3"/>
-      <c r="D433" s="5"/>
-      <c r="E433" s="5"/>
-      <c r="F433" s="5"/>
+      <c r="D433" s="6"/>
+      <c r="E433" s="6"/>
+      <c r="F433" s="6"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
@@ -14614,9 +14946,9 @@
     </row>
     <row r="434" spans="3:22">
       <c r="C434" s="3"/>
-      <c r="D434" s="5"/>
-      <c r="E434" s="5"/>
-      <c r="F434" s="5"/>
+      <c r="D434" s="6"/>
+      <c r="E434" s="6"/>
+      <c r="F434" s="6"/>
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
@@ -14636,9 +14968,9 @@
     </row>
     <row r="435" spans="3:22">
       <c r="C435" s="3"/>
-      <c r="D435" s="5"/>
-      <c r="E435" s="5"/>
-      <c r="F435" s="5"/>
+      <c r="D435" s="6"/>
+      <c r="E435" s="6"/>
+      <c r="F435" s="6"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
@@ -14658,9 +14990,9 @@
     </row>
     <row r="436" spans="3:22">
       <c r="C436" s="3"/>
-      <c r="D436" s="5"/>
-      <c r="E436" s="5"/>
-      <c r="F436" s="5"/>
+      <c r="D436" s="6"/>
+      <c r="E436" s="6"/>
+      <c r="F436" s="6"/>
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
@@ -14680,9 +15012,9 @@
     </row>
     <row r="437" spans="3:22">
       <c r="C437" s="3"/>
-      <c r="D437" s="5"/>
-      <c r="E437" s="5"/>
-      <c r="F437" s="5"/>
+      <c r="D437" s="6"/>
+      <c r="E437" s="6"/>
+      <c r="F437" s="6"/>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
@@ -14702,9 +15034,9 @@
     </row>
     <row r="438" spans="3:22">
       <c r="C438" s="3"/>
-      <c r="D438" s="5"/>
-      <c r="E438" s="5"/>
-      <c r="F438" s="5"/>
+      <c r="D438" s="6"/>
+      <c r="E438" s="6"/>
+      <c r="F438" s="6"/>
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
@@ -14724,9 +15056,9 @@
     </row>
     <row r="439" spans="3:22">
       <c r="C439" s="3"/>
-      <c r="D439" s="5"/>
-      <c r="E439" s="5"/>
-      <c r="F439" s="5"/>
+      <c r="D439" s="6"/>
+      <c r="E439" s="6"/>
+      <c r="F439" s="6"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
@@ -14746,9 +15078,9 @@
     </row>
     <row r="440" spans="3:22">
       <c r="C440" s="3"/>
-      <c r="D440" s="5"/>
-      <c r="E440" s="5"/>
-      <c r="F440" s="5"/>
+      <c r="D440" s="6"/>
+      <c r="E440" s="6"/>
+      <c r="F440" s="6"/>
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
@@ -14768,9 +15100,9 @@
     </row>
     <row r="441" spans="3:22">
       <c r="C441" s="3"/>
-      <c r="D441" s="5"/>
-      <c r="E441" s="5"/>
-      <c r="F441" s="5"/>
+      <c r="D441" s="6"/>
+      <c r="E441" s="6"/>
+      <c r="F441" s="6"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
@@ -14790,9 +15122,9 @@
     </row>
     <row r="442" spans="3:22">
       <c r="C442" s="3"/>
-      <c r="D442" s="5"/>
-      <c r="E442" s="5"/>
-      <c r="F442" s="5"/>
+      <c r="D442" s="6"/>
+      <c r="E442" s="6"/>
+      <c r="F442" s="6"/>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
@@ -14812,9 +15144,9 @@
     </row>
     <row r="443" spans="3:22">
       <c r="C443" s="3"/>
-      <c r="D443" s="5"/>
-      <c r="E443" s="5"/>
-      <c r="F443" s="5"/>
+      <c r="D443" s="6"/>
+      <c r="E443" s="6"/>
+      <c r="F443" s="6"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
@@ -14834,9 +15166,9 @@
     </row>
     <row r="444" spans="3:22">
       <c r="C444" s="3"/>
-      <c r="D444" s="5"/>
-      <c r="E444" s="5"/>
-      <c r="F444" s="5"/>
+      <c r="D444" s="6"/>
+      <c r="E444" s="6"/>
+      <c r="F444" s="6"/>
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
@@ -14856,9 +15188,9 @@
     </row>
     <row r="445" spans="3:22">
       <c r="C445" s="3"/>
-      <c r="D445" s="5"/>
-      <c r="E445" s="5"/>
-      <c r="F445" s="5"/>
+      <c r="D445" s="6"/>
+      <c r="E445" s="6"/>
+      <c r="F445" s="6"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
@@ -14878,9 +15210,9 @@
     </row>
     <row r="446" spans="3:22">
       <c r="C446" s="3"/>
-      <c r="D446" s="5"/>
-      <c r="E446" s="5"/>
-      <c r="F446" s="5"/>
+      <c r="D446" s="6"/>
+      <c r="E446" s="6"/>
+      <c r="F446" s="6"/>
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
@@ -14900,9 +15232,9 @@
     </row>
     <row r="447" spans="3:22">
       <c r="C447" s="3"/>
-      <c r="D447" s="5"/>
-      <c r="E447" s="5"/>
-      <c r="F447" s="5"/>
+      <c r="D447" s="6"/>
+      <c r="E447" s="6"/>
+      <c r="F447" s="6"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
@@ -14922,9 +15254,9 @@
     </row>
     <row r="448" spans="3:22">
       <c r="C448" s="3"/>
-      <c r="D448" s="5"/>
-      <c r="E448" s="5"/>
-      <c r="F448" s="5"/>
+      <c r="D448" s="6"/>
+      <c r="E448" s="6"/>
+      <c r="F448" s="6"/>
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
@@ -14944,9 +15276,9 @@
     </row>
     <row r="449" spans="3:22">
       <c r="C449" s="3"/>
-      <c r="D449" s="5"/>
-      <c r="E449" s="5"/>
-      <c r="F449" s="5"/>
+      <c r="D449" s="6"/>
+      <c r="E449" s="6"/>
+      <c r="F449" s="6"/>
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
@@ -14966,9 +15298,9 @@
     </row>
     <row r="450" spans="3:22">
       <c r="C450" s="3"/>
-      <c r="D450" s="5"/>
-      <c r="E450" s="5"/>
-      <c r="F450" s="5"/>
+      <c r="D450" s="6"/>
+      <c r="E450" s="6"/>
+      <c r="F450" s="6"/>
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
@@ -14988,9 +15320,9 @@
     </row>
     <row r="451" spans="3:22">
       <c r="C451" s="3"/>
-      <c r="D451" s="5"/>
-      <c r="E451" s="5"/>
-      <c r="F451" s="5"/>
+      <c r="D451" s="6"/>
+      <c r="E451" s="6"/>
+      <c r="F451" s="6"/>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
@@ -15010,9 +15342,9 @@
     </row>
     <row r="452" spans="3:22">
       <c r="C452" s="3"/>
-      <c r="D452" s="5"/>
-      <c r="E452" s="5"/>
-      <c r="F452" s="5"/>
+      <c r="D452" s="6"/>
+      <c r="E452" s="6"/>
+      <c r="F452" s="6"/>
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
@@ -15032,9 +15364,9 @@
     </row>
     <row r="453" spans="3:22">
       <c r="C453" s="3"/>
-      <c r="D453" s="5"/>
-      <c r="E453" s="5"/>
-      <c r="F453" s="5"/>
+      <c r="D453" s="6"/>
+      <c r="E453" s="6"/>
+      <c r="F453" s="6"/>
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
@@ -15054,9 +15386,9 @@
     </row>
     <row r="454" spans="3:22">
       <c r="C454" s="3"/>
-      <c r="D454" s="5"/>
-      <c r="E454" s="5"/>
-      <c r="F454" s="5"/>
+      <c r="D454" s="6"/>
+      <c r="E454" s="6"/>
+      <c r="F454" s="6"/>
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
@@ -15076,9 +15408,9 @@
     </row>
     <row r="455" spans="3:22">
       <c r="C455" s="3"/>
-      <c r="D455" s="5"/>
-      <c r="E455" s="5"/>
-      <c r="F455" s="5"/>
+      <c r="D455" s="6"/>
+      <c r="E455" s="6"/>
+      <c r="F455" s="6"/>
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
@@ -15098,9 +15430,9 @@
     </row>
     <row r="456" spans="3:22">
       <c r="C456" s="3"/>
-      <c r="D456" s="5"/>
-      <c r="E456" s="5"/>
-      <c r="F456" s="5"/>
+      <c r="D456" s="6"/>
+      <c r="E456" s="6"/>
+      <c r="F456" s="6"/>
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
@@ -15120,9 +15452,9 @@
     </row>
     <row r="457" spans="3:22">
       <c r="C457" s="3"/>
-      <c r="D457" s="5"/>
-      <c r="E457" s="5"/>
-      <c r="F457" s="5"/>
+      <c r="D457" s="6"/>
+      <c r="E457" s="6"/>
+      <c r="F457" s="6"/>
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
@@ -15142,9 +15474,9 @@
     </row>
     <row r="458" spans="3:22">
       <c r="C458" s="3"/>
-      <c r="D458" s="5"/>
-      <c r="E458" s="5"/>
-      <c r="F458" s="5"/>
+      <c r="D458" s="6"/>
+      <c r="E458" s="6"/>
+      <c r="F458" s="6"/>
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
@@ -15164,9 +15496,9 @@
     </row>
     <row r="459" spans="3:22">
       <c r="C459" s="3"/>
-      <c r="D459" s="5"/>
-      <c r="E459" s="5"/>
-      <c r="F459" s="5"/>
+      <c r="D459" s="6"/>
+      <c r="E459" s="6"/>
+      <c r="F459" s="6"/>
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
@@ -15186,9 +15518,9 @@
     </row>
     <row r="460" spans="3:22">
       <c r="C460" s="3"/>
-      <c r="D460" s="5"/>
-      <c r="E460" s="5"/>
-      <c r="F460" s="5"/>
+      <c r="D460" s="6"/>
+      <c r="E460" s="6"/>
+      <c r="F460" s="6"/>
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
@@ -15208,9 +15540,9 @@
     </row>
     <row r="461" spans="3:22">
       <c r="C461" s="3"/>
-      <c r="D461" s="5"/>
-      <c r="E461" s="5"/>
-      <c r="F461" s="5"/>
+      <c r="D461" s="6"/>
+      <c r="E461" s="6"/>
+      <c r="F461" s="6"/>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
@@ -15230,9 +15562,9 @@
     </row>
     <row r="462" spans="3:22">
       <c r="C462" s="3"/>
-      <c r="D462" s="5"/>
-      <c r="E462" s="5"/>
-      <c r="F462" s="5"/>
+      <c r="D462" s="6"/>
+      <c r="E462" s="6"/>
+      <c r="F462" s="6"/>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
@@ -15252,9 +15584,9 @@
     </row>
     <row r="463" spans="3:22">
       <c r="C463" s="3"/>
-      <c r="D463" s="5"/>
-      <c r="E463" s="5"/>
-      <c r="F463" s="5"/>
+      <c r="D463" s="6"/>
+      <c r="E463" s="6"/>
+      <c r="F463" s="6"/>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
@@ -15274,9 +15606,9 @@
     </row>
     <row r="464" spans="3:22">
       <c r="C464" s="3"/>
-      <c r="D464" s="5"/>
-      <c r="E464" s="5"/>
-      <c r="F464" s="5"/>
+      <c r="D464" s="6"/>
+      <c r="E464" s="6"/>
+      <c r="F464" s="6"/>
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
       <c r="I464" s="3"/>
@@ -15296,9 +15628,9 @@
     </row>
     <row r="465" spans="3:22">
       <c r="C465" s="3"/>
-      <c r="D465" s="5"/>
-      <c r="E465" s="5"/>
-      <c r="F465" s="5"/>
+      <c r="D465" s="6"/>
+      <c r="E465" s="6"/>
+      <c r="F465" s="6"/>
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
       <c r="I465" s="3"/>
@@ -15318,9 +15650,9 @@
     </row>
     <row r="466" spans="3:22">
       <c r="C466" s="3"/>
-      <c r="D466" s="5"/>
-      <c r="E466" s="5"/>
-      <c r="F466" s="5"/>
+      <c r="D466" s="6"/>
+      <c r="E466" s="6"/>
+      <c r="F466" s="6"/>
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
       <c r="I466" s="3"/>
@@ -15340,9 +15672,9 @@
     </row>
     <row r="467" spans="3:22">
       <c r="C467" s="3"/>
-      <c r="D467" s="5"/>
-      <c r="E467" s="5"/>
-      <c r="F467" s="5"/>
+      <c r="D467" s="6"/>
+      <c r="E467" s="6"/>
+      <c r="F467" s="6"/>
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
       <c r="I467" s="3"/>
@@ -15362,9 +15694,9 @@
     </row>
     <row r="468" spans="3:22">
       <c r="C468" s="3"/>
-      <c r="D468" s="5"/>
-      <c r="E468" s="5"/>
-      <c r="F468" s="5"/>
+      <c r="D468" s="6"/>
+      <c r="E468" s="6"/>
+      <c r="F468" s="6"/>
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
       <c r="I468" s="3"/>
@@ -15384,9 +15716,9 @@
     </row>
     <row r="469" spans="3:22">
       <c r="C469" s="3"/>
-      <c r="D469" s="5"/>
-      <c r="E469" s="5"/>
-      <c r="F469" s="5"/>
+      <c r="D469" s="6"/>
+      <c r="E469" s="6"/>
+      <c r="F469" s="6"/>
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
       <c r="I469" s="3"/>
@@ -15406,9 +15738,9 @@
     </row>
     <row r="470" spans="3:22">
       <c r="C470" s="3"/>
-      <c r="D470" s="5"/>
-      <c r="E470" s="5"/>
-      <c r="F470" s="5"/>
+      <c r="D470" s="6"/>
+      <c r="E470" s="6"/>
+      <c r="F470" s="6"/>
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
       <c r="I470" s="3"/>
@@ -15428,9 +15760,9 @@
     </row>
     <row r="471" spans="3:22">
       <c r="C471" s="3"/>
-      <c r="D471" s="5"/>
-      <c r="E471" s="5"/>
-      <c r="F471" s="5"/>
+      <c r="D471" s="6"/>
+      <c r="E471" s="6"/>
+      <c r="F471" s="6"/>
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
       <c r="I471" s="3"/>
@@ -15450,9 +15782,9 @@
     </row>
     <row r="472" spans="3:22">
       <c r="C472" s="3"/>
-      <c r="D472" s="5"/>
-      <c r="E472" s="5"/>
-      <c r="F472" s="5"/>
+      <c r="D472" s="6"/>
+      <c r="E472" s="6"/>
+      <c r="F472" s="6"/>
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
       <c r="I472" s="3"/>
@@ -15472,9 +15804,9 @@
     </row>
     <row r="473" spans="3:22">
       <c r="C473" s="3"/>
-      <c r="D473" s="5"/>
-      <c r="E473" s="5"/>
-      <c r="F473" s="5"/>
+      <c r="D473" s="6"/>
+      <c r="E473" s="6"/>
+      <c r="F473" s="6"/>
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
       <c r="I473" s="3"/>
@@ -15494,9 +15826,9 @@
     </row>
     <row r="474" spans="3:22">
       <c r="C474" s="3"/>
-      <c r="D474" s="5"/>
-      <c r="E474" s="5"/>
-      <c r="F474" s="5"/>
+      <c r="D474" s="6"/>
+      <c r="E474" s="6"/>
+      <c r="F474" s="6"/>
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
       <c r="I474" s="3"/>
@@ -15516,9 +15848,9 @@
     </row>
     <row r="475" spans="3:22">
       <c r="C475" s="3"/>
-      <c r="D475" s="5"/>
-      <c r="E475" s="5"/>
-      <c r="F475" s="5"/>
+      <c r="D475" s="6"/>
+      <c r="E475" s="6"/>
+      <c r="F475" s="6"/>
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
       <c r="I475" s="3"/>
@@ -15538,9 +15870,9 @@
     </row>
     <row r="476" spans="3:22">
       <c r="C476" s="3"/>
-      <c r="D476" s="5"/>
-      <c r="E476" s="5"/>
-      <c r="F476" s="5"/>
+      <c r="D476" s="6"/>
+      <c r="E476" s="6"/>
+      <c r="F476" s="6"/>
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
       <c r="I476" s="3"/>
@@ -15560,9 +15892,9 @@
     </row>
     <row r="477" spans="3:22">
       <c r="C477" s="3"/>
-      <c r="D477" s="5"/>
-      <c r="E477" s="5"/>
-      <c r="F477" s="5"/>
+      <c r="D477" s="6"/>
+      <c r="E477" s="6"/>
+      <c r="F477" s="6"/>
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
       <c r="I477" s="3"/>
@@ -15582,9 +15914,9 @@
     </row>
     <row r="478" spans="3:22">
       <c r="C478" s="3"/>
-      <c r="D478" s="5"/>
-      <c r="E478" s="5"/>
-      <c r="F478" s="5"/>
+      <c r="D478" s="6"/>
+      <c r="E478" s="6"/>
+      <c r="F478" s="6"/>
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
       <c r="I478" s="3"/>
@@ -15604,9 +15936,9 @@
     </row>
     <row r="479" spans="3:22">
       <c r="C479" s="3"/>
-      <c r="D479" s="5"/>
-      <c r="E479" s="5"/>
-      <c r="F479" s="5"/>
+      <c r="D479" s="6"/>
+      <c r="E479" s="6"/>
+      <c r="F479" s="6"/>
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
       <c r="I479" s="3"/>
@@ -15626,9 +15958,9 @@
     </row>
     <row r="480" spans="3:22">
       <c r="C480" s="3"/>
-      <c r="D480" s="5"/>
-      <c r="E480" s="5"/>
-      <c r="F480" s="5"/>
+      <c r="D480" s="6"/>
+      <c r="E480" s="6"/>
+      <c r="F480" s="6"/>
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
       <c r="I480" s="3"/>
@@ -15648,9 +15980,9 @@
     </row>
     <row r="481" spans="3:22">
       <c r="C481" s="3"/>
-      <c r="D481" s="5"/>
-      <c r="E481" s="5"/>
-      <c r="F481" s="5"/>
+      <c r="D481" s="6"/>
+      <c r="E481" s="6"/>
+      <c r="F481" s="6"/>
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
       <c r="I481" s="3"/>
@@ -15670,9 +16002,9 @@
     </row>
     <row r="482" spans="3:22">
       <c r="C482" s="3"/>
-      <c r="D482" s="5"/>
-      <c r="E482" s="5"/>
-      <c r="F482" s="5"/>
+      <c r="D482" s="6"/>
+      <c r="E482" s="6"/>
+      <c r="F482" s="6"/>
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
       <c r="I482" s="3"/>
@@ -15692,9 +16024,9 @@
     </row>
     <row r="483" spans="3:22">
       <c r="C483" s="3"/>
-      <c r="D483" s="5"/>
-      <c r="E483" s="5"/>
-      <c r="F483" s="5"/>
+      <c r="D483" s="6"/>
+      <c r="E483" s="6"/>
+      <c r="F483" s="6"/>
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
       <c r="I483" s="3"/>
@@ -15714,9 +16046,9 @@
     </row>
     <row r="484" spans="3:22">
       <c r="C484" s="3"/>
-      <c r="D484" s="5"/>
-      <c r="E484" s="5"/>
-      <c r="F484" s="5"/>
+      <c r="D484" s="6"/>
+      <c r="E484" s="6"/>
+      <c r="F484" s="6"/>
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
       <c r="I484" s="3"/>
@@ -15736,9 +16068,9 @@
     </row>
     <row r="485" spans="3:22">
       <c r="C485" s="3"/>
-      <c r="D485" s="5"/>
-      <c r="E485" s="5"/>
-      <c r="F485" s="5"/>
+      <c r="D485" s="6"/>
+      <c r="E485" s="6"/>
+      <c r="F485" s="6"/>
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
@@ -15758,9 +16090,9 @@
     </row>
     <row r="486" spans="3:22">
       <c r="C486" s="3"/>
-      <c r="D486" s="5"/>
-      <c r="E486" s="5"/>
-      <c r="F486" s="5"/>
+      <c r="D486" s="6"/>
+      <c r="E486" s="6"/>
+      <c r="F486" s="6"/>
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
       <c r="I486" s="3"/>
@@ -15780,9 +16112,9 @@
     </row>
     <row r="487" spans="3:22">
       <c r="C487" s="3"/>
-      <c r="D487" s="5"/>
-      <c r="E487" s="5"/>
-      <c r="F487" s="5"/>
+      <c r="D487" s="6"/>
+      <c r="E487" s="6"/>
+      <c r="F487" s="6"/>
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
       <c r="I487" s="3"/>
@@ -15802,9 +16134,9 @@
     </row>
     <row r="488" spans="3:22">
       <c r="C488" s="3"/>
-      <c r="D488" s="5"/>
-      <c r="E488" s="5"/>
-      <c r="F488" s="5"/>
+      <c r="D488" s="6"/>
+      <c r="E488" s="6"/>
+      <c r="F488" s="6"/>
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
@@ -15824,9 +16156,9 @@
     </row>
     <row r="489" spans="3:22">
       <c r="C489" s="3"/>
-      <c r="D489" s="5"/>
-      <c r="E489" s="5"/>
-      <c r="F489" s="5"/>
+      <c r="D489" s="6"/>
+      <c r="E489" s="6"/>
+      <c r="F489" s="6"/>
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
@@ -15846,9 +16178,9 @@
     </row>
     <row r="490" spans="3:22">
       <c r="C490" s="3"/>
-      <c r="D490" s="5"/>
-      <c r="E490" s="5"/>
-      <c r="F490" s="5"/>
+      <c r="D490" s="6"/>
+      <c r="E490" s="6"/>
+      <c r="F490" s="6"/>
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
       <c r="I490" s="3"/>
@@ -15868,9 +16200,9 @@
     </row>
     <row r="491" spans="3:22">
       <c r="C491" s="3"/>
-      <c r="D491" s="5"/>
-      <c r="E491" s="5"/>
-      <c r="F491" s="5"/>
+      <c r="D491" s="6"/>
+      <c r="E491" s="6"/>
+      <c r="F491" s="6"/>
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
       <c r="I491" s="3"/>
@@ -15890,9 +16222,9 @@
     </row>
     <row r="492" spans="3:22">
       <c r="C492" s="3"/>
-      <c r="D492" s="5"/>
-      <c r="E492" s="5"/>
-      <c r="F492" s="5"/>
+      <c r="D492" s="6"/>
+      <c r="E492" s="6"/>
+      <c r="F492" s="6"/>
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
       <c r="I492" s="3"/>
@@ -15912,9 +16244,9 @@
     </row>
     <row r="493" spans="3:22">
       <c r="C493" s="3"/>
-      <c r="D493" s="5"/>
-      <c r="E493" s="5"/>
-      <c r="F493" s="5"/>
+      <c r="D493" s="6"/>
+      <c r="E493" s="6"/>
+      <c r="F493" s="6"/>
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
       <c r="I493" s="3"/>
@@ -15934,9 +16266,9 @@
     </row>
     <row r="494" spans="3:22">
       <c r="C494" s="3"/>
-      <c r="D494" s="5"/>
-      <c r="E494" s="5"/>
-      <c r="F494" s="5"/>
+      <c r="D494" s="6"/>
+      <c r="E494" s="6"/>
+      <c r="F494" s="6"/>
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
       <c r="I494" s="3"/>
@@ -15956,9 +16288,9 @@
     </row>
     <row r="495" spans="3:22">
       <c r="C495" s="3"/>
-      <c r="D495" s="5"/>
-      <c r="E495" s="5"/>
-      <c r="F495" s="5"/>
+      <c r="D495" s="6"/>
+      <c r="E495" s="6"/>
+      <c r="F495" s="6"/>
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
       <c r="I495" s="3"/>
@@ -15978,9 +16310,9 @@
     </row>
     <row r="496" spans="3:22">
       <c r="C496" s="3"/>
-      <c r="D496" s="5"/>
-      <c r="E496" s="5"/>
-      <c r="F496" s="5"/>
+      <c r="D496" s="6"/>
+      <c r="E496" s="6"/>
+      <c r="F496" s="6"/>
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
       <c r="I496" s="3"/>
@@ -16000,9 +16332,9 @@
     </row>
     <row r="497" spans="3:22">
       <c r="C497" s="3"/>
-      <c r="D497" s="5"/>
-      <c r="E497" s="5"/>
-      <c r="F497" s="5"/>
+      <c r="D497" s="6"/>
+      <c r="E497" s="6"/>
+      <c r="F497" s="6"/>
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
@@ -16022,9 +16354,9 @@
     </row>
     <row r="498" spans="3:22">
       <c r="C498" s="3"/>
-      <c r="D498" s="5"/>
-      <c r="E498" s="5"/>
-      <c r="F498" s="5"/>
+      <c r="D498" s="6"/>
+      <c r="E498" s="6"/>
+      <c r="F498" s="6"/>
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
@@ -16044,9 +16376,9 @@
     </row>
     <row r="499" spans="3:22">
       <c r="C499" s="3"/>
-      <c r="D499" s="5"/>
-      <c r="E499" s="5"/>
-      <c r="F499" s="5"/>
+      <c r="D499" s="6"/>
+      <c r="E499" s="6"/>
+      <c r="F499" s="6"/>
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
       <c r="I499" s="3"/>
@@ -16066,9 +16398,9 @@
     </row>
     <row r="500" spans="3:22">
       <c r="C500" s="3"/>
-      <c r="D500" s="5"/>
-      <c r="E500" s="5"/>
-      <c r="F500" s="5"/>
+      <c r="D500" s="6"/>
+      <c r="E500" s="6"/>
+      <c r="F500" s="6"/>
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
@@ -16088,9 +16420,9 @@
     </row>
     <row r="501" spans="3:22">
       <c r="C501" s="3"/>
-      <c r="D501" s="5"/>
-      <c r="E501" s="5"/>
-      <c r="F501" s="5"/>
+      <c r="D501" s="6"/>
+      <c r="E501" s="6"/>
+      <c r="F501" s="6"/>
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
       <c r="I501" s="3"/>
@@ -16110,9 +16442,9 @@
     </row>
     <row r="502" spans="3:22">
       <c r="C502" s="3"/>
-      <c r="D502" s="5"/>
-      <c r="E502" s="5"/>
-      <c r="F502" s="5"/>
+      <c r="D502" s="6"/>
+      <c r="E502" s="6"/>
+      <c r="F502" s="6"/>
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
       <c r="I502" s="3"/>
@@ -16132,9 +16464,9 @@
     </row>
     <row r="503" spans="3:22">
       <c r="C503" s="3"/>
-      <c r="D503" s="5"/>
-      <c r="E503" s="5"/>
-      <c r="F503" s="5"/>
+      <c r="D503" s="6"/>
+      <c r="E503" s="6"/>
+      <c r="F503" s="6"/>
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
       <c r="I503" s="3"/>
@@ -16154,9 +16486,9 @@
     </row>
     <row r="504" spans="3:22">
       <c r="C504" s="3"/>
-      <c r="D504" s="5"/>
-      <c r="E504" s="5"/>
-      <c r="F504" s="5"/>
+      <c r="D504" s="6"/>
+      <c r="E504" s="6"/>
+      <c r="F504" s="6"/>
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
       <c r="I504" s="3"/>
@@ -16176,9 +16508,9 @@
     </row>
     <row r="505" spans="3:22">
       <c r="C505" s="3"/>
-      <c r="D505" s="5"/>
-      <c r="E505" s="5"/>
-      <c r="F505" s="5"/>
+      <c r="D505" s="6"/>
+      <c r="E505" s="6"/>
+      <c r="F505" s="6"/>
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
@@ -16198,9 +16530,9 @@
     </row>
     <row r="506" spans="3:22">
       <c r="C506" s="3"/>
-      <c r="D506" s="5"/>
-      <c r="E506" s="5"/>
-      <c r="F506" s="5"/>
+      <c r="D506" s="6"/>
+      <c r="E506" s="6"/>
+      <c r="F506" s="6"/>
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
       <c r="I506" s="3"/>
@@ -16220,9 +16552,9 @@
     </row>
     <row r="507" spans="3:22">
       <c r="C507" s="3"/>
-      <c r="D507" s="5"/>
-      <c r="E507" s="5"/>
-      <c r="F507" s="5"/>
+      <c r="D507" s="6"/>
+      <c r="E507" s="6"/>
+      <c r="F507" s="6"/>
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
       <c r="I507" s="3"/>
@@ -16242,9 +16574,9 @@
     </row>
     <row r="508" spans="3:22">
       <c r="C508" s="3"/>
-      <c r="D508" s="5"/>
-      <c r="E508" s="5"/>
-      <c r="F508" s="5"/>
+      <c r="D508" s="6"/>
+      <c r="E508" s="6"/>
+      <c r="F508" s="6"/>
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
       <c r="I508" s="3"/>
@@ -16264,9 +16596,9 @@
     </row>
     <row r="509" spans="3:22">
       <c r="C509" s="3"/>
-      <c r="D509" s="5"/>
-      <c r="E509" s="5"/>
-      <c r="F509" s="5"/>
+      <c r="D509" s="6"/>
+      <c r="E509" s="6"/>
+      <c r="F509" s="6"/>
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
@@ -16286,9 +16618,9 @@
     </row>
     <row r="510" spans="3:22">
       <c r="C510" s="3"/>
-      <c r="D510" s="5"/>
-      <c r="E510" s="5"/>
-      <c r="F510" s="5"/>
+      <c r="D510" s="6"/>
+      <c r="E510" s="6"/>
+      <c r="F510" s="6"/>
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
       <c r="I510" s="3"/>
@@ -16308,9 +16640,9 @@
     </row>
     <row r="511" spans="3:22">
       <c r="C511" s="3"/>
-      <c r="D511" s="5"/>
-      <c r="E511" s="5"/>
-      <c r="F511" s="5"/>
+      <c r="D511" s="6"/>
+      <c r="E511" s="6"/>
+      <c r="F511" s="6"/>
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
       <c r="I511" s="3"/>
@@ -16330,9 +16662,9 @@
     </row>
     <row r="512" spans="3:22">
       <c r="C512" s="3"/>
-      <c r="D512" s="5"/>
-      <c r="E512" s="5"/>
-      <c r="F512" s="5"/>
+      <c r="D512" s="6"/>
+      <c r="E512" s="6"/>
+      <c r="F512" s="6"/>
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
       <c r="I512" s="3"/>
@@ -16352,9 +16684,9 @@
     </row>
     <row r="513" spans="3:22">
       <c r="C513" s="3"/>
-      <c r="D513" s="5"/>
-      <c r="E513" s="5"/>
-      <c r="F513" s="5"/>
+      <c r="D513" s="6"/>
+      <c r="E513" s="6"/>
+      <c r="F513" s="6"/>
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
       <c r="I513" s="3"/>
@@ -16374,9 +16706,9 @@
     </row>
     <row r="514" spans="3:22">
       <c r="C514" s="3"/>
-      <c r="D514" s="5"/>
-      <c r="E514" s="5"/>
-      <c r="F514" s="5"/>
+      <c r="D514" s="6"/>
+      <c r="E514" s="6"/>
+      <c r="F514" s="6"/>
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
       <c r="I514" s="3"/>
@@ -16396,9 +16728,9 @@
     </row>
     <row r="515" spans="3:22">
       <c r="C515" s="3"/>
-      <c r="D515" s="5"/>
-      <c r="E515" s="5"/>
-      <c r="F515" s="5"/>
+      <c r="D515" s="6"/>
+      <c r="E515" s="6"/>
+      <c r="F515" s="6"/>
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
       <c r="I515" s="3"/>
@@ -16418,9 +16750,9 @@
     </row>
     <row r="516" spans="3:22">
       <c r="C516" s="3"/>
-      <c r="D516" s="5"/>
-      <c r="E516" s="5"/>
-      <c r="F516" s="5"/>
+      <c r="D516" s="6"/>
+      <c r="E516" s="6"/>
+      <c r="F516" s="6"/>
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
@@ -16440,9 +16772,9 @@
     </row>
     <row r="517" spans="3:22">
       <c r="C517" s="3"/>
-      <c r="D517" s="5"/>
-      <c r="E517" s="5"/>
-      <c r="F517" s="5"/>
+      <c r="D517" s="6"/>
+      <c r="E517" s="6"/>
+      <c r="F517" s="6"/>
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
       <c r="I517" s="3"/>
@@ -16462,9 +16794,9 @@
     </row>
     <row r="518" spans="3:22">
       <c r="C518" s="3"/>
-      <c r="D518" s="5"/>
-      <c r="E518" s="5"/>
-      <c r="F518" s="5"/>
+      <c r="D518" s="6"/>
+      <c r="E518" s="6"/>
+      <c r="F518" s="6"/>
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
       <c r="I518" s="3"/>
@@ -16484,9 +16816,9 @@
     </row>
     <row r="519" spans="3:22">
       <c r="C519" s="3"/>
-      <c r="D519" s="5"/>
-      <c r="E519" s="5"/>
-      <c r="F519" s="5"/>
+      <c r="D519" s="6"/>
+      <c r="E519" s="6"/>
+      <c r="F519" s="6"/>
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
       <c r="I519" s="3"/>
@@ -16506,9 +16838,9 @@
     </row>
     <row r="520" spans="3:22">
       <c r="C520" s="3"/>
-      <c r="D520" s="5"/>
-      <c r="E520" s="5"/>
-      <c r="F520" s="5"/>
+      <c r="D520" s="6"/>
+      <c r="E520" s="6"/>
+      <c r="F520" s="6"/>
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
@@ -16528,9 +16860,9 @@
     </row>
     <row r="521" spans="3:22">
       <c r="C521" s="3"/>
-      <c r="D521" s="5"/>
-      <c r="E521" s="5"/>
-      <c r="F521" s="5"/>
+      <c r="D521" s="6"/>
+      <c r="E521" s="6"/>
+      <c r="F521" s="6"/>
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
       <c r="I521" s="3"/>
@@ -16550,9 +16882,9 @@
     </row>
     <row r="522" spans="3:22">
       <c r="C522" s="3"/>
-      <c r="D522" s="5"/>
-      <c r="E522" s="5"/>
-      <c r="F522" s="5"/>
+      <c r="D522" s="6"/>
+      <c r="E522" s="6"/>
+      <c r="F522" s="6"/>
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
       <c r="I522" s="3"/>
@@ -16572,9 +16904,9 @@
     </row>
     <row r="523" spans="3:22">
       <c r="C523" s="3"/>
-      <c r="D523" s="5"/>
-      <c r="E523" s="5"/>
-      <c r="F523" s="5"/>
+      <c r="D523" s="6"/>
+      <c r="E523" s="6"/>
+      <c r="F523" s="6"/>
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
       <c r="I523" s="3"/>
@@ -16594,9 +16926,9 @@
     </row>
     <row r="524" spans="3:22">
       <c r="C524" s="3"/>
-      <c r="D524" s="5"/>
-      <c r="E524" s="5"/>
-      <c r="F524" s="5"/>
+      <c r="D524" s="6"/>
+      <c r="E524" s="6"/>
+      <c r="F524" s="6"/>
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
       <c r="I524" s="3"/>
@@ -16616,9 +16948,9 @@
     </row>
     <row r="525" spans="3:22">
       <c r="C525" s="3"/>
-      <c r="D525" s="5"/>
-      <c r="E525" s="5"/>
-      <c r="F525" s="5"/>
+      <c r="D525" s="6"/>
+      <c r="E525" s="6"/>
+      <c r="F525" s="6"/>
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
       <c r="I525" s="3"/>
@@ -16638,9 +16970,9 @@
     </row>
     <row r="526" spans="3:22">
       <c r="C526" s="3"/>
-      <c r="D526" s="5"/>
-      <c r="E526" s="5"/>
-      <c r="F526" s="5"/>
+      <c r="D526" s="6"/>
+      <c r="E526" s="6"/>
+      <c r="F526" s="6"/>
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
       <c r="I526" s="3"/>
@@ -16660,9 +16992,9 @@
     </row>
     <row r="527" spans="3:22">
       <c r="C527" s="3"/>
-      <c r="D527" s="5"/>
-      <c r="E527" s="5"/>
-      <c r="F527" s="5"/>
+      <c r="D527" s="6"/>
+      <c r="E527" s="6"/>
+      <c r="F527" s="6"/>
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
       <c r="I527" s="3"/>
@@ -16682,9 +17014,9 @@
     </row>
     <row r="528" spans="3:22">
       <c r="C528" s="3"/>
-      <c r="D528" s="5"/>
-      <c r="E528" s="5"/>
-      <c r="F528" s="5"/>
+      <c r="D528" s="6"/>
+      <c r="E528" s="6"/>
+      <c r="F528" s="6"/>
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
       <c r="I528" s="3"/>
@@ -16704,9 +17036,9 @@
     </row>
     <row r="529" spans="3:22">
       <c r="C529" s="3"/>
-      <c r="D529" s="5"/>
-      <c r="E529" s="5"/>
-      <c r="F529" s="5"/>
+      <c r="D529" s="6"/>
+      <c r="E529" s="6"/>
+      <c r="F529" s="6"/>
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
       <c r="I529" s="3"/>
@@ -16726,9 +17058,9 @@
     </row>
     <row r="530" spans="3:22">
       <c r="C530" s="3"/>
-      <c r="D530" s="5"/>
-      <c r="E530" s="5"/>
-      <c r="F530" s="5"/>
+      <c r="D530" s="6"/>
+      <c r="E530" s="6"/>
+      <c r="F530" s="6"/>
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
       <c r="I530" s="3"/>
@@ -16748,9 +17080,9 @@
     </row>
     <row r="531" spans="3:22">
       <c r="C531" s="3"/>
-      <c r="D531" s="5"/>
-      <c r="E531" s="5"/>
-      <c r="F531" s="5"/>
+      <c r="D531" s="6"/>
+      <c r="E531" s="6"/>
+      <c r="F531" s="6"/>
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
@@ -16770,9 +17102,9 @@
     </row>
     <row r="532" spans="3:22">
       <c r="C532" s="3"/>
-      <c r="D532" s="5"/>
-      <c r="E532" s="5"/>
-      <c r="F532" s="5"/>
+      <c r="D532" s="6"/>
+      <c r="E532" s="6"/>
+      <c r="F532" s="6"/>
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
       <c r="I532" s="3"/>
@@ -16792,9 +17124,9 @@
     </row>
     <row r="533" spans="3:22">
       <c r="C533" s="3"/>
-      <c r="D533" s="5"/>
-      <c r="E533" s="5"/>
-      <c r="F533" s="5"/>
+      <c r="D533" s="6"/>
+      <c r="E533" s="6"/>
+      <c r="F533" s="6"/>
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
       <c r="I533" s="3"/>
@@ -16814,9 +17146,9 @@
     </row>
     <row r="534" spans="3:22">
       <c r="C534" s="3"/>
-      <c r="D534" s="5"/>
-      <c r="E534" s="5"/>
-      <c r="F534" s="5"/>
+      <c r="D534" s="6"/>
+      <c r="E534" s="6"/>
+      <c r="F534" s="6"/>
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
       <c r="I534" s="3"/>
@@ -16836,9 +17168,9 @@
     </row>
     <row r="535" spans="3:22">
       <c r="C535" s="3"/>
-      <c r="D535" s="5"/>
-      <c r="E535" s="5"/>
-      <c r="F535" s="5"/>
+      <c r="D535" s="6"/>
+      <c r="E535" s="6"/>
+      <c r="F535" s="6"/>
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
       <c r="I535" s="3"/>
@@ -16858,9 +17190,9 @@
     </row>
     <row r="536" spans="3:22">
       <c r="C536" s="3"/>
-      <c r="D536" s="5"/>
-      <c r="E536" s="5"/>
-      <c r="F536" s="5"/>
+      <c r="D536" s="6"/>
+      <c r="E536" s="6"/>
+      <c r="F536" s="6"/>
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
@@ -16880,9 +17212,9 @@
     </row>
     <row r="537" spans="3:22">
       <c r="C537" s="3"/>
-      <c r="D537" s="5"/>
-      <c r="E537" s="5"/>
-      <c r="F537" s="5"/>
+      <c r="D537" s="6"/>
+      <c r="E537" s="6"/>
+      <c r="F537" s="6"/>
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
       <c r="I537" s="3"/>
@@ -16902,9 +17234,9 @@
     </row>
     <row r="538" spans="3:22">
       <c r="C538" s="3"/>
-      <c r="D538" s="5"/>
-      <c r="E538" s="5"/>
-      <c r="F538" s="5"/>
+      <c r="D538" s="6"/>
+      <c r="E538" s="6"/>
+      <c r="F538" s="6"/>
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
       <c r="I538" s="3"/>
@@ -16924,9 +17256,9 @@
     </row>
     <row r="539" spans="3:22">
       <c r="C539" s="3"/>
-      <c r="D539" s="5"/>
-      <c r="E539" s="5"/>
-      <c r="F539" s="5"/>
+      <c r="D539" s="6"/>
+      <c r="E539" s="6"/>
+      <c r="F539" s="6"/>
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
       <c r="I539" s="3"/>
@@ -16946,9 +17278,9 @@
     </row>
     <row r="540" spans="3:22">
       <c r="C540" s="3"/>
-      <c r="D540" s="5"/>
-      <c r="E540" s="5"/>
-      <c r="F540" s="5"/>
+      <c r="D540" s="6"/>
+      <c r="E540" s="6"/>
+      <c r="F540" s="6"/>
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
       <c r="I540" s="3"/>
@@ -16968,9 +17300,9 @@
     </row>
     <row r="541" spans="3:22">
       <c r="C541" s="3"/>
-      <c r="D541" s="5"/>
-      <c r="E541" s="5"/>
-      <c r="F541" s="5"/>
+      <c r="D541" s="6"/>
+      <c r="E541" s="6"/>
+      <c r="F541" s="6"/>
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
       <c r="I541" s="3"/>
@@ -16990,9 +17322,9 @@
     </row>
     <row r="542" spans="3:22">
       <c r="C542" s="3"/>
-      <c r="D542" s="5"/>
-      <c r="E542" s="5"/>
-      <c r="F542" s="5"/>
+      <c r="D542" s="6"/>
+      <c r="E542" s="6"/>
+      <c r="F542" s="6"/>
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
       <c r="I542" s="3"/>
@@ -17012,9 +17344,9 @@
     </row>
     <row r="543" spans="3:22">
       <c r="C543" s="3"/>
-      <c r="D543" s="5"/>
-      <c r="E543" s="5"/>
-      <c r="F543" s="5"/>
+      <c r="D543" s="6"/>
+      <c r="E543" s="6"/>
+      <c r="F543" s="6"/>
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
       <c r="I543" s="3"/>
@@ -17034,9 +17366,9 @@
     </row>
     <row r="544" spans="3:22">
       <c r="C544" s="3"/>
-      <c r="D544" s="5"/>
-      <c r="E544" s="5"/>
-      <c r="F544" s="5"/>
+      <c r="D544" s="6"/>
+      <c r="E544" s="6"/>
+      <c r="F544" s="6"/>
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
       <c r="I544" s="3"/>
@@ -17056,9 +17388,9 @@
     </row>
     <row r="545" spans="3:22">
       <c r="C545" s="3"/>
-      <c r="D545" s="5"/>
-      <c r="E545" s="5"/>
-      <c r="F545" s="5"/>
+      <c r="D545" s="6"/>
+      <c r="E545" s="6"/>
+      <c r="F545" s="6"/>
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
       <c r="I545" s="3"/>
@@ -17078,9 +17410,9 @@
     </row>
     <row r="546" spans="3:22">
       <c r="C546" s="3"/>
-      <c r="D546" s="5"/>
-      <c r="E546" s="5"/>
-      <c r="F546" s="5"/>
+      <c r="D546" s="6"/>
+      <c r="E546" s="6"/>
+      <c r="F546" s="6"/>
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
       <c r="I546" s="3"/>
@@ -17100,9 +17432,9 @@
     </row>
     <row r="547" spans="3:22">
       <c r="C547" s="3"/>
-      <c r="D547" s="5"/>
-      <c r="E547" s="5"/>
-      <c r="F547" s="5"/>
+      <c r="D547" s="6"/>
+      <c r="E547" s="6"/>
+      <c r="F547" s="6"/>
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
       <c r="I547" s="3"/>
@@ -17122,9 +17454,9 @@
     </row>
     <row r="548" spans="3:22">
       <c r="C548" s="3"/>
-      <c r="D548" s="5"/>
-      <c r="E548" s="5"/>
-      <c r="F548" s="5"/>
+      <c r="D548" s="6"/>
+      <c r="E548" s="6"/>
+      <c r="F548" s="6"/>
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
       <c r="I548" s="3"/>
@@ -17144,9 +17476,9 @@
     </row>
     <row r="549" spans="3:22">
       <c r="C549" s="3"/>
-      <c r="D549" s="5"/>
-      <c r="E549" s="5"/>
-      <c r="F549" s="5"/>
+      <c r="D549" s="6"/>
+      <c r="E549" s="6"/>
+      <c r="F549" s="6"/>
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
       <c r="I549" s="3"/>
@@ -17166,9 +17498,9 @@
     </row>
     <row r="550" spans="3:22">
       <c r="C550" s="3"/>
-      <c r="D550" s="5"/>
-      <c r="E550" s="5"/>
-      <c r="F550" s="5"/>
+      <c r="D550" s="6"/>
+      <c r="E550" s="6"/>
+      <c r="F550" s="6"/>
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
       <c r="I550" s="3"/>
@@ -17188,9 +17520,9 @@
     </row>
     <row r="551" spans="3:22">
       <c r="C551" s="3"/>
-      <c r="D551" s="5"/>
-      <c r="E551" s="5"/>
-      <c r="F551" s="5"/>
+      <c r="D551" s="6"/>
+      <c r="E551" s="6"/>
+      <c r="F551" s="6"/>
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
       <c r="I551" s="3"/>
@@ -17210,9 +17542,9 @@
     </row>
     <row r="552" spans="3:22">
       <c r="C552" s="3"/>
-      <c r="D552" s="5"/>
-      <c r="E552" s="5"/>
-      <c r="F552" s="5"/>
+      <c r="D552" s="6"/>
+      <c r="E552" s="6"/>
+      <c r="F552" s="6"/>
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
       <c r="I552" s="3"/>
@@ -17232,9 +17564,9 @@
     </row>
     <row r="553" spans="3:22">
       <c r="C553" s="3"/>
-      <c r="D553" s="5"/>
-      <c r="E553" s="5"/>
-      <c r="F553" s="5"/>
+      <c r="D553" s="6"/>
+      <c r="E553" s="6"/>
+      <c r="F553" s="6"/>
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
@@ -17254,9 +17586,9 @@
     </row>
     <row r="554" spans="3:22">
       <c r="C554" s="3"/>
-      <c r="D554" s="5"/>
-      <c r="E554" s="5"/>
-      <c r="F554" s="5"/>
+      <c r="D554" s="6"/>
+      <c r="E554" s="6"/>
+      <c r="F554" s="6"/>
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
       <c r="I554" s="3"/>
@@ -17276,9 +17608,9 @@
     </row>
     <row r="555" spans="3:22">
       <c r="C555" s="3"/>
-      <c r="D555" s="5"/>
-      <c r="E555" s="5"/>
-      <c r="F555" s="5"/>
+      <c r="D555" s="6"/>
+      <c r="E555" s="6"/>
+      <c r="F555" s="6"/>
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
       <c r="I555" s="3"/>
@@ -17298,9 +17630,9 @@
     </row>
     <row r="556" spans="3:22">
       <c r="C556" s="3"/>
-      <c r="D556" s="5"/>
-      <c r="E556" s="5"/>
-      <c r="F556" s="5"/>
+      <c r="D556" s="6"/>
+      <c r="E556" s="6"/>
+      <c r="F556" s="6"/>
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
@@ -17320,9 +17652,9 @@
     </row>
     <row r="557" spans="3:22">
       <c r="C557" s="3"/>
-      <c r="D557" s="5"/>
-      <c r="E557" s="5"/>
-      <c r="F557" s="5"/>
+      <c r="D557" s="6"/>
+      <c r="E557" s="6"/>
+      <c r="F557" s="6"/>
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
       <c r="I557" s="3"/>
@@ -17342,9 +17674,9 @@
     </row>
     <row r="558" spans="3:22">
       <c r="C558" s="3"/>
-      <c r="D558" s="5"/>
-      <c r="E558" s="5"/>
-      <c r="F558" s="5"/>
+      <c r="D558" s="6"/>
+      <c r="E558" s="6"/>
+      <c r="F558" s="6"/>
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
       <c r="I558" s="3"/>
@@ -17364,9 +17696,9 @@
     </row>
     <row r="559" spans="3:22">
       <c r="C559" s="3"/>
-      <c r="D559" s="5"/>
-      <c r="E559" s="5"/>
-      <c r="F559" s="5"/>
+      <c r="D559" s="6"/>
+      <c r="E559" s="6"/>
+      <c r="F559" s="6"/>
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
       <c r="I559" s="3"/>
@@ -17386,9 +17718,9 @@
     </row>
     <row r="560" spans="3:22">
       <c r="C560" s="3"/>
-      <c r="D560" s="5"/>
-      <c r="E560" s="5"/>
-      <c r="F560" s="5"/>
+      <c r="D560" s="6"/>
+      <c r="E560" s="6"/>
+      <c r="F560" s="6"/>
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
       <c r="I560" s="3"/>
@@ -17408,9 +17740,9 @@
     </row>
     <row r="561" spans="3:22">
       <c r="C561" s="3"/>
-      <c r="D561" s="5"/>
-      <c r="E561" s="5"/>
-      <c r="F561" s="5"/>
+      <c r="D561" s="6"/>
+      <c r="E561" s="6"/>
+      <c r="F561" s="6"/>
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
       <c r="I561" s="3"/>
@@ -17430,9 +17762,9 @@
     </row>
     <row r="562" spans="3:22">
       <c r="C562" s="3"/>
-      <c r="D562" s="5"/>
-      <c r="E562" s="5"/>
-      <c r="F562" s="5"/>
+      <c r="D562" s="6"/>
+      <c r="E562" s="6"/>
+      <c r="F562" s="6"/>
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
       <c r="I562" s="3"/>
@@ -17452,9 +17784,9 @@
     </row>
     <row r="563" spans="3:22">
       <c r="C563" s="3"/>
-      <c r="D563" s="5"/>
-      <c r="E563" s="5"/>
-      <c r="F563" s="5"/>
+      <c r="D563" s="6"/>
+      <c r="E563" s="6"/>
+      <c r="F563" s="6"/>
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
       <c r="I563" s="3"/>
@@ -17474,9 +17806,9 @@
     </row>
     <row r="564" spans="3:22">
       <c r="C564" s="3"/>
-      <c r="D564" s="5"/>
-      <c r="E564" s="5"/>
-      <c r="F564" s="5"/>
+      <c r="D564" s="6"/>
+      <c r="E564" s="6"/>
+      <c r="F564" s="6"/>
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
       <c r="I564" s="3"/>
@@ -17496,9 +17828,9 @@
     </row>
     <row r="565" spans="3:22">
       <c r="C565" s="3"/>
-      <c r="D565" s="5"/>
-      <c r="E565" s="5"/>
-      <c r="F565" s="5"/>
+      <c r="D565" s="6"/>
+      <c r="E565" s="6"/>
+      <c r="F565" s="6"/>
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
       <c r="I565" s="3"/>
@@ -17518,9 +17850,9 @@
     </row>
     <row r="566" spans="3:22">
       <c r="C566" s="3"/>
-      <c r="D566" s="5"/>
-      <c r="E566" s="5"/>
-      <c r="F566" s="5"/>
+      <c r="D566" s="6"/>
+      <c r="E566" s="6"/>
+      <c r="F566" s="6"/>
       <c r="G566" s="3"/>
       <c r="H566" s="3"/>
       <c r="I566" s="3"/>
@@ -17540,9 +17872,9 @@
     </row>
     <row r="567" spans="3:22">
       <c r="C567" s="3"/>
-      <c r="D567" s="5"/>
-      <c r="E567" s="5"/>
-      <c r="F567" s="5"/>
+      <c r="D567" s="6"/>
+      <c r="E567" s="6"/>
+      <c r="F567" s="6"/>
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
       <c r="I567" s="3"/>
@@ -17562,9 +17894,9 @@
     </row>
     <row r="568" spans="3:22">
       <c r="C568" s="3"/>
-      <c r="D568" s="5"/>
-      <c r="E568" s="5"/>
-      <c r="F568" s="5"/>
+      <c r="D568" s="6"/>
+      <c r="E568" s="6"/>
+      <c r="F568" s="6"/>
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
       <c r="I568" s="3"/>
@@ -17584,9 +17916,9 @@
     </row>
     <row r="569" spans="3:22">
       <c r="C569" s="3"/>
-      <c r="D569" s="5"/>
-      <c r="E569" s="5"/>
-      <c r="F569" s="5"/>
+      <c r="D569" s="6"/>
+      <c r="E569" s="6"/>
+      <c r="F569" s="6"/>
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
       <c r="I569" s="3"/>
@@ -17606,9 +17938,9 @@
     </row>
     <row r="570" spans="3:22">
       <c r="C570" s="3"/>
-      <c r="D570" s="5"/>
-      <c r="E570" s="5"/>
-      <c r="F570" s="5"/>
+      <c r="D570" s="6"/>
+      <c r="E570" s="6"/>
+      <c r="F570" s="6"/>
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
       <c r="I570" s="3"/>
@@ -17628,9 +17960,9 @@
     </row>
     <row r="571" spans="3:22">
       <c r="C571" s="3"/>
-      <c r="D571" s="5"/>
-      <c r="E571" s="5"/>
-      <c r="F571" s="5"/>
+      <c r="D571" s="6"/>
+      <c r="E571" s="6"/>
+      <c r="F571" s="6"/>
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
       <c r="I571" s="3"/>
@@ -17650,9 +17982,9 @@
     </row>
     <row r="572" spans="3:22">
       <c r="C572" s="3"/>
-      <c r="D572" s="5"/>
-      <c r="E572" s="5"/>
-      <c r="F572" s="5"/>
+      <c r="D572" s="6"/>
+      <c r="E572" s="6"/>
+      <c r="F572" s="6"/>
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
       <c r="I572" s="3"/>
@@ -17672,9 +18004,9 @@
     </row>
     <row r="573" spans="3:22">
       <c r="C573" s="3"/>
-      <c r="D573" s="5"/>
-      <c r="E573" s="5"/>
-      <c r="F573" s="5"/>
+      <c r="D573" s="6"/>
+      <c r="E573" s="6"/>
+      <c r="F573" s="6"/>
       <c r="G573" s="3"/>
       <c r="H573" s="3"/>
       <c r="I573" s="3"/>
@@ -17694,9 +18026,9 @@
     </row>
     <row r="574" spans="3:22">
       <c r="C574" s="3"/>
-      <c r="D574" s="5"/>
-      <c r="E574" s="5"/>
-      <c r="F574" s="5"/>
+      <c r="D574" s="6"/>
+      <c r="E574" s="6"/>
+      <c r="F574" s="6"/>
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
       <c r="I574" s="3"/>
@@ -17715,7 +18047,8 @@
       <c r="V574" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="602">
   <si>
     <t>int</t>
   </si>
@@ -632,156 +632,159 @@
     <t>Collection</t>
   </si>
   <si>
+    <t>保存穿搭</t>
+  </si>
+  <si>
+    <t>Text_Tab1_4</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>Text_Tab2_101</t>
+  </si>
+  <si>
+    <t>Body Type</t>
+  </si>
+  <si>
+    <t>体型</t>
+  </si>
+  <si>
+    <t>Text_Tab2_102</t>
+  </si>
+  <si>
+    <t>Skin Tone</t>
+  </si>
+  <si>
+    <t>肤色</t>
+  </si>
+  <si>
+    <t>Text_Tab2_103</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>脸型</t>
+  </si>
+  <si>
+    <t>Text_Tab2_104</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>Text_Tab2_105</t>
+  </si>
+  <si>
+    <t>Eyebrows</t>
+  </si>
+  <si>
+    <t>眉毛</t>
+  </si>
+  <si>
+    <t>Text_Tab2_106</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>妆容</t>
+  </si>
+  <si>
+    <t>Text_Tab2_107</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>表情</t>
+  </si>
+  <si>
+    <t>Text_Tab2_108</t>
+  </si>
+  <si>
+    <t>Outfit</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
+    <t>Text_Tab2_109</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>Text_Tab2_110</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>上衣</t>
+  </si>
+  <si>
+    <t>Text_Tab2_111</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>下衣</t>
+  </si>
+  <si>
+    <t>Text_Tab2_112</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>Text_Tab2_113</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>Text_Tab2_114</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>Text_Tab2_115</t>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>Text_Tab2_501</t>
+  </si>
+  <si>
     <t>收藏</t>
   </si>
   <si>
-    <t>Text_Tab1_4</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>Text_Tab2_101</t>
-  </si>
-  <si>
-    <t>Body Type</t>
-  </si>
-  <si>
-    <t>体型</t>
-  </si>
-  <si>
-    <t>Text_Tab2_102</t>
-  </si>
-  <si>
-    <t>Skin Tone</t>
-  </si>
-  <si>
-    <t>肤色</t>
-  </si>
-  <si>
-    <t>Text_Tab2_103</t>
-  </si>
-  <si>
-    <t>Face</t>
-  </si>
-  <si>
-    <t>脸型</t>
-  </si>
-  <si>
-    <t>Text_Tab2_104</t>
-  </si>
-  <si>
-    <t>Eyes</t>
-  </si>
-  <si>
-    <t>眼睛</t>
-  </si>
-  <si>
-    <t>Text_Tab2_105</t>
-  </si>
-  <si>
-    <t>Eyebrows</t>
-  </si>
-  <si>
-    <t>眉毛</t>
-  </si>
-  <si>
-    <t>Text_Tab2_106</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>妆容</t>
-  </si>
-  <si>
-    <t>Text_Tab2_107</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>表情</t>
-  </si>
-  <si>
-    <t>Text_Tab2_108</t>
-  </si>
-  <si>
-    <t>Outfit</t>
-  </si>
-  <si>
-    <t>套装</t>
-  </si>
-  <si>
-    <t>Text_Tab2_109</t>
-  </si>
-  <si>
-    <t>Hair</t>
-  </si>
-  <si>
-    <t>头发</t>
-  </si>
-  <si>
-    <t>Text_Tab2_110</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>上衣</t>
-  </si>
-  <si>
-    <t>Text_Tab2_111</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>下衣</t>
-  </si>
-  <si>
-    <t>Text_Tab2_112</t>
-  </si>
-  <si>
-    <t>Gloves</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>Text_Tab2_113</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>手套</t>
-  </si>
-  <si>
-    <t>Text_Tab2_114</t>
-  </si>
-  <si>
-    <t>Pet</t>
-  </si>
-  <si>
-    <t>宠物</t>
-  </si>
-  <si>
-    <t>Text_Tab2_115</t>
-  </si>
-  <si>
-    <t>Accessory</t>
-  </si>
-  <si>
-    <t>饰品</t>
-  </si>
-  <si>
-    <t>Text_Tab2_501</t>
-  </si>
-  <si>
     <t>Text_Tab2_502</t>
   </si>
   <si>
@@ -1806,6 +1809,34 @@
   </si>
   <si>
     <t>灵宠</t>
+  </si>
+  <si>
+    <t>Text_SaveSuccefully</t>
+  </si>
+  <si>
+    <t>Save Succefully</t>
+  </si>
+  <si>
+    <t>保存穿搭成功</t>
+  </si>
+  <si>
+    <t>Text_SaveCurrentCharacter</t>
+  </si>
+  <si>
+    <t>保存当前穿搭
+（{0}/{1}）</t>
+  </si>
+  <si>
+    <t>Text_MaxSaveCount</t>
+  </si>
+  <si>
+    <t>最多只能保存{0}个</t>
+  </si>
+  <si>
+    <t>Text_DeleteSucceed</t>
+  </si>
+  <si>
+    <t>删除成功</t>
   </si>
 </sst>
 </file>
@@ -2803,8 +2834,8 @@
   </sheetPr>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C231" sqref="C231"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -5320,7 +5351,7 @@
         <v>206</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -5343,7 +5374,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>208</v>
@@ -5352,7 +5383,7 @@
         <v>209</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -5375,7 +5406,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>211</v>
@@ -5384,7 +5415,7 @@
         <v>212</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -5407,7 +5438,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>214</v>
@@ -5416,7 +5447,7 @@
         <v>215</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -5439,7 +5470,7 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>217</v>
@@ -5448,7 +5479,7 @@
         <v>218</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -5471,7 +5502,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>220</v>
@@ -5480,7 +5511,7 @@
         <v>221</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -5503,7 +5534,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>223</v>
@@ -5512,7 +5543,7 @@
         <v>224</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -5535,7 +5566,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>226</v>
@@ -5544,7 +5575,7 @@
         <v>227</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -5567,7 +5598,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>229</v>
@@ -5576,7 +5607,7 @@
         <v>230</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -5599,7 +5630,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>232</v>
@@ -5608,7 +5639,7 @@
         <v>233</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -5631,7 +5662,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>235</v>
@@ -5640,7 +5671,7 @@
         <v>236</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -5663,7 +5694,7 @@
         <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>238</v>
@@ -5672,7 +5703,7 @@
         <v>239</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -5695,7 +5726,7 @@
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>241</v>
@@ -5704,7 +5735,7 @@
         <v>242</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -5727,7 +5758,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>244</v>
@@ -5736,7 +5767,7 @@
         <v>245</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -5759,7 +5790,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>247</v>
@@ -5768,7 +5799,7 @@
         <v>248</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -5791,13 +5822,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5821,13 +5852,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -5851,13 +5882,13 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -5881,13 +5912,13 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -5911,13 +5942,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -5941,13 +5972,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5971,13 +6002,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -6001,13 +6032,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -6031,13 +6062,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -6061,13 +6092,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -6091,13 +6122,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -6121,13 +6152,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -6151,13 +6182,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -6181,13 +6212,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -6211,13 +6242,13 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -6241,13 +6272,13 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -6271,13 +6302,13 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -6301,13 +6332,13 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -6331,13 +6362,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -6361,13 +6392,13 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -6391,16 +6422,16 @@
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -6423,16 +6454,16 @@
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -6455,16 +6486,16 @@
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -6487,16 +6518,16 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -6519,16 +6550,16 @@
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -6551,16 +6582,16 @@
         <v>120</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -6583,16 +6614,16 @@
         <v>121</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -6615,16 +6646,16 @@
         <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -6647,16 +6678,16 @@
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -6679,16 +6710,16 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -6711,16 +6742,16 @@
         <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -6743,16 +6774,16 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -6775,16 +6806,16 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -6807,16 +6838,16 @@
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -6839,16 +6870,16 @@
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -6871,16 +6902,16 @@
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -6903,16 +6934,16 @@
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6935,16 +6966,16 @@
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -6967,16 +6998,16 @@
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -6999,16 +7030,16 @@
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -7031,13 +7062,13 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -7061,13 +7092,13 @@
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -7091,13 +7122,13 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -7121,13 +7152,13 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -7151,13 +7182,13 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -7181,13 +7212,13 @@
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -7211,13 +7242,13 @@
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -7241,13 +7272,13 @@
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -7271,13 +7302,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -7301,13 +7332,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -7331,13 +7362,13 @@
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -7361,13 +7392,13 @@
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -7391,13 +7422,13 @@
         <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -7421,13 +7452,13 @@
         <v>148</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -7451,13 +7482,13 @@
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -7481,16 +7512,16 @@
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -7513,13 +7544,13 @@
         <v>151</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -7543,13 +7574,13 @@
         <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -7573,13 +7604,13 @@
         <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -7603,13 +7634,13 @@
         <v>154</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -7633,13 +7664,13 @@
         <v>155</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -7663,13 +7694,13 @@
         <v>156</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -7693,13 +7724,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -7723,13 +7754,13 @@
         <v>158</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -7753,13 +7784,13 @@
         <v>159</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -7783,13 +7814,13 @@
         <v>160</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -7813,13 +7844,13 @@
         <v>161</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -7843,13 +7874,13 @@
         <v>162</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -7873,13 +7904,13 @@
         <v>163</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -7903,13 +7934,13 @@
         <v>164</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -7933,13 +7964,13 @@
         <v>165</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -7963,13 +7994,13 @@
         <v>166</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -7993,13 +8024,13 @@
         <v>167</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -8023,13 +8054,13 @@
         <v>168</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -8053,13 +8084,13 @@
         <v>169</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -8083,13 +8114,13 @@
         <v>170</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -8113,13 +8144,13 @@
         <v>171</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -8143,13 +8174,13 @@
         <v>172</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -8173,13 +8204,13 @@
         <v>173</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -8203,13 +8234,13 @@
         <v>174</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -8233,13 +8264,13 @@
         <v>175</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -8263,13 +8294,13 @@
         <v>176</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -8293,13 +8324,13 @@
         <v>177</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -8323,13 +8354,13 @@
         <v>178</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -8353,13 +8384,13 @@
         <v>179</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -8383,13 +8414,13 @@
         <v>180</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -8413,13 +8444,13 @@
         <v>181</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -8443,13 +8474,13 @@
         <v>182</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -8473,13 +8504,13 @@
         <v>183</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -8503,13 +8534,13 @@
         <v>184</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -8533,13 +8564,13 @@
         <v>185</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -8563,13 +8594,13 @@
         <v>186</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -8593,13 +8624,13 @@
         <v>187</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -8625,13 +8656,13 @@
         <v>188</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -8657,13 +8688,13 @@
         <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -8689,13 +8720,13 @@
         <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -8721,13 +8752,13 @@
         <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -8753,7 +8784,7 @@
         <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>226</v>
@@ -8785,13 +8816,13 @@
         <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -8817,13 +8848,13 @@
         <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -8849,13 +8880,13 @@
         <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -8881,13 +8912,13 @@
         <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
@@ -8913,13 +8944,13 @@
         <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -8945,13 +8976,13 @@
         <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -8977,7 +9008,7 @@
         <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>238</v>
@@ -9009,13 +9040,13 @@
         <v>200</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -9041,13 +9072,13 @@
         <v>201</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
@@ -9073,13 +9104,13 @@
         <v>202</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
@@ -9105,13 +9136,13 @@
         <v>203</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -9137,13 +9168,13 @@
         <v>204</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
@@ -9169,13 +9200,13 @@
         <v>205</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -9201,13 +9232,13 @@
         <v>206</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -9233,13 +9264,13 @@
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
@@ -9265,11 +9296,11 @@
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
@@ -9295,11 +9326,11 @@
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
@@ -9325,11 +9356,11 @@
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
@@ -9355,11 +9386,11 @@
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
@@ -9385,7 +9416,7 @@
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
@@ -9415,11 +9446,11 @@
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
@@ -9445,7 +9476,7 @@
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
@@ -9475,7 +9506,7 @@
         <v>215</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3" t="s">
@@ -9505,7 +9536,7 @@
         <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
@@ -9535,11 +9566,11 @@
         <v>217</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -9565,11 +9596,11 @@
         <v>218</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
@@ -9595,11 +9626,11 @@
         <v>219</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
@@ -9625,11 +9656,11 @@
         <v>220</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
@@ -9655,11 +9686,11 @@
         <v>221</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
@@ -9685,11 +9716,11 @@
         <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
@@ -9715,11 +9746,11 @@
         <v>223</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
@@ -9745,11 +9776,11 @@
         <v>224</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
@@ -9775,11 +9806,11 @@
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
@@ -9805,11 +9836,11 @@
         <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
@@ -9835,13 +9866,13 @@
         <v>227</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
@@ -9863,10 +9894,18 @@
       <c r="V231" s="3"/>
     </row>
     <row r="232" ht="17" customHeight="1" spans="1:22">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
+      <c r="A232" s="1">
+        <v>228</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>595</v>
+      </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
@@ -9887,10 +9926,16 @@
       <c r="V232" s="3"/>
     </row>
     <row r="233" ht="17" customHeight="1" spans="1:22">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="A233" s="1">
+        <v>229</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
+      <c r="D233" s="4" t="s">
+        <v>597</v>
+      </c>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -9911,10 +9956,16 @@
       <c r="V233" s="3"/>
     </row>
     <row r="234" ht="17" customHeight="1" spans="1:22">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+      <c r="A234" s="1">
+        <v>230</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
+      <c r="D234" s="3" t="s">
+        <v>599</v>
+      </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -9935,10 +9986,16 @@
       <c r="V234" s="3"/>
     </row>
     <row r="235" ht="17" customHeight="1" spans="1:22">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+      <c r="A235" s="1">
+        <v>231</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
+      <c r="D235" s="3" t="s">
+        <v>601</v>
+      </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="602">
   <si>
     <t>int</t>
   </si>
@@ -632,156 +632,159 @@
     <t>Collection</t>
   </si>
   <si>
+    <t>保存穿搭</t>
+  </si>
+  <si>
+    <t>Text_Tab1_4</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>Text_Tab2_101</t>
+  </si>
+  <si>
+    <t>Body Type</t>
+  </si>
+  <si>
+    <t>体型</t>
+  </si>
+  <si>
+    <t>Text_Tab2_102</t>
+  </si>
+  <si>
+    <t>Skin Tone</t>
+  </si>
+  <si>
+    <t>肤色</t>
+  </si>
+  <si>
+    <t>Text_Tab2_103</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>脸型</t>
+  </si>
+  <si>
+    <t>Text_Tab2_104</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>Text_Tab2_105</t>
+  </si>
+  <si>
+    <t>Eyebrows</t>
+  </si>
+  <si>
+    <t>眉毛</t>
+  </si>
+  <si>
+    <t>Text_Tab2_106</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>妆容</t>
+  </si>
+  <si>
+    <t>Text_Tab2_107</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>表情</t>
+  </si>
+  <si>
+    <t>Text_Tab2_108</t>
+  </si>
+  <si>
+    <t>Outfit</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
+    <t>Text_Tab2_109</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>Text_Tab2_110</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>上衣</t>
+  </si>
+  <si>
+    <t>Text_Tab2_111</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>下衣</t>
+  </si>
+  <si>
+    <t>Text_Tab2_112</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>Text_Tab2_113</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>Text_Tab2_114</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t>Text_Tab2_115</t>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>Text_Tab2_501</t>
+  </si>
+  <si>
     <t>收藏</t>
   </si>
   <si>
-    <t>Text_Tab1_4</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>Text_Tab2_101</t>
-  </si>
-  <si>
-    <t>Body Type</t>
-  </si>
-  <si>
-    <t>体型</t>
-  </si>
-  <si>
-    <t>Text_Tab2_102</t>
-  </si>
-  <si>
-    <t>Skin Tone</t>
-  </si>
-  <si>
-    <t>肤色</t>
-  </si>
-  <si>
-    <t>Text_Tab2_103</t>
-  </si>
-  <si>
-    <t>Face</t>
-  </si>
-  <si>
-    <t>脸型</t>
-  </si>
-  <si>
-    <t>Text_Tab2_104</t>
-  </si>
-  <si>
-    <t>Eyes</t>
-  </si>
-  <si>
-    <t>眼睛</t>
-  </si>
-  <si>
-    <t>Text_Tab2_105</t>
-  </si>
-  <si>
-    <t>Eyebrows</t>
-  </si>
-  <si>
-    <t>眉毛</t>
-  </si>
-  <si>
-    <t>Text_Tab2_106</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>妆容</t>
-  </si>
-  <si>
-    <t>Text_Tab2_107</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>表情</t>
-  </si>
-  <si>
-    <t>Text_Tab2_108</t>
-  </si>
-  <si>
-    <t>Outfit</t>
-  </si>
-  <si>
-    <t>套装</t>
-  </si>
-  <si>
-    <t>Text_Tab2_109</t>
-  </si>
-  <si>
-    <t>Hair</t>
-  </si>
-  <si>
-    <t>头发</t>
-  </si>
-  <si>
-    <t>Text_Tab2_110</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>上衣</t>
-  </si>
-  <si>
-    <t>Text_Tab2_111</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>下衣</t>
-  </si>
-  <si>
-    <t>Text_Tab2_112</t>
-  </si>
-  <si>
-    <t>Gloves</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>Text_Tab2_113</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>手套</t>
-  </si>
-  <si>
-    <t>Text_Tab2_114</t>
-  </si>
-  <si>
-    <t>Pet</t>
-  </si>
-  <si>
-    <t>宠物</t>
-  </si>
-  <si>
-    <t>Text_Tab2_115</t>
-  </si>
-  <si>
-    <t>Accessory</t>
-  </si>
-  <si>
-    <t>饰品</t>
-  </si>
-  <si>
-    <t>Text_Tab2_501</t>
-  </si>
-  <si>
     <t>Text_Tab2_502</t>
   </si>
   <si>
@@ -1806,6 +1809,34 @@
   </si>
   <si>
     <t>灵宠</t>
+  </si>
+  <si>
+    <t>Text_SaveSuccefully</t>
+  </si>
+  <si>
+    <t>Save Succefully</t>
+  </si>
+  <si>
+    <t>保存穿搭成功</t>
+  </si>
+  <si>
+    <t>Text_SaveCurrentCharacter</t>
+  </si>
+  <si>
+    <t>保存当前穿搭
+（{0}/{1}）</t>
+  </si>
+  <si>
+    <t>Text_MaxSaveCount</t>
+  </si>
+  <si>
+    <t>最多只能保存{0}个</t>
+  </si>
+  <si>
+    <t>Text_DeleteSucceed</t>
+  </si>
+  <si>
+    <t>删除成功</t>
   </si>
 </sst>
 </file>
@@ -2800,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -5317,7 +5348,7 @@
         <v>206</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -5340,7 +5371,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>208</v>
@@ -5349,7 +5380,7 @@
         <v>209</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -5372,7 +5403,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>211</v>
@@ -5381,7 +5412,7 @@
         <v>212</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -5404,7 +5435,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>214</v>
@@ -5413,7 +5444,7 @@
         <v>215</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -5436,7 +5467,7 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>217</v>
@@ -5445,7 +5476,7 @@
         <v>218</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -5468,7 +5499,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>220</v>
@@ -5477,7 +5508,7 @@
         <v>221</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -5500,7 +5531,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>223</v>
@@ -5509,7 +5540,7 @@
         <v>224</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -5532,7 +5563,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>226</v>
@@ -5541,7 +5572,7 @@
         <v>227</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -5564,7 +5595,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>229</v>
@@ -5573,7 +5604,7 @@
         <v>230</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -5596,7 +5627,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>232</v>
@@ -5605,7 +5636,7 @@
         <v>233</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -5628,7 +5659,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>235</v>
@@ -5637,7 +5668,7 @@
         <v>236</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -5660,7 +5691,7 @@
         <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>238</v>
@@ -5669,7 +5700,7 @@
         <v>239</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -5692,7 +5723,7 @@
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>241</v>
@@ -5701,7 +5732,7 @@
         <v>242</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -5724,7 +5755,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>244</v>
@@ -5733,7 +5764,7 @@
         <v>245</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -5756,7 +5787,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>247</v>
@@ -5765,7 +5796,7 @@
         <v>248</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -5788,13 +5819,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -5818,13 +5849,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -5848,13 +5879,13 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -5878,13 +5909,13 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -5908,13 +5939,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -5938,13 +5969,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -5968,13 +5999,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5998,13 +6029,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -6028,13 +6059,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -6058,13 +6089,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -6088,13 +6119,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -6118,13 +6149,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -6148,13 +6179,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -6178,13 +6209,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -6208,13 +6239,13 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -6238,13 +6269,13 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -6268,13 +6299,13 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -6298,13 +6329,13 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -6328,13 +6359,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -6358,13 +6389,13 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -6388,16 +6419,16 @@
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -6420,16 +6451,16 @@
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -6452,16 +6483,16 @@
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -6484,16 +6515,16 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -6516,16 +6547,16 @@
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -6548,16 +6579,16 @@
         <v>120</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -6580,16 +6611,16 @@
         <v>121</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -6612,16 +6643,16 @@
         <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -6644,16 +6675,16 @@
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -6676,16 +6707,16 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -6708,16 +6739,16 @@
         <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -6740,16 +6771,16 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -6772,16 +6803,16 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -6804,16 +6835,16 @@
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -6836,16 +6867,16 @@
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -6868,16 +6899,16 @@
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -6900,16 +6931,16 @@
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -6932,16 +6963,16 @@
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -6964,16 +6995,16 @@
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -6996,16 +7027,16 @@
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -7028,13 +7059,13 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -7058,13 +7089,13 @@
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -7088,13 +7119,13 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -7118,13 +7149,13 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -7148,13 +7179,13 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -7178,13 +7209,13 @@
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -7208,13 +7239,13 @@
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -7238,13 +7269,13 @@
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -7268,13 +7299,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -7298,13 +7329,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -7328,13 +7359,13 @@
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -7358,13 +7389,13 @@
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -7388,13 +7419,13 @@
         <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -7418,13 +7449,13 @@
         <v>148</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -7448,13 +7479,13 @@
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -7478,16 +7509,16 @@
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -7510,13 +7541,13 @@
         <v>151</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -7540,13 +7571,13 @@
         <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -7570,13 +7601,13 @@
         <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -7600,13 +7631,13 @@
         <v>154</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -7630,13 +7661,13 @@
         <v>155</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -7660,13 +7691,13 @@
         <v>156</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -7690,13 +7721,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -7720,13 +7751,13 @@
         <v>158</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -7750,13 +7781,13 @@
         <v>159</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -7780,13 +7811,13 @@
         <v>160</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -7810,13 +7841,13 @@
         <v>161</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -7840,13 +7871,13 @@
         <v>162</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -7870,13 +7901,13 @@
         <v>163</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -7900,13 +7931,13 @@
         <v>164</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -7930,13 +7961,13 @@
         <v>165</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -7960,13 +7991,13 @@
         <v>166</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -7990,13 +8021,13 @@
         <v>167</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -8020,13 +8051,13 @@
         <v>168</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -8050,13 +8081,13 @@
         <v>169</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -8080,13 +8111,13 @@
         <v>170</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -8110,13 +8141,13 @@
         <v>171</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -8140,13 +8171,13 @@
         <v>172</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -8170,13 +8201,13 @@
         <v>173</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -8200,13 +8231,13 @@
         <v>174</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -8230,13 +8261,13 @@
         <v>175</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -8260,13 +8291,13 @@
         <v>176</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -8290,13 +8321,13 @@
         <v>177</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -8320,13 +8351,13 @@
         <v>178</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -8350,13 +8381,13 @@
         <v>179</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -8380,13 +8411,13 @@
         <v>180</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -8410,13 +8441,13 @@
         <v>181</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -8440,13 +8471,13 @@
         <v>182</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -8470,13 +8501,13 @@
         <v>183</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -8500,13 +8531,13 @@
         <v>184</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -8530,13 +8561,13 @@
         <v>185</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -8560,13 +8591,13 @@
         <v>186</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -8590,13 +8621,13 @@
         <v>187</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -8622,13 +8653,13 @@
         <v>188</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -8654,13 +8685,13 @@
         <v>189</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -8686,13 +8717,13 @@
         <v>190</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -8718,13 +8749,13 @@
         <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -8750,7 +8781,7 @@
         <v>192</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>226</v>
@@ -8782,13 +8813,13 @@
         <v>193</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -8814,13 +8845,13 @@
         <v>194</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -8846,13 +8877,13 @@
         <v>195</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -8878,13 +8909,13 @@
         <v>196</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -8910,13 +8941,13 @@
         <v>197</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -8942,13 +8973,13 @@
         <v>198</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
@@ -8974,7 +9005,7 @@
         <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>238</v>
@@ -9006,13 +9037,13 @@
         <v>200</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -9038,13 +9069,13 @@
         <v>201</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
@@ -9070,13 +9101,13 @@
         <v>202</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -9102,13 +9133,13 @@
         <v>203</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -9134,13 +9165,13 @@
         <v>204</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
@@ -9166,13 +9197,13 @@
         <v>205</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
@@ -9198,13 +9229,13 @@
         <v>206</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -9230,13 +9261,13 @@
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -9262,11 +9293,11 @@
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -9292,11 +9323,11 @@
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
@@ -9322,11 +9353,11 @@
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
@@ -9352,11 +9383,11 @@
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
@@ -9382,7 +9413,7 @@
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2" t="s">
@@ -9412,11 +9443,11 @@
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -9442,7 +9473,7 @@
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2" t="s">
@@ -9472,7 +9503,7 @@
         <v>215</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2" t="s">
@@ -9502,7 +9533,7 @@
         <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2" t="s">
@@ -9532,11 +9563,11 @@
         <v>217</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
@@ -9562,11 +9593,11 @@
         <v>218</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
@@ -9592,11 +9623,11 @@
         <v>219</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -9622,11 +9653,11 @@
         <v>220</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
@@ -9652,11 +9683,11 @@
         <v>221</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
@@ -9682,11 +9713,11 @@
         <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -9712,11 +9743,11 @@
         <v>223</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -9742,11 +9773,11 @@
         <v>224</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -9772,11 +9803,11 @@
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -9802,11 +9833,11 @@
         <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -9832,13 +9863,13 @@
         <v>227</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -9860,10 +9891,18 @@
       <c r="V231" s="2"/>
     </row>
     <row r="232" ht="17" customHeight="1" spans="1:22">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
+      <c r="A232" s="1">
+        <v>228</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -9884,10 +9923,16 @@
       <c r="V232" s="2"/>
     </row>
     <row r="233" ht="17" customHeight="1" spans="1:22">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="A233" s="1">
+        <v>229</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>596</v>
+      </c>
       <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
+      <c r="D233" s="3" t="s">
+        <v>597</v>
+      </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -9908,10 +9953,16 @@
       <c r="V233" s="2"/>
     </row>
     <row r="234" ht="17" customHeight="1" spans="1:22">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+      <c r="A234" s="1">
+        <v>230</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
+      <c r="D234" s="2" t="s">
+        <v>599</v>
+      </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -9932,10 +9983,16 @@
       <c r="V234" s="2"/>
     </row>
     <row r="235" ht="17" customHeight="1" spans="1:22">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+      <c r="A235" s="1">
+        <v>231</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
+      <c r="D235" s="2" t="s">
+        <v>601</v>
+      </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>

--- a/rp/Excel/Language_多语言.xlsx
+++ b/rp/Excel/Language_多语言.xlsx
@@ -272,7 +272,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>分数</t>
+    <t>网红热度</t>
   </si>
   <si>
     <t>Text_Duration</t>
@@ -290,7 +290,7 @@
     <t>Top {0} In Terms Of Duration</t>
   </si>
   <si>
-    <t>时长全服前{0}名</t>
+    <t>网红排名全服前{0}名</t>
   </si>
   <si>
     <t>Text_StartGame</t>
@@ -1721,7 +1721,7 @@
     <t>Text_HUDPanelTips3</t>
   </si>
   <si>
-    <t>全服排行榜</t>
+    <t>网红排行榜</t>
   </si>
   <si>
     <t>Text_HUDPanelTips4</t>
@@ -3112,8 +3112,8 @@
   <sheetPr/>
   <dimension ref="A1:V574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="K211" sqref="K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.475" defaultRowHeight="16.5"/>
